--- a/INTLINE/data/576/DOS/M700001 - Currency In Circulation End Of Period Monthly.xlsx
+++ b/INTLINE/data/576/DOS/M700001 - Currency In Circulation End Of Period Monthly.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1254" uniqueCount="640">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1258" uniqueCount="642">
   <si>
     <t/>
   </si>
@@ -28,7 +28,7 @@
     <t>Table Title: Currency In Circulation (End Of Period), Monthly</t>
   </si>
   <si>
-    <t>Data last updated: 31/03/2022</t>
+    <t>Data last updated: 31/05/2022</t>
   </si>
   <si>
     <t>Source: MONETARY AUTHORITY OF SINGAPORE</t>
@@ -40,6 +40,12 @@
     <t>Data Series</t>
   </si>
   <si>
+    <t xml:space="preserve">2022 Apr </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022 Mar </t>
+  </si>
+  <si>
     <t xml:space="preserve">2022 Feb </t>
   </si>
   <si>
@@ -1927,7 +1933,7 @@
     <t>Generated by: SingStat Table Builder</t>
   </si>
   <si>
-    <t>Date generated: 22/04/2022</t>
+    <t>Date generated: 14/06/2022</t>
   </si>
   <si>
     <t>Contact: info@singstat.gov.sg</t>
@@ -2335,13 +2341,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:WQ31"/>
+  <dimension ref="A1:WS31"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
-    <col min="1" max="615" width="24" customWidth="1"/>
+    <col min="1" max="617" width="24" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:615" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:617" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -4185,6 +4191,12 @@
         <v>0</v>
       </c>
       <c r="WQ1" t="s">
+        <v>0</v>
+      </c>
+      <c r="WR1" t="s">
+        <v>0</v>
+      </c>
+      <c r="WS1" t="s">
         <v>0</v>
       </c>
     </row>
@@ -4218,12 +4230,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="615:615" x14ac:dyDescent="0.25">
-      <c r="WQ10" s="1" t="s">
+    <row r="10" spans="617:617" x14ac:dyDescent="0.25">
+      <c r="WS10" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:615" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:617" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>8</v>
       </c>
@@ -6069,175 +6081,181 @@
       <c r="WQ11" s="3" t="s">
         <v>622</v>
       </c>
+      <c r="WR11" s="3" t="s">
+        <v>623</v>
+      </c>
+      <c r="WS11" s="3" t="s">
+        <v>624</v>
+      </c>
     </row>
-    <row r="12" spans="1:615" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:617" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
-        <v>623</v>
+        <v>625</v>
       </c>
       <c r="B12" s="5">
+        <v>62333.5</v>
+      </c>
+      <c r="C12" s="5">
+        <v>62018.9</v>
+      </c>
+      <c r="D12" s="5">
         <v>62060.7</v>
       </c>
-      <c r="C12" s="5">
+      <c r="E12" s="5">
         <v>62568.3</v>
       </c>
-      <c r="D12" s="5">
+      <c r="F12" s="5">
         <v>60508.4</v>
       </c>
-      <c r="E12" s="5">
+      <c r="G12" s="5">
         <v>60075.3</v>
       </c>
-      <c r="F12" s="5">
+      <c r="H12" s="5">
         <v>59730.5</v>
       </c>
-      <c r="G12" s="5">
+      <c r="I12" s="5">
         <v>59344.3</v>
       </c>
-      <c r="H12" s="6">
+      <c r="J12" s="6">
         <v>59178</v>
       </c>
-      <c r="I12" s="5">
+      <c r="K12" s="5">
         <v>59074.1</v>
       </c>
-      <c r="J12" s="5">
+      <c r="L12" s="5">
         <v>58739.9</v>
       </c>
-      <c r="K12" s="5">
+      <c r="M12" s="5">
         <v>58545.9</v>
       </c>
-      <c r="L12" s="5">
+      <c r="N12" s="5">
         <v>58455.8</v>
       </c>
-      <c r="M12" s="5">
+      <c r="O12" s="5">
         <v>58456.1</v>
       </c>
-      <c r="N12" s="5">
+      <c r="P12" s="5">
         <v>59175.9</v>
       </c>
-      <c r="O12" s="5">
+      <c r="Q12" s="5">
         <v>59070.7</v>
       </c>
-      <c r="P12" s="5">
+      <c r="R12" s="5">
         <v>57504.8</v>
       </c>
-      <c r="Q12" s="5">
+      <c r="S12" s="5">
         <v>56573.2</v>
       </c>
-      <c r="R12" s="5">
+      <c r="T12" s="5">
         <v>56185.8</v>
       </c>
-      <c r="S12" s="5">
+      <c r="U12" s="5">
         <v>55777.3</v>
       </c>
-      <c r="T12" s="5">
+      <c r="V12" s="5">
         <v>55467.2</v>
       </c>
-      <c r="U12" s="5">
+      <c r="W12" s="5">
         <v>55385.1</v>
       </c>
-      <c r="V12" s="5">
+      <c r="X12" s="5">
         <v>55175.4</v>
       </c>
-      <c r="W12" s="5">
+      <c r="Y12" s="5">
         <v>54946.8</v>
       </c>
-      <c r="X12" s="6">
+      <c r="Z12" s="6">
         <v>54756</v>
       </c>
-      <c r="Y12" s="5">
+      <c r="AA12" s="5">
         <v>54516.9</v>
       </c>
-      <c r="Z12" s="5">
+      <c r="AB12" s="5">
         <v>53953.1</v>
       </c>
-      <c r="AA12" s="6">
+      <c r="AC12" s="6">
         <v>54683</v>
       </c>
-      <c r="AB12" s="5">
+      <c r="AD12" s="5">
         <v>52534.7</v>
       </c>
-      <c r="AC12" s="5">
+      <c r="AE12" s="5">
         <v>51362.6</v>
       </c>
-      <c r="AD12" s="5">
+      <c r="AF12" s="5">
         <v>51069.1</v>
       </c>
-      <c r="AE12" s="6">
+      <c r="AG12" s="6">
         <v>51004</v>
       </c>
-      <c r="AF12" s="5">
+      <c r="AH12" s="5">
         <v>50659.7</v>
       </c>
-      <c r="AG12" s="6">
+      <c r="AI12" s="6">
         <v>50256</v>
       </c>
-      <c r="AH12" s="5">
+      <c r="AJ12" s="5">
         <v>49918.6</v>
       </c>
-      <c r="AI12" s="5">
+      <c r="AK12" s="5">
         <v>49875.4</v>
       </c>
-      <c r="AJ12" s="5">
+      <c r="AL12" s="5">
         <v>49906.4</v>
       </c>
-      <c r="AK12" s="5">
+      <c r="AM12" s="5">
         <v>49783.1</v>
       </c>
-      <c r="AL12" s="6">
+      <c r="AN12" s="6">
         <v>50030</v>
       </c>
-      <c r="AM12" s="6">
+      <c r="AO12" s="6">
         <v>50820</v>
       </c>
-      <c r="AN12" s="5">
+      <c r="AP12" s="5">
         <v>49195.7</v>
       </c>
-      <c r="AO12" s="5">
+      <c r="AQ12" s="5">
         <v>47908.8</v>
       </c>
-      <c r="AP12" s="5">
+      <c r="AR12" s="5">
         <v>47735.4</v>
       </c>
-      <c r="AQ12" s="5">
+      <c r="AS12" s="5">
         <v>47655.3</v>
       </c>
-      <c r="AR12" s="5">
+      <c r="AT12" s="5">
         <v>47553.9</v>
       </c>
-      <c r="AS12" s="5">
+      <c r="AU12" s="5">
         <v>47481.8</v>
       </c>
-      <c r="AT12" s="5">
+      <c r="AV12" s="5">
         <v>47322.4</v>
       </c>
-      <c r="AU12" s="6">
+      <c r="AW12" s="6">
         <v>47297</v>
       </c>
-      <c r="AV12" s="5">
+      <c r="AX12" s="5">
         <v>47107.6</v>
       </c>
-      <c r="AW12" s="6">
+      <c r="AY12" s="6">
         <v>47124</v>
       </c>
-      <c r="AX12" s="6">
+      <c r="AZ12" s="6">
         <v>47549</v>
       </c>
-      <c r="AY12" s="5">
+      <c r="BA12" s="5">
         <v>46951.3</v>
       </c>
-      <c r="AZ12" s="5">
+      <c r="BB12" s="5">
         <v>46012.5</v>
       </c>
-      <c r="BA12" s="5">
+      <c r="BC12" s="5">
         <v>45030.2</v>
       </c>
-      <c r="BB12" s="5">
+      <c r="BD12" s="5">
         <v>44733.7</v>
-      </c>
-      <c r="BC12" s="5">
-        <v>46418.8</v>
-      </c>
-      <c r="BD12" s="5">
-        <v>46418.8</v>
       </c>
       <c r="BE12" s="5">
         <v>46418.8</v>
@@ -6246,28 +6264,28 @@
         <v>46418.8</v>
       </c>
       <c r="BG12" s="5">
-        <v>44018.8</v>
+        <v>46418.8</v>
       </c>
       <c r="BH12" s="5">
-        <v>44018.8</v>
+        <v>46418.8</v>
       </c>
       <c r="BI12" s="5">
         <v>44018.8</v>
       </c>
       <c r="BJ12" s="5">
+        <v>44018.8</v>
+      </c>
+      <c r="BK12" s="5">
+        <v>44018.8</v>
+      </c>
+      <c r="BL12" s="5">
         <v>46818.8</v>
       </c>
-      <c r="BK12" s="5">
+      <c r="BM12" s="5">
         <v>46818.8</v>
       </c>
-      <c r="BL12" s="5">
+      <c r="BN12" s="5">
         <v>45318.8</v>
-      </c>
-      <c r="BM12" s="5">
-        <v>42318.8</v>
-      </c>
-      <c r="BN12" s="5">
-        <v>42318.8</v>
       </c>
       <c r="BO12" s="5">
         <v>42318.8</v>
@@ -6288,19 +6306,19 @@
         <v>42318.8</v>
       </c>
       <c r="BU12" s="5">
+        <v>42318.8</v>
+      </c>
+      <c r="BV12" s="5">
+        <v>42318.8</v>
+      </c>
+      <c r="BW12" s="5">
         <v>39338.8</v>
       </c>
-      <c r="BV12" s="5">
+      <c r="BX12" s="5">
         <v>42688.8</v>
       </c>
-      <c r="BW12" s="5">
+      <c r="BY12" s="5">
         <v>42688.8</v>
-      </c>
-      <c r="BX12" s="5">
-        <v>39688.8</v>
-      </c>
-      <c r="BY12" s="5">
-        <v>39688.8</v>
       </c>
       <c r="BZ12" s="5">
         <v>39688.8</v>
@@ -6318,22 +6336,22 @@
         <v>39688.8</v>
       </c>
       <c r="CE12" s="5">
-        <v>36978.8</v>
+        <v>39688.8</v>
       </c>
       <c r="CF12" s="5">
-        <v>36978.8</v>
+        <v>39688.8</v>
       </c>
       <c r="CG12" s="5">
         <v>36978.8</v>
       </c>
       <c r="CH12" s="5">
+        <v>36978.8</v>
+      </c>
+      <c r="CI12" s="5">
+        <v>36978.8</v>
+      </c>
+      <c r="CJ12" s="5">
         <v>39128.8</v>
-      </c>
-      <c r="CI12" s="5">
-        <v>36428.8</v>
-      </c>
-      <c r="CJ12" s="5">
-        <v>36428.8</v>
       </c>
       <c r="CK12" s="5">
         <v>36428.8</v>
@@ -6354,25 +6372,25 @@
         <v>36428.8</v>
       </c>
       <c r="CQ12" s="5">
-        <v>33858.8</v>
+        <v>36428.8</v>
       </c>
       <c r="CR12" s="5">
-        <v>33858.8</v>
+        <v>36428.8</v>
       </c>
       <c r="CS12" s="5">
         <v>33858.8</v>
       </c>
       <c r="CT12" s="5">
+        <v>33858.8</v>
+      </c>
+      <c r="CU12" s="5">
+        <v>33858.8</v>
+      </c>
+      <c r="CV12" s="5">
         <v>35306.1</v>
       </c>
-      <c r="CU12" s="5">
+      <c r="CW12" s="5">
         <v>35306.1</v>
-      </c>
-      <c r="CV12" s="5">
-        <v>33806.1</v>
-      </c>
-      <c r="CW12" s="5">
-        <v>33806.1</v>
       </c>
       <c r="CX12" s="5">
         <v>33806.1</v>
@@ -6390,22 +6408,22 @@
         <v>33806.1</v>
       </c>
       <c r="DC12" s="5">
-        <v>31566.1</v>
+        <v>33806.1</v>
       </c>
       <c r="DD12" s="5">
-        <v>31566.1</v>
+        <v>33806.1</v>
       </c>
       <c r="DE12" s="5">
         <v>31566.1</v>
       </c>
       <c r="DF12" s="5">
+        <v>31566.1</v>
+      </c>
+      <c r="DG12" s="5">
+        <v>31566.1</v>
+      </c>
+      <c r="DH12" s="5">
         <v>32966.1</v>
-      </c>
-      <c r="DG12" s="5">
-        <v>32266.1</v>
-      </c>
-      <c r="DH12" s="5">
-        <v>32266.1</v>
       </c>
       <c r="DI12" s="5">
         <v>32266.1</v>
@@ -6426,25 +6444,25 @@
         <v>32266.1</v>
       </c>
       <c r="DO12" s="5">
-        <v>28826.1</v>
+        <v>32266.1</v>
       </c>
       <c r="DP12" s="5">
-        <v>28826.1</v>
+        <v>32266.1</v>
       </c>
       <c r="DQ12" s="5">
         <v>28826.1</v>
       </c>
       <c r="DR12" s="5">
+        <v>28826.1</v>
+      </c>
+      <c r="DS12" s="5">
+        <v>28826.1</v>
+      </c>
+      <c r="DT12" s="5">
         <v>30126.1</v>
       </c>
-      <c r="DS12" s="5">
+      <c r="DU12" s="5">
         <v>30126.1</v>
-      </c>
-      <c r="DT12" s="5">
-        <v>28180.1</v>
-      </c>
-      <c r="DU12" s="5">
-        <v>28180.1</v>
       </c>
       <c r="DV12" s="5">
         <v>28180.1</v>
@@ -6468,22 +6486,22 @@
         <v>28180.1</v>
       </c>
       <c r="EC12" s="5">
+        <v>28180.1</v>
+      </c>
+      <c r="ED12" s="5">
+        <v>28180.1</v>
+      </c>
+      <c r="EE12" s="5">
         <v>25940.1</v>
       </c>
-      <c r="ED12" s="5">
+      <c r="EF12" s="5">
         <v>27890.1</v>
       </c>
-      <c r="EE12" s="5">
+      <c r="EG12" s="5">
         <v>27890.1</v>
       </c>
-      <c r="EF12" s="5">
+      <c r="EH12" s="5">
         <v>25772.8</v>
-      </c>
-      <c r="EG12" s="5">
-        <v>24785.1</v>
-      </c>
-      <c r="EH12" s="5">
-        <v>24785.1</v>
       </c>
       <c r="EI12" s="5">
         <v>24785.1</v>
@@ -6495,10 +6513,10 @@
         <v>24785.1</v>
       </c>
       <c r="EL12" s="5">
-        <v>23806.9</v>
+        <v>24785.1</v>
       </c>
       <c r="EM12" s="5">
-        <v>23806.9</v>
+        <v>24785.1</v>
       </c>
       <c r="EN12" s="5">
         <v>23806.9</v>
@@ -6507,19 +6525,19 @@
         <v>23806.9</v>
       </c>
       <c r="EP12" s="5">
+        <v>23806.9</v>
+      </c>
+      <c r="EQ12" s="5">
+        <v>23806.9</v>
+      </c>
+      <c r="ER12" s="5">
         <v>25556.1</v>
       </c>
-      <c r="EQ12" s="5">
+      <c r="ES12" s="5">
         <v>23295.9</v>
       </c>
-      <c r="ER12" s="5">
+      <c r="ET12" s="5">
         <v>23295.9</v>
-      </c>
-      <c r="ES12" s="5">
-        <v>22170.8</v>
-      </c>
-      <c r="ET12" s="5">
-        <v>22170.8</v>
       </c>
       <c r="EU12" s="5">
         <v>22170.8</v>
@@ -6543,55 +6561,55 @@
         <v>22170.8</v>
       </c>
       <c r="FB12" s="5">
+        <v>22170.8</v>
+      </c>
+      <c r="FC12" s="5">
+        <v>22170.8</v>
+      </c>
+      <c r="FD12" s="5">
         <v>23708.5</v>
       </c>
-      <c r="FC12" s="5">
+      <c r="FE12" s="5">
         <v>23708.5</v>
       </c>
-      <c r="FD12" s="5">
+      <c r="FF12" s="5">
         <v>22080.8</v>
-      </c>
-      <c r="FE12" s="6">
-        <v>21226</v>
-      </c>
-      <c r="FF12" s="6">
-        <v>21226</v>
       </c>
       <c r="FG12" s="6">
         <v>21226</v>
       </c>
-      <c r="FH12" s="5">
+      <c r="FH12" s="6">
+        <v>21226</v>
+      </c>
+      <c r="FI12" s="6">
+        <v>21226</v>
+      </c>
+      <c r="FJ12" s="5">
         <v>20229.6</v>
-      </c>
-      <c r="FI12" s="5">
-        <v>19733.1</v>
-      </c>
-      <c r="FJ12" s="5">
-        <v>19733.1</v>
       </c>
       <c r="FK12" s="5">
         <v>19733.1</v>
       </c>
       <c r="FL12" s="5">
+        <v>19733.1</v>
+      </c>
+      <c r="FM12" s="5">
+        <v>19733.1</v>
+      </c>
+      <c r="FN12" s="5">
         <v>19390.1</v>
       </c>
-      <c r="FM12" s="5">
+      <c r="FO12" s="5">
         <v>19390.1</v>
       </c>
-      <c r="FN12" s="5">
+      <c r="FP12" s="5">
         <v>20844.2</v>
       </c>
-      <c r="FO12" s="5">
+      <c r="FQ12" s="5">
         <v>20844.2</v>
       </c>
-      <c r="FP12" s="6">
+      <c r="FR12" s="6">
         <v>18839</v>
-      </c>
-      <c r="FQ12" s="5">
-        <v>18339.1</v>
-      </c>
-      <c r="FR12" s="5">
-        <v>18339.1</v>
       </c>
       <c r="FS12" s="5">
         <v>18339.1</v>
@@ -6606,28 +6624,28 @@
         <v>18339.1</v>
       </c>
       <c r="FW12" s="5">
-        <v>17635.2</v>
+        <v>18339.1</v>
       </c>
       <c r="FX12" s="5">
-        <v>17635.2</v>
+        <v>18339.1</v>
       </c>
       <c r="FY12" s="5">
         <v>17635.2</v>
       </c>
       <c r="FZ12" s="5">
+        <v>17635.2</v>
+      </c>
+      <c r="GA12" s="5">
+        <v>17635.2</v>
+      </c>
+      <c r="GB12" s="5">
         <v>19616.7</v>
       </c>
-      <c r="GA12" s="5">
+      <c r="GC12" s="5">
         <v>17605.2</v>
       </c>
-      <c r="GB12" s="5">
+      <c r="GD12" s="5">
         <v>17605.2</v>
-      </c>
-      <c r="GC12" s="5">
-        <v>16911.9</v>
-      </c>
-      <c r="GD12" s="5">
-        <v>16911.9</v>
       </c>
       <c r="GE12" s="5">
         <v>16911.9</v>
@@ -6644,32 +6662,32 @@
       <c r="GI12" s="5">
         <v>16911.9</v>
       </c>
-      <c r="GJ12" s="6">
+      <c r="GJ12" s="5">
+        <v>16911.9</v>
+      </c>
+      <c r="GK12" s="5">
+        <v>16911.9</v>
+      </c>
+      <c r="GL12" s="6">
         <v>16500</v>
       </c>
-      <c r="GK12" s="5">
+      <c r="GM12" s="5">
         <v>16357.4</v>
       </c>
-      <c r="GL12" s="5">
+      <c r="GN12" s="5">
         <v>17380.3</v>
       </c>
-      <c r="GM12" s="5">
+      <c r="GO12" s="5">
         <v>18389.8</v>
       </c>
-      <c r="GN12" s="5">
+      <c r="GP12" s="5">
         <v>16378.6</v>
       </c>
-      <c r="GO12" s="5">
+      <c r="GQ12" s="5">
         <v>15807.6</v>
       </c>
-      <c r="GP12" s="5">
+      <c r="GR12" s="5">
         <v>16257.2</v>
-      </c>
-      <c r="GQ12" s="5">
-        <v>15699.3</v>
-      </c>
-      <c r="GR12" s="5">
-        <v>15699.3</v>
       </c>
       <c r="GS12" s="5">
         <v>15699.3</v>
@@ -6684,34 +6702,34 @@
         <v>15699.3</v>
       </c>
       <c r="GW12" s="5">
+        <v>15699.3</v>
+      </c>
+      <c r="GX12" s="5">
+        <v>15699.3</v>
+      </c>
+      <c r="GY12" s="5">
         <v>15533.2</v>
       </c>
-      <c r="GX12" s="6">
+      <c r="GZ12" s="6">
         <v>16355</v>
       </c>
-      <c r="GY12" s="5">
+      <c r="HA12" s="5">
         <v>16821.5</v>
       </c>
-      <c r="GZ12" s="5">
+      <c r="HB12" s="5">
         <v>15318.5</v>
       </c>
-      <c r="HA12" s="5">
+      <c r="HC12" s="5">
         <v>15105.7</v>
       </c>
-      <c r="HB12" s="5">
+      <c r="HD12" s="5">
         <v>14890.6</v>
       </c>
-      <c r="HC12" s="6">
+      <c r="HE12" s="6">
         <v>14722</v>
       </c>
-      <c r="HD12" s="5">
+      <c r="HF12" s="5">
         <v>14934.1</v>
-      </c>
-      <c r="HE12" s="5">
-        <v>14728.1</v>
-      </c>
-      <c r="HF12" s="5">
-        <v>14728.1</v>
       </c>
       <c r="HG12" s="5">
         <v>14728.1</v>
@@ -6720,4965 +6738,4983 @@
         <v>14728.1</v>
       </c>
       <c r="HI12" s="5">
+        <v>14728.1</v>
+      </c>
+      <c r="HJ12" s="5">
+        <v>14728.1</v>
+      </c>
+      <c r="HK12" s="5">
         <v>14560.4</v>
       </c>
-      <c r="HJ12" s="5">
+      <c r="HL12" s="5">
         <v>14771.9</v>
       </c>
-      <c r="HK12" s="6">
+      <c r="HM12" s="6">
         <v>15489</v>
       </c>
-      <c r="HL12" s="5">
+      <c r="HN12" s="5">
         <v>14343.7</v>
       </c>
-      <c r="HM12" s="5">
+      <c r="HO12" s="5">
         <v>14052.4</v>
-      </c>
-      <c r="HN12" s="5">
-        <v>14052.3</v>
-      </c>
-      <c r="HO12" s="5">
-        <v>14052.3</v>
       </c>
       <c r="HP12" s="5">
         <v>14052.3</v>
       </c>
       <c r="HQ12" s="5">
+        <v>14052.3</v>
+      </c>
+      <c r="HR12" s="5">
+        <v>14052.3</v>
+      </c>
+      <c r="HS12" s="5">
         <v>13925.8</v>
       </c>
-      <c r="HR12" s="6">
+      <c r="HT12" s="6">
         <v>13926</v>
       </c>
-      <c r="HS12" s="6">
+      <c r="HU12" s="6">
         <v>13925</v>
       </c>
-      <c r="HT12" s="5">
+      <c r="HV12" s="5">
         <v>13840.4</v>
       </c>
-      <c r="HU12" s="5">
+      <c r="HW12" s="5">
         <v>13840.2</v>
       </c>
-      <c r="HV12" s="5">
+      <c r="HX12" s="5">
         <v>14950.8</v>
       </c>
-      <c r="HW12" s="5">
+      <c r="HY12" s="5">
         <v>14950.8</v>
       </c>
-      <c r="HX12" s="6">
+      <c r="HZ12" s="6">
         <v>13741</v>
       </c>
-      <c r="HY12" s="5">
+      <c r="IA12" s="5">
         <v>13551.4</v>
       </c>
-      <c r="HZ12" s="5">
+      <c r="IB12" s="5">
         <v>13399.5</v>
       </c>
-      <c r="IA12" s="5">
+      <c r="IC12" s="5">
         <v>13333.9</v>
       </c>
-      <c r="IB12" s="5">
+      <c r="ID12" s="5">
         <v>13360.4</v>
       </c>
-      <c r="IC12" s="5">
+      <c r="IE12" s="5">
         <v>13308.1</v>
       </c>
-      <c r="ID12" s="5">
+      <c r="IF12" s="5">
         <v>13339.9</v>
       </c>
-      <c r="IE12" s="5">
+      <c r="IG12" s="5">
         <v>13348.3</v>
       </c>
-      <c r="IF12" s="5">
+      <c r="IH12" s="5">
         <v>13316.7</v>
       </c>
-      <c r="IG12" s="5">
+      <c r="II12" s="5">
         <v>13405.2</v>
       </c>
-      <c r="IH12" s="6">
+      <c r="IJ12" s="6">
         <v>13757</v>
       </c>
-      <c r="II12" s="5">
+      <c r="IK12" s="5">
         <v>13437.5</v>
       </c>
-      <c r="IJ12" s="5">
+      <c r="IL12" s="5">
         <v>13304.4</v>
       </c>
-      <c r="IK12" s="5">
+      <c r="IM12" s="5">
         <v>12928.5</v>
       </c>
-      <c r="IL12" s="5">
+      <c r="IN12" s="5">
         <v>12675.7</v>
       </c>
-      <c r="IM12" s="5">
+      <c r="IO12" s="5">
         <v>12602.3</v>
       </c>
-      <c r="IN12" s="5">
+      <c r="IP12" s="5">
         <v>12600.7</v>
       </c>
-      <c r="IO12" s="6">
+      <c r="IQ12" s="6">
         <v>12681</v>
       </c>
-      <c r="IP12" s="5">
+      <c r="IR12" s="5">
         <v>12664.5</v>
       </c>
-      <c r="IQ12" s="5">
+      <c r="IS12" s="5">
         <v>12647.9</v>
       </c>
-      <c r="IR12" s="5">
+      <c r="IT12" s="5">
         <v>12683.2</v>
       </c>
-      <c r="IS12" s="5">
+      <c r="IU12" s="5">
         <v>12599.3</v>
       </c>
-      <c r="IT12" s="5">
+      <c r="IV12" s="5">
         <v>12663.9</v>
       </c>
-      <c r="IU12" s="5">
+      <c r="IW12" s="5">
         <v>13519.1</v>
       </c>
-      <c r="IV12" s="6">
+      <c r="IX12" s="6">
         <v>13017</v>
       </c>
-      <c r="IW12" s="5">
+      <c r="IY12" s="5">
         <v>12335.5</v>
       </c>
-      <c r="IX12" s="5">
+      <c r="IZ12" s="5">
         <v>12271.5</v>
       </c>
-      <c r="IY12" s="5">
+      <c r="JA12" s="5">
         <v>12194.5</v>
       </c>
-      <c r="IZ12" s="5">
+      <c r="JB12" s="5">
         <v>12158.8</v>
       </c>
-      <c r="JA12" s="5">
+      <c r="JC12" s="5">
         <v>12178.5</v>
       </c>
-      <c r="JB12" s="5">
+      <c r="JD12" s="5">
         <v>12204.5</v>
       </c>
-      <c r="JC12" s="6">
+      <c r="JE12" s="6">
         <v>12216</v>
       </c>
-      <c r="JD12" s="5">
+      <c r="JF12" s="5">
         <v>12277.2</v>
       </c>
-      <c r="JE12" s="5">
+      <c r="JG12" s="5">
         <v>12379.5</v>
       </c>
-      <c r="JF12" s="5">
+      <c r="JH12" s="5">
         <v>12605.9</v>
       </c>
-      <c r="JG12" s="5">
+      <c r="JI12" s="5">
         <v>13390.6</v>
       </c>
-      <c r="JH12" s="5">
+      <c r="JJ12" s="5">
         <v>14209.1</v>
       </c>
-      <c r="JI12" s="6">
+      <c r="JK12" s="6">
         <v>11964</v>
       </c>
-      <c r="JJ12" s="5">
+      <c r="JL12" s="5">
         <v>11901.2</v>
       </c>
-      <c r="JK12" s="5">
+      <c r="JM12" s="5">
         <v>11871.7</v>
       </c>
-      <c r="JL12" s="5">
+      <c r="JN12" s="5">
         <v>11675.3</v>
       </c>
-      <c r="JM12" s="5">
+      <c r="JO12" s="5">
         <v>11722.7</v>
       </c>
-      <c r="JN12" s="5">
+      <c r="JP12" s="5">
         <v>11682.6</v>
       </c>
-      <c r="JO12" s="6">
+      <c r="JQ12" s="6">
         <v>11785</v>
       </c>
-      <c r="JP12" s="5">
+      <c r="JR12" s="5">
         <v>11708.4</v>
       </c>
-      <c r="JQ12" s="5">
+      <c r="JS12" s="5">
         <v>11772.8</v>
       </c>
-      <c r="JR12" s="5">
+      <c r="JT12" s="5">
         <v>11960.2</v>
       </c>
-      <c r="JS12" s="5">
+      <c r="JU12" s="5">
         <v>11573.8</v>
       </c>
-      <c r="JT12" s="5">
+      <c r="JV12" s="5">
         <v>11337.9</v>
       </c>
-      <c r="JU12" s="5">
+      <c r="JW12" s="5">
         <v>11144.5</v>
       </c>
-      <c r="JV12" s="5">
+      <c r="JX12" s="5">
         <v>11133.5</v>
       </c>
-      <c r="JW12" s="5">
+      <c r="JY12" s="5">
         <v>11101.6</v>
       </c>
-      <c r="JX12" s="5">
+      <c r="JZ12" s="5">
         <v>11143.6</v>
       </c>
-      <c r="JY12" s="5">
+      <c r="KA12" s="5">
         <v>11188.4</v>
       </c>
-      <c r="JZ12" s="5">
+      <c r="KB12" s="5">
         <v>11271.1</v>
       </c>
-      <c r="KA12" s="5">
+      <c r="KC12" s="5">
         <v>11438.7</v>
       </c>
-      <c r="KB12" s="5">
+      <c r="KD12" s="5">
         <v>11440.8</v>
       </c>
-      <c r="KC12" s="5">
+      <c r="KE12" s="5">
         <v>11518.9</v>
       </c>
-      <c r="KD12" s="5">
+      <c r="KF12" s="5">
         <v>11767.9</v>
       </c>
-      <c r="KE12" s="6">
+      <c r="KG12" s="6">
         <v>13026</v>
       </c>
-      <c r="KF12" s="5">
+      <c r="KH12" s="5">
         <v>11732.7</v>
       </c>
-      <c r="KG12" s="5">
+      <c r="KI12" s="5">
         <v>11508.6</v>
       </c>
-      <c r="KH12" s="5">
+      <c r="KJ12" s="5">
         <v>11474.7</v>
       </c>
-      <c r="KI12" s="5">
+      <c r="KK12" s="5">
         <v>11412.3</v>
       </c>
-      <c r="KJ12" s="6">
+      <c r="KL12" s="6">
         <v>11448</v>
       </c>
-      <c r="KK12" s="5">
+      <c r="KM12" s="5">
         <v>11478.3</v>
       </c>
-      <c r="KL12" s="5">
+      <c r="KN12" s="5">
         <v>11500.4</v>
       </c>
-      <c r="KM12" s="5">
+      <c r="KO12" s="5">
         <v>11628.5</v>
       </c>
-      <c r="KN12" s="5">
+      <c r="KP12" s="5">
         <v>11623.7</v>
       </c>
-      <c r="KO12" s="5">
+      <c r="KQ12" s="5">
         <v>11737.4</v>
       </c>
-      <c r="KP12" s="5">
+      <c r="KR12" s="5">
         <v>11946.9</v>
       </c>
-      <c r="KQ12" s="5">
+      <c r="KS12" s="5">
         <v>12080.4</v>
       </c>
-      <c r="KR12" s="5">
+      <c r="KT12" s="5">
         <v>11276.2</v>
       </c>
-      <c r="KS12" s="5">
+      <c r="KU12" s="5">
         <v>11017.4</v>
       </c>
-      <c r="KT12" s="5">
+      <c r="KV12" s="5">
         <v>10902.1</v>
       </c>
-      <c r="KU12" s="5">
+      <c r="KW12" s="5">
         <v>10837.9</v>
       </c>
-      <c r="KV12" s="6">
+      <c r="KX12" s="6">
         <v>10881</v>
       </c>
-      <c r="KW12" s="5">
+      <c r="KY12" s="5">
         <v>10897.3</v>
       </c>
-      <c r="KX12" s="6">
+      <c r="KZ12" s="6">
         <v>10868</v>
       </c>
-      <c r="KY12" s="5">
+      <c r="LA12" s="5">
         <v>11030.4</v>
       </c>
-      <c r="KZ12" s="5">
+      <c r="LB12" s="5">
         <v>11026.6</v>
       </c>
-      <c r="LA12" s="5">
+      <c r="LC12" s="5">
         <v>10885.5</v>
       </c>
-      <c r="LB12" s="5">
+      <c r="LD12" s="5">
         <v>11271.6</v>
       </c>
-      <c r="LC12" s="5">
+      <c r="LE12" s="5">
         <v>10890.3</v>
       </c>
-      <c r="LD12" s="5">
+      <c r="LF12" s="5">
         <v>10756.5</v>
       </c>
-      <c r="LE12" s="5">
+      <c r="LG12" s="5">
         <v>10577.2</v>
       </c>
-      <c r="LF12" s="5">
+      <c r="LH12" s="5">
         <v>10524.3</v>
       </c>
-      <c r="LG12" s="5">
+      <c r="LI12" s="5">
         <v>10474.7</v>
       </c>
-      <c r="LH12" s="6">
+      <c r="LJ12" s="6">
         <v>10431</v>
       </c>
-      <c r="LI12" s="5">
+      <c r="LK12" s="5">
         <v>10374.2</v>
       </c>
-      <c r="LJ12" s="5">
+      <c r="LL12" s="5">
         <v>10379.2</v>
       </c>
-      <c r="LK12" s="5">
+      <c r="LM12" s="5">
         <v>10438.1</v>
       </c>
-      <c r="LL12" s="5">
+      <c r="LN12" s="5">
         <v>10421.2</v>
       </c>
-      <c r="LM12" s="5">
+      <c r="LO12" s="5">
         <v>10375.2</v>
       </c>
-      <c r="LN12" s="5">
+      <c r="LP12" s="5">
         <v>10554.8</v>
       </c>
-      <c r="LO12" s="5">
+      <c r="LQ12" s="5">
         <v>11333.8</v>
       </c>
-      <c r="LP12" s="5">
+      <c r="LR12" s="5">
         <v>10169.6</v>
       </c>
-      <c r="LQ12" s="5">
+      <c r="LS12" s="5">
         <v>9994.4</v>
       </c>
-      <c r="LR12" s="5">
+      <c r="LT12" s="5">
         <v>9948.9</v>
       </c>
-      <c r="LS12" s="5">
+      <c r="LU12" s="5">
         <v>9905.8</v>
       </c>
-      <c r="LT12" s="5">
+      <c r="LV12" s="5">
         <v>9860.9</v>
       </c>
-      <c r="LU12" s="5">
+      <c r="LW12" s="5">
         <v>9867.8</v>
       </c>
-      <c r="LV12" s="5">
+      <c r="LX12" s="5">
         <v>9896.5</v>
       </c>
-      <c r="LW12" s="5">
+      <c r="LY12" s="5">
         <v>9912.5</v>
       </c>
-      <c r="LX12" s="5">
+      <c r="LZ12" s="5">
         <v>9864.8</v>
       </c>
-      <c r="LY12" s="5">
+      <c r="MA12" s="5">
         <v>9851.9</v>
       </c>
-      <c r="LZ12" s="5">
+      <c r="MB12" s="5">
         <v>9990.7</v>
       </c>
-      <c r="MA12" s="5">
+      <c r="MC12" s="5">
         <v>10040.8</v>
       </c>
-      <c r="MB12" s="5">
+      <c r="MD12" s="5">
         <v>9674.7</v>
       </c>
-      <c r="MC12" s="5">
+      <c r="ME12" s="5">
         <v>9444.1</v>
       </c>
-      <c r="MD12" s="5">
+      <c r="MF12" s="5">
         <v>9406.6</v>
       </c>
-      <c r="ME12" s="5">
+      <c r="MG12" s="5">
         <v>9362.5</v>
       </c>
-      <c r="MF12" s="5">
+      <c r="MH12" s="5">
         <v>9331.7</v>
       </c>
-      <c r="MG12" s="5">
+      <c r="MI12" s="5">
         <v>9256.7</v>
       </c>
-      <c r="MH12" s="5">
+      <c r="MJ12" s="5">
         <v>9259.4</v>
       </c>
-      <c r="MI12" s="5">
+      <c r="MK12" s="5">
         <v>9197.6</v>
       </c>
-      <c r="MJ12" s="5">
+      <c r="ML12" s="5">
         <v>9134.4</v>
       </c>
-      <c r="MK12" s="5">
+      <c r="MM12" s="5">
         <v>9148.2</v>
       </c>
-      <c r="ML12" s="5">
+      <c r="MN12" s="5">
         <v>9036.5</v>
       </c>
-      <c r="MM12" s="6">
+      <c r="MO12" s="6">
         <v>9459</v>
       </c>
-      <c r="MN12" s="6">
+      <c r="MP12" s="6">
         <v>8971</v>
       </c>
-      <c r="MO12" s="5">
+      <c r="MQ12" s="5">
         <v>8640.6</v>
       </c>
-      <c r="MP12" s="5">
+      <c r="MR12" s="5">
         <v>8594.8</v>
       </c>
-      <c r="MQ12" s="5">
+      <c r="MS12" s="5">
         <v>8556.2</v>
       </c>
-      <c r="MR12" s="5">
+      <c r="MT12" s="5">
         <v>8512.4</v>
       </c>
-      <c r="MS12" s="5">
+      <c r="MU12" s="5">
         <v>8484.9</v>
       </c>
-      <c r="MT12" s="5">
+      <c r="MV12" s="5">
         <v>8415.3</v>
       </c>
-      <c r="MU12" s="6">
+      <c r="MW12" s="6">
         <v>8410</v>
       </c>
-      <c r="MV12" s="5">
+      <c r="MX12" s="5">
         <v>8420.1</v>
       </c>
-      <c r="MW12" s="5">
+      <c r="MY12" s="5">
         <v>8392.5</v>
       </c>
-      <c r="MX12" s="5">
+      <c r="MZ12" s="5">
         <v>8418.4</v>
       </c>
-      <c r="MY12" s="5">
+      <c r="NA12" s="5">
         <v>8824.8</v>
       </c>
-      <c r="MZ12" s="5">
+      <c r="NB12" s="5">
         <v>8168.7</v>
       </c>
-      <c r="NA12" s="5">
+      <c r="NC12" s="5">
         <v>7862.2</v>
       </c>
-      <c r="NB12" s="5">
+      <c r="ND12" s="5">
         <v>7723.2</v>
       </c>
-      <c r="NC12" s="5">
+      <c r="NE12" s="5">
         <v>7689.6</v>
       </c>
-      <c r="ND12" s="5">
+      <c r="NF12" s="5">
         <v>7719.1</v>
       </c>
-      <c r="NE12" s="5">
+      <c r="NG12" s="5">
         <v>7696.3</v>
       </c>
-      <c r="NF12" s="5">
+      <c r="NH12" s="5">
         <v>7800.4</v>
       </c>
-      <c r="NG12" s="5">
+      <c r="NI12" s="5">
         <v>7807.9</v>
       </c>
-      <c r="NH12" s="5">
+      <c r="NJ12" s="5">
         <v>7809.4</v>
       </c>
-      <c r="NI12" s="5">
+      <c r="NK12" s="5">
         <v>7874.5</v>
       </c>
-      <c r="NJ12" s="5">
+      <c r="NL12" s="5">
         <v>8006.1</v>
       </c>
-      <c r="NK12" s="5">
+      <c r="NM12" s="5">
         <v>8039.4</v>
       </c>
-      <c r="NL12" s="5">
+      <c r="NN12" s="5">
         <v>7711.8</v>
       </c>
-      <c r="NM12" s="5">
+      <c r="NO12" s="5">
         <v>7420.8</v>
       </c>
-      <c r="NN12" s="5">
+      <c r="NP12" s="5">
         <v>7357.3</v>
       </c>
-      <c r="NO12" s="5">
+      <c r="NQ12" s="5">
         <v>7320.6</v>
       </c>
-      <c r="NP12" s="6">
+      <c r="NR12" s="6">
         <v>7333</v>
       </c>
-      <c r="NQ12" s="5">
+      <c r="NS12" s="5">
         <v>7260.1</v>
       </c>
-      <c r="NR12" s="5">
+      <c r="NT12" s="5">
         <v>7177.8</v>
       </c>
-      <c r="NS12" s="5">
+      <c r="NU12" s="5">
         <v>7192.4</v>
       </c>
-      <c r="NT12" s="5">
+      <c r="NV12" s="5">
         <v>7281.7</v>
       </c>
-      <c r="NU12" s="5">
+      <c r="NW12" s="5">
         <v>7204.8</v>
       </c>
-      <c r="NV12" s="5">
+      <c r="NX12" s="5">
         <v>7230.7</v>
       </c>
-      <c r="NW12" s="5">
+      <c r="NY12" s="5">
         <v>7776.7</v>
       </c>
-      <c r="NX12" s="6">
+      <c r="NZ12" s="6">
         <v>7138</v>
       </c>
-      <c r="NY12" s="5">
+      <c r="OA12" s="5">
         <v>6873.8</v>
       </c>
-      <c r="NZ12" s="5">
+      <c r="OB12" s="5">
         <v>6830.8</v>
       </c>
-      <c r="OA12" s="5">
+      <c r="OC12" s="5">
         <v>6735.7</v>
       </c>
-      <c r="OB12" s="5">
+      <c r="OD12" s="5">
         <v>6718.7</v>
       </c>
-      <c r="OC12" s="5">
+      <c r="OE12" s="5">
         <v>6665.5</v>
       </c>
-      <c r="OD12" s="6">
+      <c r="OF12" s="6">
         <v>6655</v>
       </c>
-      <c r="OE12" s="5">
+      <c r="OG12" s="5">
         <v>6635.9</v>
       </c>
-      <c r="OF12" s="6">
+      <c r="OH12" s="6">
         <v>6587</v>
       </c>
-      <c r="OG12" s="5">
+      <c r="OI12" s="5">
         <v>6607.1</v>
       </c>
-      <c r="OH12" s="5">
+      <c r="OJ12" s="5">
         <v>6617.2</v>
       </c>
-      <c r="OI12" s="5">
+      <c r="OK12" s="5">
         <v>6843.8</v>
       </c>
-      <c r="OJ12" s="5">
+      <c r="OL12" s="5">
         <v>6702.2</v>
       </c>
-      <c r="OK12" s="5">
+      <c r="OM12" s="5">
         <v>6216.8</v>
       </c>
-      <c r="OL12" s="5">
+      <c r="ON12" s="5">
         <v>6136.7</v>
       </c>
-      <c r="OM12" s="5">
+      <c r="OO12" s="5">
         <v>6139.3</v>
       </c>
-      <c r="ON12" s="5">
+      <c r="OP12" s="5">
         <v>6090.8</v>
       </c>
-      <c r="OO12" s="5">
+      <c r="OQ12" s="5">
         <v>6110.7</v>
       </c>
-      <c r="OP12" s="5">
+      <c r="OR12" s="5">
         <v>6103.7</v>
       </c>
-      <c r="OQ12" s="5">
+      <c r="OS12" s="5">
         <v>6088.8</v>
       </c>
-      <c r="OR12" s="5">
+      <c r="OT12" s="5">
         <v>5989.3</v>
       </c>
-      <c r="OS12" s="5">
+      <c r="OU12" s="5">
         <v>6011.3</v>
       </c>
-      <c r="OT12" s="5">
+      <c r="OV12" s="5">
         <v>6135.5</v>
       </c>
-      <c r="OU12" s="5">
+      <c r="OW12" s="5">
         <v>6079.5</v>
       </c>
-      <c r="OV12" s="5">
+      <c r="OX12" s="5">
         <v>5885.7</v>
       </c>
-      <c r="OW12" s="5">
+      <c r="OY12" s="5">
         <v>5692.1</v>
       </c>
-      <c r="OX12" s="5">
+      <c r="OZ12" s="5">
         <v>5703.9</v>
       </c>
-      <c r="OY12" s="5">
+      <c r="PA12" s="5">
         <v>5650.1</v>
       </c>
-      <c r="OZ12" s="5">
+      <c r="PB12" s="5">
         <v>5616.1</v>
       </c>
-      <c r="PA12" s="5">
+      <c r="PC12" s="5">
         <v>5601.4</v>
       </c>
-      <c r="PB12" s="5">
+      <c r="PD12" s="5">
         <v>5618.8</v>
       </c>
-      <c r="PC12" s="5">
+      <c r="PE12" s="5">
         <v>5651.8</v>
       </c>
-      <c r="PD12" s="5">
+      <c r="PF12" s="5">
         <v>5623.1</v>
       </c>
-      <c r="PE12" s="5">
+      <c r="PG12" s="5">
         <v>5610.8</v>
       </c>
-      <c r="PF12" s="6">
+      <c r="PH12" s="6">
         <v>5601</v>
       </c>
-      <c r="PG12" s="5">
+      <c r="PI12" s="5">
         <v>5981.7</v>
       </c>
-      <c r="PH12" s="5">
+      <c r="PJ12" s="5">
         <v>5484.2</v>
       </c>
-      <c r="PI12" s="5">
+      <c r="PK12" s="5">
         <v>5266.1</v>
       </c>
-      <c r="PJ12" s="5">
+      <c r="PL12" s="5">
         <v>5230.4</v>
       </c>
-      <c r="PK12" s="5">
+      <c r="PM12" s="5">
         <v>5205.9</v>
       </c>
-      <c r="PL12" s="5">
+      <c r="PN12" s="5">
         <v>5126.8</v>
       </c>
-      <c r="PM12" s="6">
+      <c r="PO12" s="6">
         <v>5112</v>
       </c>
-      <c r="PN12" s="5">
+      <c r="PP12" s="5">
         <v>5149.8</v>
       </c>
-      <c r="PO12" s="5">
+      <c r="PQ12" s="5">
         <v>5199.5</v>
       </c>
-      <c r="PP12" s="5">
+      <c r="PR12" s="5">
         <v>5181.5</v>
       </c>
-      <c r="PQ12" s="5">
+      <c r="PS12" s="5">
         <v>5224.9</v>
       </c>
-      <c r="PR12" s="5">
+      <c r="PT12" s="5">
         <v>5279.2</v>
       </c>
-      <c r="PS12" s="5">
+      <c r="PU12" s="5">
         <v>5397.2</v>
       </c>
-      <c r="PT12" s="5">
+      <c r="PV12" s="5">
         <v>5149.1</v>
       </c>
-      <c r="PU12" s="5">
+      <c r="PW12" s="5">
         <v>4980.7</v>
       </c>
-      <c r="PV12" s="5">
+      <c r="PX12" s="5">
         <v>4991.9</v>
       </c>
-      <c r="PW12" s="5">
+      <c r="PY12" s="5">
         <v>4996.5</v>
       </c>
-      <c r="PX12" s="5">
+      <c r="PZ12" s="5">
         <v>5045.4</v>
       </c>
-      <c r="PY12" s="5">
+      <c r="QA12" s="5">
         <v>5083.6</v>
       </c>
-      <c r="PZ12" s="5">
+      <c r="QB12" s="5">
         <v>5118.4</v>
       </c>
-      <c r="QA12" s="6">
+      <c r="QC12" s="6">
         <v>5069</v>
       </c>
-      <c r="QB12" s="5">
+      <c r="QD12" s="5">
         <v>5063.1</v>
       </c>
-      <c r="QC12" s="6">
+      <c r="QE12" s="6">
         <v>5079</v>
       </c>
-      <c r="QD12" s="5">
+      <c r="QF12" s="5">
         <v>5363.1</v>
       </c>
-      <c r="QE12" s="5">
+      <c r="QG12" s="5">
         <v>5099.5</v>
       </c>
-      <c r="QF12" s="5">
+      <c r="QH12" s="5">
         <v>5033.4</v>
       </c>
-      <c r="QG12" s="5">
+      <c r="QI12" s="5">
         <v>4817.8</v>
       </c>
-      <c r="QH12" s="5">
+      <c r="QJ12" s="5">
         <v>4808.3</v>
       </c>
-      <c r="QI12" s="5">
+      <c r="QK12" s="5">
         <v>4782.5</v>
       </c>
-      <c r="QJ12" s="6">
+      <c r="QL12" s="6">
         <v>4810</v>
       </c>
-      <c r="QK12" s="5">
+      <c r="QM12" s="5">
         <v>4798.9</v>
-      </c>
-      <c r="QL12" s="6">
-        <v>4819</v>
-      </c>
-      <c r="QM12" s="5">
-        <v>4838.7</v>
       </c>
       <c r="QN12" s="6">
         <v>4819</v>
       </c>
       <c r="QO12" s="5">
+        <v>4838.7</v>
+      </c>
+      <c r="QP12" s="6">
+        <v>4819</v>
+      </c>
+      <c r="QQ12" s="5">
         <v>4797.8</v>
       </c>
-      <c r="QP12" s="5">
+      <c r="QR12" s="5">
         <v>4886.7</v>
       </c>
-      <c r="QQ12" s="5">
+      <c r="QS12" s="5">
         <v>5284.9</v>
       </c>
-      <c r="QR12" s="5">
+      <c r="QT12" s="5">
         <v>4739.7</v>
       </c>
-      <c r="QS12" s="5">
+      <c r="QU12" s="5">
         <v>4555.6</v>
       </c>
-      <c r="QT12" s="5">
+      <c r="QV12" s="5">
         <v>4525.1</v>
       </c>
-      <c r="QU12" s="5">
+      <c r="QW12" s="5">
         <v>4522.9</v>
       </c>
-      <c r="QV12" s="5">
+      <c r="QX12" s="5">
         <v>4496.9</v>
       </c>
-      <c r="QW12" s="5">
+      <c r="QY12" s="5">
         <v>4433.6</v>
       </c>
-      <c r="QX12" s="5">
+      <c r="QZ12" s="5">
         <v>4443.1</v>
       </c>
-      <c r="QY12" s="5">
+      <c r="RA12" s="5">
         <v>4467.1</v>
       </c>
-      <c r="QZ12" s="5">
+      <c r="RB12" s="5">
         <v>4398.4</v>
       </c>
-      <c r="RA12" s="5">
+      <c r="RC12" s="5">
         <v>4438.6</v>
       </c>
-      <c r="RB12" s="5">
+      <c r="RD12" s="5">
         <v>4552.1</v>
       </c>
-      <c r="RC12" s="5">
+      <c r="RE12" s="5">
         <v>4542.3</v>
       </c>
-      <c r="RD12" s="5">
+      <c r="RF12" s="5">
         <v>4339.1</v>
       </c>
-      <c r="RE12" s="5">
+      <c r="RG12" s="5">
         <v>4126.9</v>
       </c>
-      <c r="RF12" s="5">
+      <c r="RH12" s="5">
         <v>4038.6</v>
       </c>
-      <c r="RG12" s="5">
+      <c r="RI12" s="5">
         <v>4005.8</v>
       </c>
-      <c r="RH12" s="5">
+      <c r="RJ12" s="5">
         <v>3900.1</v>
       </c>
-      <c r="RI12" s="5">
+      <c r="RK12" s="5">
         <v>3872.5</v>
       </c>
-      <c r="RJ12" s="5">
+      <c r="RL12" s="5">
         <v>3841.6</v>
       </c>
-      <c r="RK12" s="5">
+      <c r="RM12" s="5">
         <v>3798.8</v>
       </c>
-      <c r="RL12" s="6">
+      <c r="RN12" s="6">
         <v>3793</v>
       </c>
-      <c r="RM12" s="5">
+      <c r="RO12" s="5">
         <v>3783.4</v>
       </c>
-      <c r="RN12" s="5">
+      <c r="RP12" s="5">
         <v>3773.9</v>
       </c>
-      <c r="RO12" s="5">
+      <c r="RQ12" s="5">
         <v>4074.9</v>
       </c>
-      <c r="RP12" s="5">
+      <c r="RR12" s="5">
         <v>3689.6</v>
       </c>
-      <c r="RQ12" s="5">
+      <c r="RS12" s="5">
         <v>3452.4</v>
       </c>
-      <c r="RR12" s="5">
+      <c r="RT12" s="5">
         <v>3458.5</v>
       </c>
-      <c r="RS12" s="5">
+      <c r="RU12" s="5">
         <v>3432.7</v>
       </c>
-      <c r="RT12" s="5">
+      <c r="RV12" s="5">
         <v>3391.7</v>
       </c>
-      <c r="RU12" s="5">
+      <c r="RW12" s="5">
         <v>3401.8</v>
       </c>
-      <c r="RV12" s="5">
+      <c r="RX12" s="5">
         <v>3426.7</v>
       </c>
-      <c r="RW12" s="5">
+      <c r="RY12" s="5">
         <v>3429.6</v>
       </c>
-      <c r="RX12" s="5">
+      <c r="RZ12" s="5">
         <v>3405.7</v>
       </c>
-      <c r="RY12" s="5">
+      <c r="SA12" s="5">
         <v>3424.5</v>
       </c>
-      <c r="RZ12" s="5">
+      <c r="SB12" s="5">
         <v>3514.2</v>
       </c>
-      <c r="SA12" s="5">
+      <c r="SC12" s="5">
         <v>3592.5</v>
       </c>
-      <c r="SB12" s="5">
+      <c r="SD12" s="5">
         <v>3498.8</v>
       </c>
-      <c r="SC12" s="5">
+      <c r="SE12" s="5">
         <v>3324.1</v>
       </c>
-      <c r="SD12" s="5">
+      <c r="SF12" s="5">
         <v>3328.9</v>
       </c>
-      <c r="SE12" s="5">
+      <c r="SG12" s="5">
         <v>3333.6</v>
       </c>
-      <c r="SF12" s="5">
+      <c r="SH12" s="5">
         <v>3296.5</v>
       </c>
-      <c r="SG12" s="5">
+      <c r="SI12" s="5">
         <v>3263.3</v>
       </c>
-      <c r="SH12" s="5">
+      <c r="SJ12" s="5">
         <v>3237.5</v>
       </c>
-      <c r="SI12" s="5">
+      <c r="SK12" s="5">
         <v>3223.6</v>
       </c>
-      <c r="SJ12" s="5">
+      <c r="SL12" s="5">
         <v>3253.7</v>
       </c>
-      <c r="SK12" s="5">
+      <c r="SM12" s="5">
         <v>3332.4</v>
       </c>
-      <c r="SL12" s="5">
+      <c r="SN12" s="5">
         <v>3388.7</v>
       </c>
-      <c r="SM12" s="5">
+      <c r="SO12" s="5">
         <v>3323.9</v>
       </c>
-      <c r="SN12" s="5">
+      <c r="SP12" s="5">
         <v>3181.2</v>
       </c>
-      <c r="SO12" s="5">
+      <c r="SQ12" s="5">
         <v>3040.9</v>
       </c>
-      <c r="SP12" s="6">
+      <c r="SR12" s="6">
         <v>2987</v>
       </c>
-      <c r="SQ12" s="5">
+      <c r="SS12" s="5">
         <v>2943.7</v>
       </c>
-      <c r="SR12" s="5">
+      <c r="ST12" s="5">
         <v>2923.8</v>
       </c>
-      <c r="SS12" s="5">
+      <c r="SU12" s="5">
         <v>2910.4</v>
       </c>
-      <c r="ST12" s="5">
+      <c r="SV12" s="5">
         <v>2901.6</v>
       </c>
-      <c r="SU12" s="5">
+      <c r="SW12" s="5">
         <v>2894.6</v>
       </c>
-      <c r="SV12" s="6">
+      <c r="SX12" s="6">
         <v>2886</v>
       </c>
-      <c r="SW12" s="5">
+      <c r="SY12" s="5">
         <v>2878.3</v>
       </c>
-      <c r="SX12" s="5">
+      <c r="SZ12" s="5">
         <v>2871.9</v>
       </c>
-      <c r="SY12" s="5">
+      <c r="TA12" s="5">
         <v>3006.1</v>
       </c>
-      <c r="SZ12" s="6">
+      <c r="TB12" s="6">
         <v>2822</v>
       </c>
-      <c r="TA12" s="5">
+      <c r="TC12" s="5">
         <v>2662.1</v>
       </c>
-      <c r="TB12" s="5">
+      <c r="TD12" s="5">
         <v>2609.4</v>
       </c>
-      <c r="TC12" s="5">
+      <c r="TE12" s="5">
         <v>2598.5</v>
       </c>
-      <c r="TD12" s="5">
+      <c r="TF12" s="5">
         <v>2558.2</v>
       </c>
-      <c r="TE12" s="5">
+      <c r="TG12" s="5">
         <v>2530.5</v>
       </c>
-      <c r="TF12" s="5">
+      <c r="TH12" s="5">
         <v>2523.7</v>
       </c>
-      <c r="TG12" s="5">
+      <c r="TI12" s="5">
         <v>2511.6</v>
       </c>
-      <c r="TH12" s="5">
+      <c r="TJ12" s="5">
         <v>2476.9</v>
       </c>
-      <c r="TI12" s="5">
+      <c r="TK12" s="5">
         <v>2506.3</v>
       </c>
-      <c r="TJ12" s="5">
+      <c r="TL12" s="5">
         <v>2522.8</v>
       </c>
-      <c r="TK12" s="5">
+      <c r="TM12" s="5">
         <v>2573.3</v>
       </c>
-      <c r="TL12" s="5">
+      <c r="TN12" s="5">
         <v>2431.2</v>
       </c>
-      <c r="TM12" s="5">
+      <c r="TO12" s="5">
         <v>2335.4</v>
       </c>
-      <c r="TN12" s="5">
+      <c r="TP12" s="5">
         <v>2287.9</v>
       </c>
-      <c r="TO12" s="5">
+      <c r="TQ12" s="5">
         <v>2273.6</v>
       </c>
-      <c r="TP12" s="6">
+      <c r="TR12" s="6">
         <v>2265</v>
       </c>
-      <c r="TQ12" s="5">
+      <c r="TS12" s="5">
         <v>2244.4</v>
       </c>
-      <c r="TR12" s="5">
+      <c r="TT12" s="5">
         <v>2230.3</v>
       </c>
-      <c r="TS12" s="6">
+      <c r="TU12" s="6">
         <v>2213</v>
       </c>
-      <c r="TT12" s="5">
+      <c r="TV12" s="5">
         <v>2181.7</v>
       </c>
-      <c r="TU12" s="5">
+      <c r="TW12" s="5">
         <v>2185.5</v>
       </c>
-      <c r="TV12" s="5">
+      <c r="TX12" s="5">
         <v>2263.6</v>
       </c>
-      <c r="TW12" s="5">
+      <c r="TY12" s="5">
         <v>2177.3</v>
       </c>
-      <c r="TX12" s="5">
+      <c r="TZ12" s="5">
         <v>2119.2</v>
       </c>
-      <c r="TY12" s="5">
+      <c r="UA12" s="5">
         <v>2033.8</v>
       </c>
-      <c r="TZ12" s="5">
+      <c r="UB12" s="5">
         <v>1989.8</v>
       </c>
-      <c r="UA12" s="5">
+      <c r="UC12" s="5">
         <v>1972.1</v>
       </c>
-      <c r="UB12" s="5">
+      <c r="UD12" s="5">
         <v>1962.9</v>
       </c>
-      <c r="UC12" s="5">
+      <c r="UE12" s="5">
         <v>1929.9</v>
       </c>
-      <c r="UD12" s="5">
+      <c r="UF12" s="5">
         <v>1916.4</v>
       </c>
-      <c r="UE12" s="5">
+      <c r="UG12" s="5">
         <v>1906.1</v>
       </c>
-      <c r="UF12" s="5">
+      <c r="UH12" s="5">
         <v>1878.6</v>
       </c>
-      <c r="UG12" s="5">
+      <c r="UI12" s="5">
         <v>1869.4</v>
       </c>
-      <c r="UH12" s="5">
+      <c r="UJ12" s="5">
         <v>1862.3</v>
       </c>
-      <c r="UI12" s="5">
+      <c r="UK12" s="5">
         <v>1962.6</v>
       </c>
-      <c r="UJ12" s="5">
+      <c r="UL12" s="5">
         <v>1802.5</v>
       </c>
-      <c r="UK12" s="5">
+      <c r="UM12" s="5">
         <v>1696.9</v>
       </c>
-      <c r="UL12" s="5">
+      <c r="UN12" s="5">
         <v>1651.7</v>
       </c>
-      <c r="UM12" s="5">
+      <c r="UO12" s="5">
         <v>1631.5</v>
       </c>
-      <c r="UN12" s="5">
+      <c r="UP12" s="5">
         <v>1582.3</v>
       </c>
-      <c r="UO12" s="5">
+      <c r="UQ12" s="5">
         <v>1541.2</v>
       </c>
-      <c r="UP12" s="6">
+      <c r="UR12" s="6">
         <v>1502</v>
       </c>
-      <c r="UQ12" s="5">
+      <c r="US12" s="5">
         <v>1491.1</v>
       </c>
-      <c r="UR12" s="5">
+      <c r="UT12" s="5">
         <v>1475.4</v>
       </c>
-      <c r="US12" s="5">
+      <c r="UU12" s="5">
         <v>1487.2</v>
       </c>
-      <c r="UT12" s="5">
+      <c r="UV12" s="5">
         <v>1521.1</v>
       </c>
-      <c r="UU12" s="5">
+      <c r="UW12" s="5">
         <v>1500.6</v>
       </c>
-      <c r="UV12" s="5">
+      <c r="UX12" s="5">
         <v>1447.2</v>
       </c>
-      <c r="UW12" s="5">
+      <c r="UY12" s="5">
         <v>1363.8</v>
       </c>
-      <c r="UX12" s="5">
+      <c r="UZ12" s="5">
         <v>1368.9</v>
       </c>
-      <c r="UY12" s="5">
+      <c r="VA12" s="5">
         <v>1325.4</v>
       </c>
-      <c r="UZ12" s="5">
+      <c r="VB12" s="5">
         <v>1309.2</v>
       </c>
-      <c r="VA12" s="5">
+      <c r="VC12" s="5">
         <v>1294.3</v>
       </c>
-      <c r="VB12" s="5">
+      <c r="VD12" s="5">
         <v>1286.9</v>
       </c>
-      <c r="VC12" s="5">
+      <c r="VE12" s="5">
         <v>1279.9</v>
       </c>
-      <c r="VD12" s="6">
+      <c r="VF12" s="6">
         <v>1256</v>
       </c>
-      <c r="VE12" s="5">
+      <c r="VG12" s="5">
         <v>1306.9</v>
       </c>
-      <c r="VF12" s="5">
+      <c r="VH12" s="5">
         <v>1252.8</v>
       </c>
-      <c r="VG12" s="5">
+      <c r="VI12" s="5">
         <v>1319.9</v>
       </c>
-      <c r="VH12" s="5">
+      <c r="VJ12" s="5">
         <v>1227.6</v>
       </c>
-      <c r="VI12" s="5">
+      <c r="VK12" s="5">
         <v>1155.2</v>
       </c>
-      <c r="VJ12" s="5">
+      <c r="VL12" s="5">
         <v>1128.4</v>
       </c>
-      <c r="VK12" s="6">
+      <c r="VM12" s="6">
         <v>1095</v>
       </c>
-      <c r="VL12" s="5">
+      <c r="VN12" s="5">
         <v>1076.9</v>
       </c>
-      <c r="VM12" s="5">
+      <c r="VO12" s="5">
         <v>1043.3</v>
       </c>
-      <c r="VN12" s="5">
+      <c r="VP12" s="5">
         <v>1039.6</v>
       </c>
-      <c r="VO12" s="5">
+      <c r="VQ12" s="5">
         <v>1123.4</v>
       </c>
-      <c r="VP12" s="5">
+      <c r="VR12" s="5">
         <v>1148.3</v>
       </c>
-      <c r="VQ12" s="6">
+      <c r="VS12" s="6">
         <v>1143</v>
       </c>
-      <c r="VR12" s="5">
+      <c r="VT12" s="5">
         <v>1181.6</v>
       </c>
-      <c r="VS12" s="5">
+      <c r="VU12" s="5">
         <v>1193.8</v>
       </c>
-      <c r="VT12" s="5">
+      <c r="VV12" s="5">
         <v>1097.9</v>
       </c>
-      <c r="VU12" s="5">
+      <c r="VW12" s="5">
         <v>1034.4</v>
       </c>
-      <c r="VV12" s="5">
+      <c r="VX12" s="5">
         <v>1016.3</v>
       </c>
-      <c r="VW12" s="5">
+      <c r="VY12" s="5">
         <v>999.8</v>
       </c>
-      <c r="VX12" s="5">
+      <c r="VZ12" s="5">
         <v>985.4</v>
       </c>
-      <c r="VY12" s="5">
+      <c r="WA12" s="5">
         <v>954.9</v>
       </c>
-      <c r="VZ12" s="5">
+      <c r="WB12" s="5">
         <v>943.7</v>
       </c>
-      <c r="WA12" s="5">
+      <c r="WC12" s="5">
         <v>944.2</v>
       </c>
-      <c r="WB12" s="5">
+      <c r="WD12" s="5">
         <v>939.9</v>
       </c>
-      <c r="WC12" s="5">
+      <c r="WE12" s="5">
         <v>937.1</v>
       </c>
-      <c r="WD12" s="5">
+      <c r="WF12" s="5">
         <v>973.1</v>
       </c>
-      <c r="WE12" s="5">
+      <c r="WG12" s="5">
         <v>911.9</v>
       </c>
-      <c r="WF12" s="5">
+      <c r="WH12" s="5">
         <v>878.9</v>
       </c>
-      <c r="WG12" s="5">
+      <c r="WI12" s="5">
         <v>857.5</v>
       </c>
-      <c r="WH12" s="5">
+      <c r="WJ12" s="5">
         <v>851.8</v>
       </c>
-      <c r="WI12" s="5">
+      <c r="WK12" s="5">
         <v>836.3</v>
       </c>
-      <c r="WJ12" s="5">
+      <c r="WL12" s="5">
         <v>825.3</v>
       </c>
-      <c r="WK12" s="5">
+      <c r="WM12" s="5">
         <v>813.1</v>
       </c>
-      <c r="WL12" s="5">
+      <c r="WN12" s="5">
         <v>805.3</v>
       </c>
-      <c r="WM12" s="5">
+      <c r="WO12" s="5">
         <v>802.4</v>
       </c>
-      <c r="WN12" s="5">
+      <c r="WP12" s="5">
         <v>802.3</v>
       </c>
-      <c r="WO12" s="5">
+      <c r="WQ12" s="5">
         <v>802.1</v>
       </c>
-      <c r="WP12" s="5">
+      <c r="WR12" s="5">
         <v>802.6</v>
       </c>
-      <c r="WQ12" s="5">
+      <c r="WS12" s="5">
         <v>830.9</v>
       </c>
     </row>
-    <row r="13" spans="1:615" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:617" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
-        <v>624</v>
+        <v>626</v>
       </c>
       <c r="B13" s="5">
+        <v>60709.2</v>
+      </c>
+      <c r="C13" s="5">
+        <v>60396.7</v>
+      </c>
+      <c r="D13" s="5">
         <v>60439.6</v>
       </c>
-      <c r="C13" s="5">
+      <c r="E13" s="5">
         <v>60948.4</v>
       </c>
-      <c r="D13" s="5">
+      <c r="F13" s="5">
         <v>58891.8</v>
       </c>
-      <c r="E13" s="5">
+      <c r="G13" s="5">
         <v>58461.2</v>
       </c>
-      <c r="F13" s="5">
+      <c r="H13" s="5">
         <v>58118.3</v>
       </c>
-      <c r="G13" s="5">
+      <c r="I13" s="5">
         <v>57733.8</v>
       </c>
-      <c r="H13" s="5">
+      <c r="J13" s="5">
         <v>57569.5</v>
       </c>
-      <c r="I13" s="5">
+      <c r="K13" s="5">
         <v>57467.8</v>
       </c>
-      <c r="J13" s="5">
+      <c r="L13" s="5">
         <v>57134.3</v>
       </c>
-      <c r="K13" s="5">
+      <c r="M13" s="5">
         <v>56941.8</v>
       </c>
-      <c r="L13" s="5">
+      <c r="N13" s="5">
         <v>56853.8</v>
       </c>
-      <c r="M13" s="5">
+      <c r="O13" s="5">
         <v>56856.5</v>
       </c>
-      <c r="N13" s="5">
+      <c r="P13" s="5">
         <v>57578.3</v>
       </c>
-      <c r="O13" s="5">
+      <c r="Q13" s="5">
         <v>57474.5</v>
       </c>
-      <c r="P13" s="6">
+      <c r="R13" s="6">
         <v>55912</v>
       </c>
-      <c r="Q13" s="5">
+      <c r="S13" s="5">
         <v>54983.3</v>
       </c>
-      <c r="R13" s="5">
+      <c r="T13" s="5">
         <v>54598.3</v>
       </c>
-      <c r="S13" s="5">
+      <c r="U13" s="5">
         <v>54192.8</v>
       </c>
-      <c r="T13" s="5">
+      <c r="V13" s="5">
         <v>53884.1</v>
       </c>
-      <c r="U13" s="5">
+      <c r="W13" s="5">
         <v>53804.3</v>
       </c>
-      <c r="V13" s="5">
+      <c r="X13" s="5">
         <v>53596.7</v>
       </c>
-      <c r="W13" s="5">
+      <c r="Y13" s="5">
         <v>53369.6</v>
       </c>
-      <c r="X13" s="5">
+      <c r="Z13" s="5">
         <v>53179.6</v>
       </c>
-      <c r="Y13" s="5">
+      <c r="AA13" s="5">
         <v>52941.8</v>
       </c>
-      <c r="Z13" s="5">
+      <c r="AB13" s="5">
         <v>52378.6</v>
       </c>
-      <c r="AA13" s="5">
+      <c r="AC13" s="5">
         <v>53109.4</v>
       </c>
-      <c r="AB13" s="5">
+      <c r="AD13" s="5">
         <v>50964.2</v>
       </c>
-      <c r="AC13" s="5">
+      <c r="AE13" s="5">
         <v>49795.1</v>
       </c>
-      <c r="AD13" s="5">
+      <c r="AF13" s="5">
         <v>49504.2</v>
       </c>
-      <c r="AE13" s="6">
+      <c r="AG13" s="6">
         <v>49441</v>
       </c>
-      <c r="AF13" s="5">
+      <c r="AH13" s="5">
         <v>49098.7</v>
       </c>
-      <c r="AG13" s="5">
+      <c r="AI13" s="5">
         <v>48697.1</v>
       </c>
-      <c r="AH13" s="6">
+      <c r="AJ13" s="6">
         <v>48361</v>
       </c>
-      <c r="AI13" s="5">
+      <c r="AK13" s="5">
         <v>48318.9</v>
       </c>
-      <c r="AJ13" s="5">
+      <c r="AL13" s="5">
         <v>48349.5</v>
       </c>
-      <c r="AK13" s="5">
+      <c r="AM13" s="5">
         <v>48228.1</v>
       </c>
-      <c r="AL13" s="5">
+      <c r="AN13" s="5">
         <v>48476.8</v>
       </c>
-      <c r="AM13" s="5">
+      <c r="AO13" s="5">
         <v>49268.1</v>
       </c>
-      <c r="AN13" s="5">
+      <c r="AP13" s="5">
         <v>47646.8</v>
       </c>
-      <c r="AO13" s="5">
+      <c r="AQ13" s="5">
         <v>46362.5</v>
       </c>
-      <c r="AP13" s="5">
+      <c r="AR13" s="5">
         <v>46190.9</v>
       </c>
-      <c r="AQ13" s="5">
+      <c r="AS13" s="5">
         <v>46112.6</v>
       </c>
-      <c r="AR13" s="5">
+      <c r="AT13" s="5">
         <v>46010.7</v>
       </c>
-      <c r="AS13" s="5">
+      <c r="AU13" s="5">
         <v>45937.3</v>
       </c>
-      <c r="AT13" s="5">
+      <c r="AV13" s="5">
         <v>45766.2</v>
       </c>
-      <c r="AU13" s="5">
+      <c r="AW13" s="5">
         <v>45751.3</v>
       </c>
-      <c r="AV13" s="5">
+      <c r="AX13" s="5">
         <v>45563.4</v>
       </c>
-      <c r="AW13" s="5">
+      <c r="AY13" s="5">
         <v>45583.8</v>
       </c>
-      <c r="AX13" s="5">
+      <c r="AZ13" s="5">
         <v>46013.2</v>
       </c>
-      <c r="AY13" s="5">
+      <c r="BA13" s="5">
         <v>45419.6</v>
       </c>
-      <c r="AZ13" s="5">
+      <c r="BB13" s="5">
         <v>44484.3</v>
       </c>
-      <c r="BA13" s="6">
+      <c r="BC13" s="6">
         <v>43507</v>
       </c>
-      <c r="BB13" s="6">
+      <c r="BD13" s="6">
         <v>43215</v>
       </c>
-      <c r="BC13" s="5">
+      <c r="BE13" s="5">
         <v>44904.5</v>
       </c>
-      <c r="BD13" s="5">
+      <c r="BF13" s="5">
         <v>44908.7</v>
       </c>
-      <c r="BE13" s="5">
+      <c r="BG13" s="5">
         <v>44913.5</v>
       </c>
-      <c r="BF13" s="5">
+      <c r="BH13" s="5">
         <v>44916.3</v>
       </c>
-      <c r="BG13" s="5">
+      <c r="BI13" s="5">
         <v>42519.8</v>
       </c>
-      <c r="BH13" s="5">
+      <c r="BJ13" s="5">
         <v>42521.6</v>
       </c>
-      <c r="BI13" s="5">
+      <c r="BK13" s="5">
         <v>42523.3</v>
       </c>
-      <c r="BJ13" s="5">
+      <c r="BL13" s="5">
         <v>45325.9</v>
       </c>
-      <c r="BK13" s="5">
+      <c r="BM13" s="5">
         <v>45327.4</v>
       </c>
-      <c r="BL13" s="5">
+      <c r="BN13" s="5">
         <v>43830.7</v>
       </c>
-      <c r="BM13" s="6">
+      <c r="BO13" s="6">
         <v>40835</v>
       </c>
-      <c r="BN13" s="5">
+      <c r="BP13" s="5">
         <v>40837.4</v>
       </c>
-      <c r="BO13" s="6">
+      <c r="BQ13" s="6">
         <v>40841</v>
       </c>
-      <c r="BP13" s="5">
+      <c r="BR13" s="5">
         <v>40845.8</v>
       </c>
-      <c r="BQ13" s="6">
+      <c r="BS13" s="6">
         <v>40851</v>
       </c>
-      <c r="BR13" s="5">
+      <c r="BT13" s="5">
         <v>40857.5</v>
       </c>
-      <c r="BS13" s="5">
+      <c r="BU13" s="5">
         <v>40862.9</v>
       </c>
-      <c r="BT13" s="5">
+      <c r="BV13" s="5">
         <v>40866.9</v>
       </c>
-      <c r="BU13" s="5">
+      <c r="BW13" s="5">
         <v>37890.9</v>
       </c>
-      <c r="BV13" s="5">
+      <c r="BX13" s="5">
         <v>41244.2</v>
       </c>
-      <c r="BW13" s="5">
+      <c r="BY13" s="5">
         <v>41245.4</v>
       </c>
-      <c r="BX13" s="5">
+      <c r="BZ13" s="5">
         <v>38254.1</v>
       </c>
-      <c r="BY13" s="5">
+      <c r="CA13" s="5">
         <v>38260.9</v>
       </c>
-      <c r="BZ13" s="5">
+      <c r="CB13" s="5">
         <v>38264.3</v>
       </c>
-      <c r="CA13" s="5">
+      <c r="CC13" s="5">
         <v>38269.6</v>
       </c>
-      <c r="CB13" s="5">
+      <c r="CD13" s="5">
         <v>38273.9</v>
       </c>
-      <c r="CC13" s="6">
+      <c r="CE13" s="6">
         <v>38278</v>
       </c>
-      <c r="CD13" s="5">
+      <c r="CF13" s="5">
         <v>38283.8</v>
       </c>
-      <c r="CE13" s="5">
+      <c r="CG13" s="5">
         <v>35577.4</v>
       </c>
-      <c r="CF13" s="5">
+      <c r="CH13" s="5">
         <v>35581.1</v>
       </c>
-      <c r="CG13" s="5">
+      <c r="CI13" s="5">
         <v>35585.8</v>
       </c>
-      <c r="CH13" s="5">
+      <c r="CJ13" s="5">
         <v>37738.6</v>
       </c>
-      <c r="CI13" s="5">
+      <c r="CK13" s="5">
         <v>35044.1</v>
       </c>
-      <c r="CJ13" s="5">
+      <c r="CL13" s="5">
         <v>35049.4</v>
       </c>
-      <c r="CK13" s="5">
+      <c r="CM13" s="5">
         <v>35054.2</v>
       </c>
-      <c r="CL13" s="5">
+      <c r="CN13" s="5">
         <v>35057.7</v>
       </c>
-      <c r="CM13" s="5">
+      <c r="CO13" s="5">
         <v>35063.9</v>
       </c>
-      <c r="CN13" s="5">
+      <c r="CP13" s="5">
         <v>35067.8</v>
       </c>
-      <c r="CO13" s="5">
+      <c r="CQ13" s="5">
         <v>35072.3</v>
       </c>
-      <c r="CP13" s="5">
+      <c r="CR13" s="5">
         <v>35078.9</v>
       </c>
-      <c r="CQ13" s="5">
+      <c r="CS13" s="5">
         <v>32512.1</v>
       </c>
-      <c r="CR13" s="5">
+      <c r="CT13" s="5">
         <v>32515.1</v>
       </c>
-      <c r="CS13" s="5">
+      <c r="CU13" s="5">
         <v>32520.8</v>
       </c>
-      <c r="CT13" s="5">
+      <c r="CV13" s="5">
         <v>33971.7</v>
       </c>
-      <c r="CU13" s="5">
+      <c r="CW13" s="5">
         <v>33973.7</v>
       </c>
-      <c r="CV13" s="5">
+      <c r="CX13" s="5">
         <v>32479.5</v>
       </c>
-      <c r="CW13" s="5">
+      <c r="CY13" s="5">
         <v>32484.8</v>
       </c>
-      <c r="CX13" s="5">
+      <c r="CZ13" s="5">
         <v>32488.5</v>
       </c>
-      <c r="CY13" s="5">
+      <c r="DA13" s="5">
         <v>32493.9</v>
       </c>
-      <c r="CZ13" s="5">
+      <c r="DB13" s="5">
         <v>32496.8</v>
       </c>
-      <c r="DA13" s="5">
+      <c r="DC13" s="5">
         <v>32501.3</v>
       </c>
-      <c r="DB13" s="5">
+      <c r="DD13" s="5">
         <v>32504.7</v>
       </c>
-      <c r="DC13" s="5">
+      <c r="DE13" s="5">
         <v>30270.7</v>
       </c>
-      <c r="DD13" s="5">
+      <c r="DF13" s="5">
         <v>30273.2</v>
       </c>
-      <c r="DE13" s="5">
+      <c r="DG13" s="5">
         <v>30272.9</v>
       </c>
-      <c r="DF13" s="5">
+      <c r="DH13" s="5">
         <v>31674.8</v>
       </c>
-      <c r="DG13" s="5">
+      <c r="DI13" s="5">
         <v>30979.3</v>
       </c>
-      <c r="DH13" s="5">
+      <c r="DJ13" s="5">
         <v>30984.2</v>
       </c>
-      <c r="DI13" s="5">
+      <c r="DK13" s="5">
         <v>30987.5</v>
       </c>
-      <c r="DJ13" s="5">
+      <c r="DL13" s="5">
         <v>30991.2</v>
       </c>
-      <c r="DK13" s="5">
+      <c r="DM13" s="5">
         <v>30994.5</v>
       </c>
-      <c r="DL13" s="5">
+      <c r="DN13" s="5">
         <v>30997.6</v>
       </c>
-      <c r="DM13" s="5">
+      <c r="DO13" s="5">
         <v>31002.8</v>
       </c>
-      <c r="DN13" s="5">
+      <c r="DP13" s="5">
         <v>31006.8</v>
       </c>
-      <c r="DO13" s="5">
+      <c r="DQ13" s="5">
         <v>27570.3</v>
       </c>
-      <c r="DP13" s="5">
+      <c r="DR13" s="5">
         <v>27573.6</v>
       </c>
-      <c r="DQ13" s="5">
+      <c r="DS13" s="5">
         <v>27576.7</v>
       </c>
-      <c r="DR13" s="5">
+      <c r="DT13" s="5">
         <v>28881.2</v>
       </c>
-      <c r="DS13" s="5">
+      <c r="DU13" s="5">
         <v>28882.8</v>
       </c>
-      <c r="DT13" s="5">
+      <c r="DV13" s="5">
         <v>26941.7</v>
       </c>
-      <c r="DU13" s="5">
+      <c r="DW13" s="5">
         <v>26947.4</v>
       </c>
-      <c r="DV13" s="5">
+      <c r="DX13" s="5">
         <v>26950.4</v>
       </c>
-      <c r="DW13" s="5">
+      <c r="DY13" s="5">
         <v>26953.3</v>
       </c>
-      <c r="DX13" s="5">
+      <c r="DZ13" s="5">
         <v>26958.3</v>
       </c>
-      <c r="DY13" s="6">
+      <c r="EA13" s="6">
         <v>26962</v>
       </c>
-      <c r="DZ13" s="5">
+      <c r="EB13" s="5">
         <v>26967.9</v>
       </c>
-      <c r="EA13" s="5">
+      <c r="EC13" s="5">
         <v>26972.6</v>
       </c>
-      <c r="EB13" s="5">
+      <c r="ED13" s="5">
         <v>26976.9</v>
       </c>
-      <c r="EC13" s="5">
+      <c r="EE13" s="5">
         <v>24742.5</v>
       </c>
-      <c r="ED13" s="5">
+      <c r="EF13" s="5">
         <v>26694.8</v>
       </c>
-      <c r="EE13" s="5">
+      <c r="EG13" s="5">
         <v>26697.1</v>
       </c>
-      <c r="EF13" s="5">
+      <c r="EH13" s="5">
         <v>24585.4</v>
       </c>
-      <c r="EG13" s="5">
+      <c r="EI13" s="5">
         <v>23603.8</v>
       </c>
-      <c r="EH13" s="6">
+      <c r="EJ13" s="6">
         <v>23607</v>
       </c>
-      <c r="EI13" s="5">
+      <c r="EK13" s="5">
         <v>23611.5</v>
       </c>
-      <c r="EJ13" s="5">
+      <c r="EL13" s="5">
         <v>23614.8</v>
       </c>
-      <c r="EK13" s="5">
+      <c r="EM13" s="5">
         <v>23617.9</v>
       </c>
-      <c r="EL13" s="5">
+      <c r="EN13" s="5">
         <v>22644.5</v>
       </c>
-      <c r="EM13" s="5">
+      <c r="EO13" s="5">
         <v>22647.6</v>
       </c>
-      <c r="EN13" s="5">
+      <c r="EP13" s="5">
         <v>22650.4</v>
       </c>
-      <c r="EO13" s="5">
+      <c r="EQ13" s="5">
         <v>22653.5</v>
       </c>
-      <c r="EP13" s="5">
+      <c r="ER13" s="5">
         <v>24404.7</v>
       </c>
-      <c r="EQ13" s="5">
+      <c r="ES13" s="5">
         <v>22148.2</v>
       </c>
-      <c r="ER13" s="5">
+      <c r="ET13" s="5">
         <v>22151.7</v>
       </c>
-      <c r="ES13" s="5">
+      <c r="EU13" s="5">
         <v>21031.8</v>
       </c>
-      <c r="ET13" s="5">
+      <c r="EV13" s="5">
         <v>21033.5</v>
       </c>
-      <c r="EU13" s="5">
+      <c r="EW13" s="5">
         <v>21037.1</v>
       </c>
-      <c r="EV13" s="6">
+      <c r="EX13" s="6">
         <v>21039</v>
       </c>
-      <c r="EW13" s="5">
+      <c r="EY13" s="5">
         <v>21041.1</v>
       </c>
-      <c r="EX13" s="5">
+      <c r="EZ13" s="5">
         <v>21045.7</v>
       </c>
-      <c r="EY13" s="5">
+      <c r="FA13" s="5">
         <v>21047.1</v>
       </c>
-      <c r="EZ13" s="6">
+      <c r="FB13" s="6">
         <v>21049</v>
       </c>
-      <c r="FA13" s="6">
+      <c r="FC13" s="6">
         <v>21052</v>
       </c>
-      <c r="FB13" s="5">
+      <c r="FD13" s="5">
         <v>22591.1</v>
       </c>
-      <c r="FC13" s="6">
+      <c r="FE13" s="6">
         <v>22591</v>
       </c>
-      <c r="FD13" s="5">
+      <c r="FF13" s="5">
         <v>20968.7</v>
       </c>
-      <c r="FE13" s="5">
+      <c r="FG13" s="5">
         <v>20116.5</v>
       </c>
-      <c r="FF13" s="5">
+      <c r="FH13" s="5">
         <v>20119.1</v>
       </c>
-      <c r="FG13" s="5">
+      <c r="FI13" s="5">
         <v>20122.9</v>
       </c>
-      <c r="FH13" s="6">
+      <c r="FJ13" s="6">
         <v>19129</v>
       </c>
-      <c r="FI13" s="5">
+      <c r="FK13" s="5">
         <v>18636.5</v>
       </c>
-      <c r="FJ13" s="5">
+      <c r="FL13" s="5">
         <v>18639.6</v>
       </c>
-      <c r="FK13" s="5">
+      <c r="FM13" s="5">
         <v>18641.9</v>
       </c>
-      <c r="FL13" s="5">
+      <c r="FN13" s="5">
         <v>18303.4</v>
       </c>
-      <c r="FM13" s="5">
+      <c r="FO13" s="5">
         <v>18305.9</v>
       </c>
-      <c r="FN13" s="5">
+      <c r="FP13" s="5">
         <v>19761.7</v>
       </c>
-      <c r="FO13" s="6">
+      <c r="FQ13" s="6">
         <v>19765</v>
       </c>
-      <c r="FP13" s="5">
+      <c r="FR13" s="5">
         <v>17764.3</v>
       </c>
-      <c r="FQ13" s="5">
+      <c r="FS13" s="5">
         <v>17269.6</v>
       </c>
-      <c r="FR13" s="5">
+      <c r="FT13" s="5">
         <v>17274.1</v>
       </c>
-      <c r="FS13" s="5">
+      <c r="FU13" s="5">
         <v>17277.7</v>
       </c>
-      <c r="FT13" s="5">
+      <c r="FV13" s="5">
         <v>17281.9</v>
       </c>
-      <c r="FU13" s="5">
+      <c r="FW13" s="5">
         <v>17287.5</v>
       </c>
-      <c r="FV13" s="5">
+      <c r="FX13" s="5">
         <v>17290.7</v>
       </c>
-      <c r="FW13" s="5">
+      <c r="FY13" s="5">
         <v>16590.8</v>
       </c>
-      <c r="FX13" s="5">
+      <c r="FZ13" s="5">
         <v>16594.9</v>
       </c>
-      <c r="FY13" s="5">
+      <c r="GA13" s="5">
         <v>16597.6</v>
       </c>
-      <c r="FZ13" s="5">
+      <c r="GB13" s="5">
         <v>18582.1</v>
       </c>
-      <c r="GA13" s="5">
+      <c r="GC13" s="5">
         <v>16574.5</v>
       </c>
-      <c r="GB13" s="5">
+      <c r="GD13" s="5">
         <v>16579.1</v>
       </c>
-      <c r="GC13" s="5">
+      <c r="GE13" s="5">
         <v>15890.4</v>
       </c>
-      <c r="GD13" s="5">
+      <c r="GF13" s="5">
         <v>15891.7</v>
       </c>
-      <c r="GE13" s="6">
+      <c r="GG13" s="6">
         <v>15894</v>
       </c>
-      <c r="GF13" s="5">
+      <c r="GH13" s="5">
         <v>15896.5</v>
       </c>
-      <c r="GG13" s="5">
+      <c r="GI13" s="5">
         <v>15898.8</v>
       </c>
-      <c r="GH13" s="5">
+      <c r="GJ13" s="5">
         <v>15901.8</v>
       </c>
-      <c r="GI13" s="5">
+      <c r="GK13" s="5">
         <v>15903.7</v>
       </c>
-      <c r="GJ13" s="5">
+      <c r="GL13" s="5">
         <v>15495.8</v>
       </c>
-      <c r="GK13" s="5">
+      <c r="GM13" s="5">
         <v>15354.5</v>
       </c>
-      <c r="GL13" s="5">
+      <c r="GN13" s="5">
         <v>16377.5</v>
       </c>
-      <c r="GM13" s="5">
+      <c r="GO13" s="5">
         <v>17387.9</v>
       </c>
-      <c r="GN13" s="5">
+      <c r="GP13" s="5">
         <v>15381.3</v>
       </c>
-      <c r="GO13" s="5">
+      <c r="GQ13" s="5">
         <v>14813.8</v>
       </c>
-      <c r="GP13" s="5">
+      <c r="GR13" s="5">
         <v>15266.1</v>
       </c>
-      <c r="GQ13" s="6">
+      <c r="GS13" s="6">
         <v>14710</v>
       </c>
-      <c r="GR13" s="5">
+      <c r="GT13" s="5">
         <v>14712.4</v>
       </c>
-      <c r="GS13" s="5">
+      <c r="GU13" s="5">
         <v>14713.9</v>
       </c>
-      <c r="GT13" s="5">
+      <c r="GV13" s="5">
         <v>14716.3</v>
       </c>
-      <c r="GU13" s="5">
+      <c r="GW13" s="5">
         <v>14717.7</v>
       </c>
-      <c r="GV13" s="5">
+      <c r="GX13" s="5">
         <v>14719.2</v>
       </c>
-      <c r="GW13" s="5">
+      <c r="GY13" s="5">
         <v>14553.9</v>
       </c>
-      <c r="GX13" s="5">
+      <c r="GZ13" s="5">
         <v>15375.2</v>
       </c>
-      <c r="GY13" s="5">
+      <c r="HA13" s="5">
         <v>15843.2</v>
       </c>
-      <c r="GZ13" s="6">
+      <c r="HB13" s="6">
         <v>14344</v>
       </c>
-      <c r="HA13" s="5">
+      <c r="HC13" s="5">
         <v>14134.8</v>
       </c>
-      <c r="HB13" s="5">
+      <c r="HD13" s="5">
         <v>13921.9</v>
       </c>
-      <c r="HC13" s="5">
+      <c r="HE13" s="5">
         <v>13753.8</v>
       </c>
-      <c r="HD13" s="5">
+      <c r="HF13" s="5">
         <v>13965.1</v>
       </c>
-      <c r="HE13" s="5">
+      <c r="HG13" s="5">
         <v>13760.2</v>
       </c>
-      <c r="HF13" s="5">
+      <c r="HH13" s="5">
         <v>13762.6</v>
       </c>
-      <c r="HG13" s="6">
+      <c r="HI13" s="6">
         <v>13764</v>
       </c>
-      <c r="HH13" s="5">
+      <c r="HJ13" s="5">
         <v>13766.9</v>
       </c>
-      <c r="HI13" s="5">
+      <c r="HK13" s="5">
         <v>13599.8</v>
       </c>
-      <c r="HJ13" s="5">
+      <c r="HL13" s="5">
         <v>13811.8</v>
       </c>
-      <c r="HK13" s="5">
+      <c r="HM13" s="5">
         <v>14530.3</v>
       </c>
-      <c r="HL13" s="5">
+      <c r="HN13" s="5">
         <v>13388.7</v>
       </c>
-      <c r="HM13" s="5">
+      <c r="HO13" s="5">
         <v>13102.6</v>
       </c>
-      <c r="HN13" s="5">
+      <c r="HP13" s="5">
         <v>13103.8</v>
       </c>
-      <c r="HO13" s="5">
+      <c r="HQ13" s="5">
         <v>13104.3</v>
       </c>
-      <c r="HP13" s="5">
+      <c r="HR13" s="5">
         <v>13105.6</v>
       </c>
-      <c r="HQ13" s="5">
+      <c r="HS13" s="5">
         <v>12979.5</v>
       </c>
-      <c r="HR13" s="5">
+      <c r="HT13" s="5">
         <v>12980.3</v>
       </c>
-      <c r="HS13" s="5">
+      <c r="HU13" s="5">
         <v>12980.8</v>
       </c>
-      <c r="HT13" s="5">
+      <c r="HV13" s="5">
         <v>12895.9</v>
       </c>
-      <c r="HU13" s="5">
+      <c r="HW13" s="5">
         <v>12897.5</v>
       </c>
-      <c r="HV13" s="5">
+      <c r="HX13" s="5">
         <v>14009.5</v>
       </c>
-      <c r="HW13" s="5">
+      <c r="HY13" s="5">
         <v>14011.5</v>
       </c>
-      <c r="HX13" s="5">
+      <c r="HZ13" s="5">
         <v>12808.7</v>
       </c>
-      <c r="HY13" s="6">
+      <c r="IA13" s="6">
         <v>12624</v>
       </c>
-      <c r="HZ13" s="6">
+      <c r="IB13" s="6">
         <v>12475</v>
       </c>
-      <c r="IA13" s="5">
+      <c r="IC13" s="5">
         <v>12410.3</v>
       </c>
-      <c r="IB13" s="5">
+      <c r="ID13" s="5">
         <v>12437.3</v>
       </c>
-      <c r="IC13" s="5">
+      <c r="IE13" s="5">
         <v>12386.1</v>
       </c>
-      <c r="ID13" s="5">
+      <c r="IF13" s="5">
         <v>12419.1</v>
       </c>
-      <c r="IE13" s="5">
+      <c r="IG13" s="5">
         <v>12428.3</v>
       </c>
-      <c r="IF13" s="5">
+      <c r="IH13" s="5">
         <v>12397.7</v>
       </c>
-      <c r="IG13" s="5">
+      <c r="II13" s="5">
         <v>12486.3</v>
       </c>
-      <c r="IH13" s="6">
+      <c r="IJ13" s="6">
         <v>12837</v>
       </c>
-      <c r="II13" s="5">
+      <c r="IK13" s="5">
         <v>12520.6</v>
       </c>
-      <c r="IJ13" s="5">
+      <c r="IL13" s="5">
         <v>12393.3</v>
       </c>
-      <c r="IK13" s="6">
+      <c r="IM13" s="6">
         <v>12021</v>
       </c>
-      <c r="IL13" s="5">
+      <c r="IN13" s="5">
         <v>11770.9</v>
       </c>
-      <c r="IM13" s="5">
+      <c r="IO13" s="5">
         <v>11698.2</v>
       </c>
-      <c r="IN13" s="5">
+      <c r="IP13" s="5">
         <v>11697.9</v>
       </c>
-      <c r="IO13" s="5">
+      <c r="IQ13" s="5">
         <v>11779.9</v>
       </c>
-      <c r="IP13" s="6">
+      <c r="IR13" s="6">
         <v>11764</v>
       </c>
-      <c r="IQ13" s="5">
+      <c r="IS13" s="5">
         <v>11748.7</v>
       </c>
-      <c r="IR13" s="5">
+      <c r="IT13" s="5">
         <v>11785.7</v>
       </c>
-      <c r="IS13" s="5">
+      <c r="IU13" s="5">
         <v>11704.2</v>
       </c>
-      <c r="IT13" s="5">
+      <c r="IV13" s="5">
         <v>11769.6</v>
       </c>
-      <c r="IU13" s="5">
+      <c r="IW13" s="5">
         <v>12624.2</v>
       </c>
-      <c r="IV13" s="5">
+      <c r="IX13" s="5">
         <v>12130.7</v>
       </c>
-      <c r="IW13" s="5">
+      <c r="IY13" s="5">
         <v>11453.7</v>
       </c>
-      <c r="IX13" s="5">
+      <c r="IZ13" s="5">
         <v>11391.8</v>
       </c>
-      <c r="IY13" s="5">
+      <c r="JA13" s="5">
         <v>11316.7</v>
       </c>
-      <c r="IZ13" s="5">
+      <c r="JB13" s="5">
         <v>11282.5</v>
       </c>
-      <c r="JA13" s="5">
+      <c r="JC13" s="5">
         <v>11303.8</v>
       </c>
-      <c r="JB13" s="5">
+      <c r="JD13" s="5">
         <v>11331.2</v>
       </c>
-      <c r="JC13" s="5">
+      <c r="JE13" s="5">
         <v>11342.7</v>
       </c>
-      <c r="JD13" s="5">
+      <c r="JF13" s="5">
         <v>11405.9</v>
       </c>
-      <c r="JE13" s="5">
+      <c r="JG13" s="5">
         <v>11508.1</v>
       </c>
-      <c r="JF13" s="5">
+      <c r="JH13" s="5">
         <v>11735.2</v>
       </c>
-      <c r="JG13" s="6">
+      <c r="JI13" s="6">
         <v>12522</v>
       </c>
-      <c r="JH13" s="5">
+      <c r="JJ13" s="5">
         <v>13350.8</v>
       </c>
-      <c r="JI13" s="5">
+      <c r="JK13" s="5">
         <v>11110.4</v>
       </c>
-      <c r="JJ13" s="6">
+      <c r="JL13" s="6">
         <v>11050</v>
       </c>
-      <c r="JK13" s="5">
+      <c r="JM13" s="5">
         <v>11017.8</v>
       </c>
-      <c r="JL13" s="5">
+      <c r="JN13" s="5">
         <v>10825.2</v>
       </c>
-      <c r="JM13" s="5">
+      <c r="JO13" s="5">
         <v>10877.9</v>
       </c>
-      <c r="JN13" s="5">
+      <c r="JP13" s="5">
         <v>10840.6</v>
       </c>
-      <c r="JO13" s="5">
+      <c r="JQ13" s="5">
         <v>10946.9</v>
       </c>
-      <c r="JP13" s="5">
+      <c r="JR13" s="5">
         <v>10873.2</v>
       </c>
-      <c r="JQ13" s="5">
+      <c r="JS13" s="5">
         <v>10939.6</v>
       </c>
-      <c r="JR13" s="5">
+      <c r="JT13" s="5">
         <v>11126.6</v>
       </c>
-      <c r="JS13" s="5">
+      <c r="JU13" s="5">
         <v>10743.2</v>
       </c>
-      <c r="JT13" s="5">
+      <c r="JV13" s="5">
         <v>10515.1</v>
       </c>
-      <c r="JU13" s="5">
+      <c r="JW13" s="5">
         <v>10324.3</v>
       </c>
-      <c r="JV13" s="5">
+      <c r="JX13" s="5">
         <v>10315.1</v>
       </c>
-      <c r="JW13" s="5">
+      <c r="JY13" s="5">
         <v>10284.1</v>
       </c>
-      <c r="JX13" s="5">
+      <c r="JZ13" s="5">
         <v>10326.3</v>
       </c>
-      <c r="JY13" s="6">
+      <c r="KA13" s="6">
         <v>10372</v>
       </c>
-      <c r="JZ13" s="6">
+      <c r="KB13" s="6">
         <v>10454</v>
       </c>
-      <c r="KA13" s="5">
+      <c r="KC13" s="5">
         <v>10622.7</v>
       </c>
-      <c r="KB13" s="5">
+      <c r="KD13" s="5">
         <v>10627.2</v>
       </c>
-      <c r="KC13" s="5">
+      <c r="KE13" s="5">
         <v>10706.4</v>
       </c>
-      <c r="KD13" s="5">
+      <c r="KF13" s="5">
         <v>10954.4</v>
       </c>
-      <c r="KE13" s="6">
+      <c r="KG13" s="6">
         <v>12211</v>
       </c>
-      <c r="KF13" s="5">
+      <c r="KH13" s="5">
         <v>10928.1</v>
       </c>
-      <c r="KG13" s="5">
+      <c r="KI13" s="5">
         <v>10707.1</v>
       </c>
-      <c r="KH13" s="5">
+      <c r="KJ13" s="5">
         <v>10676.1</v>
       </c>
-      <c r="KI13" s="6">
+      <c r="KK13" s="6">
         <v>10617</v>
       </c>
-      <c r="KJ13" s="5">
+      <c r="KL13" s="5">
         <v>10656.2</v>
       </c>
-      <c r="KK13" s="5">
+      <c r="KM13" s="5">
         <v>10689.9</v>
       </c>
-      <c r="KL13" s="5">
+      <c r="KN13" s="5">
         <v>10716.3</v>
       </c>
-      <c r="KM13" s="6">
+      <c r="KO13" s="6">
         <v>10849</v>
       </c>
-      <c r="KN13" s="5">
+      <c r="KP13" s="5">
         <v>10849.1</v>
       </c>
-      <c r="KO13" s="6">
+      <c r="KQ13" s="6">
         <v>10966</v>
       </c>
-      <c r="KP13" s="5">
+      <c r="KR13" s="5">
         <v>11178.5</v>
       </c>
-      <c r="KQ13" s="5">
+      <c r="KS13" s="5">
         <v>11312.6</v>
       </c>
-      <c r="KR13" s="5">
+      <c r="KT13" s="5">
         <v>10520.9</v>
       </c>
-      <c r="KS13" s="5">
+      <c r="KU13" s="5">
         <v>10269.1</v>
       </c>
-      <c r="KT13" s="5">
+      <c r="KV13" s="5">
         <v>10158.4</v>
       </c>
-      <c r="KU13" s="5">
+      <c r="KW13" s="5">
         <v>10098.1</v>
       </c>
-      <c r="KV13" s="5">
+      <c r="KX13" s="5">
         <v>10144.4</v>
       </c>
-      <c r="KW13" s="5">
+      <c r="KY13" s="5">
         <v>10165.1</v>
       </c>
-      <c r="KX13" s="5">
+      <c r="KZ13" s="5">
         <v>10140.4</v>
       </c>
-      <c r="KY13" s="5">
+      <c r="LA13" s="5">
         <v>10305.1</v>
       </c>
-      <c r="KZ13" s="5">
+      <c r="LB13" s="5">
         <v>10305.6</v>
       </c>
-      <c r="LA13" s="6">
+      <c r="LC13" s="6">
         <v>10168</v>
       </c>
-      <c r="LB13" s="5">
+      <c r="LD13" s="5">
         <v>10554.9</v>
       </c>
-      <c r="LC13" s="5">
+      <c r="LE13" s="5">
         <v>10175.8</v>
       </c>
-      <c r="LD13" s="5">
+      <c r="LF13" s="5">
         <v>10053.9</v>
       </c>
-      <c r="LE13" s="5">
+      <c r="LG13" s="5">
         <v>9878.8</v>
       </c>
-      <c r="LF13" s="6">
+      <c r="LH13" s="6">
         <v>9829</v>
       </c>
-      <c r="LG13" s="5">
+      <c r="LI13" s="5">
         <v>9787.6</v>
       </c>
-      <c r="LH13" s="5">
+      <c r="LJ13" s="5">
         <v>9747.8</v>
       </c>
-      <c r="LI13" s="5">
+      <c r="LK13" s="5">
         <v>9694.6</v>
       </c>
-      <c r="LJ13" s="5">
+      <c r="LL13" s="5">
         <v>9704.3</v>
       </c>
-      <c r="LK13" s="5">
+      <c r="LM13" s="5">
         <v>9766.5</v>
       </c>
-      <c r="LL13" s="5">
+      <c r="LN13" s="5">
         <v>9755.2</v>
       </c>
-      <c r="LM13" s="5">
+      <c r="LO13" s="5">
         <v>9713.2</v>
       </c>
-      <c r="LN13" s="5">
+      <c r="LP13" s="5">
         <v>9894.5</v>
       </c>
-      <c r="LO13" s="5">
+      <c r="LQ13" s="5">
         <v>10673.4</v>
       </c>
-      <c r="LP13" s="5">
+      <c r="LR13" s="5">
         <v>9520.2</v>
       </c>
-      <c r="LQ13" s="5">
+      <c r="LS13" s="5">
         <v>9349.2</v>
       </c>
-      <c r="LR13" s="5">
+      <c r="LT13" s="5">
         <v>9308.9</v>
       </c>
-      <c r="LS13" s="6">
+      <c r="LU13" s="6">
         <v>9270</v>
       </c>
-      <c r="LT13" s="5">
+      <c r="LV13" s="5">
         <v>9227.3</v>
       </c>
-      <c r="LU13" s="5">
+      <c r="LW13" s="5">
         <v>9240.1</v>
       </c>
-      <c r="LV13" s="5">
+      <c r="LX13" s="5">
         <v>9271.9</v>
       </c>
-      <c r="LW13" s="5">
+      <c r="LY13" s="5">
         <v>9290.8</v>
       </c>
-      <c r="LX13" s="5">
+      <c r="LZ13" s="5">
         <v>9247.2</v>
       </c>
-      <c r="LY13" s="5">
+      <c r="MA13" s="5">
         <v>9237.5</v>
       </c>
-      <c r="LZ13" s="5">
+      <c r="MB13" s="5">
         <v>9376.2</v>
       </c>
-      <c r="MA13" s="6">
+      <c r="MC13" s="6">
         <v>9429</v>
       </c>
-      <c r="MB13" s="5">
+      <c r="MD13" s="5">
         <v>9073.3</v>
       </c>
-      <c r="MC13" s="5">
+      <c r="ME13" s="5">
         <v>8846.5</v>
       </c>
-      <c r="MD13" s="5">
+      <c r="MF13" s="5">
         <v>8812.4</v>
       </c>
-      <c r="ME13" s="5">
+      <c r="MG13" s="5">
         <v>8771.6</v>
       </c>
-      <c r="MF13" s="5">
+      <c r="MH13" s="5">
         <v>8743.8</v>
       </c>
-      <c r="MG13" s="5">
+      <c r="MI13" s="5">
         <v>8674.3</v>
       </c>
-      <c r="MH13" s="5">
+      <c r="MJ13" s="5">
         <v>8678.9</v>
       </c>
-      <c r="MI13" s="5">
+      <c r="MK13" s="5">
         <v>8620.4</v>
       </c>
-      <c r="MJ13" s="5">
+      <c r="ML13" s="5">
         <v>8560.6</v>
       </c>
-      <c r="MK13" s="5">
+      <c r="MM13" s="5">
         <v>8577.9</v>
       </c>
-      <c r="ML13" s="5">
+      <c r="MN13" s="5">
         <v>8469.1</v>
       </c>
-      <c r="MM13" s="5">
+      <c r="MO13" s="5">
         <v>8890.7</v>
       </c>
-      <c r="MN13" s="5">
+      <c r="MP13" s="5">
         <v>8411.2</v>
       </c>
-      <c r="MO13" s="5">
+      <c r="MQ13" s="5">
         <v>8084.6</v>
       </c>
-      <c r="MP13" s="5">
+      <c r="MR13" s="5">
         <v>8042.1</v>
       </c>
-      <c r="MQ13" s="5">
+      <c r="MS13" s="5">
         <v>8005.8</v>
       </c>
-      <c r="MR13" s="5">
+      <c r="MT13" s="5">
         <v>7966.5</v>
       </c>
-      <c r="MS13" s="5">
+      <c r="MU13" s="5">
         <v>7943.7</v>
       </c>
-      <c r="MT13" s="5">
+      <c r="MV13" s="5">
         <v>7876.8</v>
       </c>
-      <c r="MU13" s="5">
+      <c r="MW13" s="5">
         <v>7873.9</v>
       </c>
-      <c r="MV13" s="5">
+      <c r="MX13" s="5">
         <v>7886.3</v>
       </c>
-      <c r="MW13" s="5">
+      <c r="MY13" s="5">
         <v>7860.9</v>
       </c>
-      <c r="MX13" s="6">
+      <c r="MZ13" s="6">
         <v>7887</v>
       </c>
-      <c r="MY13" s="5">
+      <c r="NA13" s="5">
         <v>8291.7</v>
       </c>
-      <c r="MZ13" s="5">
+      <c r="NB13" s="5">
         <v>7645.7</v>
       </c>
-      <c r="NA13" s="5">
+      <c r="NC13" s="5">
         <v>7343.8</v>
       </c>
-      <c r="NB13" s="5">
+      <c r="ND13" s="5">
         <v>7208.5</v>
       </c>
-      <c r="NC13" s="5">
+      <c r="NE13" s="5">
         <v>7179.5</v>
       </c>
-      <c r="ND13" s="5">
+      <c r="NF13" s="5">
         <v>7212.8</v>
       </c>
-      <c r="NE13" s="5">
+      <c r="NG13" s="5">
         <v>7193.9</v>
       </c>
-      <c r="NF13" s="5">
+      <c r="NH13" s="5">
         <v>7302.8</v>
       </c>
-      <c r="NG13" s="5">
+      <c r="NI13" s="5">
         <v>7312.2</v>
       </c>
-      <c r="NH13" s="5">
+      <c r="NJ13" s="5">
         <v>7313.4</v>
       </c>
-      <c r="NI13" s="6">
+      <c r="NK13" s="6">
         <v>7379</v>
       </c>
-      <c r="NJ13" s="5">
+      <c r="NL13" s="5">
         <v>7500.7</v>
       </c>
-      <c r="NK13" s="5">
+      <c r="NM13" s="5">
         <v>7533.1</v>
       </c>
-      <c r="NL13" s="5">
+      <c r="NN13" s="5">
         <v>7222.3</v>
       </c>
-      <c r="NM13" s="5">
+      <c r="NO13" s="5">
         <v>6940.9</v>
       </c>
-      <c r="NN13" s="5">
+      <c r="NP13" s="5">
         <v>6886.1</v>
       </c>
-      <c r="NO13" s="5">
+      <c r="NQ13" s="5">
         <v>6854.3</v>
       </c>
-      <c r="NP13" s="5">
+      <c r="NR13" s="5">
         <v>6871.7</v>
       </c>
-      <c r="NQ13" s="5">
+      <c r="NS13" s="5">
         <v>6802.9</v>
       </c>
-      <c r="NR13" s="6">
+      <c r="NT13" s="6">
         <v>6732</v>
       </c>
-      <c r="NS13" s="6">
+      <c r="NU13" s="6">
         <v>6749</v>
       </c>
-      <c r="NT13" s="5">
+      <c r="NV13" s="5">
         <v>6844.7</v>
       </c>
-      <c r="NU13" s="5">
+      <c r="NW13" s="5">
         <v>6774.4</v>
       </c>
-      <c r="NV13" s="5">
+      <c r="NX13" s="5">
         <v>6802.4</v>
       </c>
-      <c r="NW13" s="5">
+      <c r="NY13" s="5">
         <v>7346.1</v>
       </c>
-      <c r="NX13" s="5">
+      <c r="NZ13" s="5">
         <v>6735.6</v>
       </c>
-      <c r="NY13" s="5">
+      <c r="OA13" s="5">
         <v>6476.6</v>
       </c>
-      <c r="NZ13" s="5">
+      <c r="OB13" s="5">
         <v>6436.5</v>
       </c>
-      <c r="OA13" s="5">
+      <c r="OC13" s="5">
         <v>6344.4</v>
       </c>
-      <c r="OB13" s="5">
+      <c r="OD13" s="5">
         <v>6328.6</v>
       </c>
-      <c r="OC13" s="5">
+      <c r="OE13" s="5">
         <v>6277.2</v>
       </c>
-      <c r="OD13" s="5">
+      <c r="OF13" s="5">
         <v>6268.6</v>
       </c>
-      <c r="OE13" s="5">
+      <c r="OG13" s="5">
         <v>6250.2</v>
       </c>
-      <c r="OF13" s="5">
+      <c r="OH13" s="5">
         <v>6202.3</v>
       </c>
-      <c r="OG13" s="5">
+      <c r="OI13" s="5">
         <v>6223.5</v>
       </c>
-      <c r="OH13" s="6">
+      <c r="OJ13" s="6">
         <v>6231</v>
       </c>
-      <c r="OI13" s="5">
+      <c r="OK13" s="5">
         <v>6457.2</v>
       </c>
-      <c r="OJ13" s="5">
+      <c r="OL13" s="5">
         <v>6323.1</v>
       </c>
-      <c r="OK13" s="6">
+      <c r="OM13" s="6">
         <v>5842</v>
       </c>
-      <c r="OL13" s="6">
+      <c r="ON13" s="6">
         <v>5768</v>
       </c>
-      <c r="OM13" s="5">
+      <c r="OO13" s="5">
         <v>5776.2</v>
       </c>
-      <c r="ON13" s="5">
+      <c r="OP13" s="5">
         <v>5733.2</v>
       </c>
-      <c r="OO13" s="5">
+      <c r="OQ13" s="5">
         <v>5754.4</v>
       </c>
-      <c r="OP13" s="5">
+      <c r="OR13" s="5">
         <v>5748.5</v>
       </c>
-      <c r="OQ13" s="5">
+      <c r="OS13" s="5">
         <v>5733.9</v>
       </c>
-      <c r="OR13" s="5">
+      <c r="OT13" s="5">
         <v>5635.5</v>
       </c>
-      <c r="OS13" s="5">
+      <c r="OU13" s="5">
         <v>5658.1</v>
       </c>
-      <c r="OT13" s="5">
+      <c r="OV13" s="5">
         <v>5782.7</v>
       </c>
-      <c r="OU13" s="5">
+      <c r="OW13" s="5">
         <v>5728.7</v>
       </c>
-      <c r="OV13" s="5">
+      <c r="OX13" s="5">
         <v>5561.5</v>
       </c>
-      <c r="OW13" s="5">
+      <c r="OY13" s="5">
         <v>5373.9</v>
       </c>
-      <c r="OX13" s="5">
+      <c r="OZ13" s="5">
         <v>5391.5</v>
       </c>
-      <c r="OY13" s="5">
+      <c r="PA13" s="5">
         <v>5340.8</v>
       </c>
-      <c r="OZ13" s="5">
+      <c r="PB13" s="5">
         <v>5309.9</v>
       </c>
-      <c r="PA13" s="5">
+      <c r="PC13" s="5">
         <v>5296.5</v>
       </c>
-      <c r="PB13" s="5">
+      <c r="PD13" s="5">
         <v>5314.4</v>
       </c>
-      <c r="PC13" s="6">
+      <c r="PE13" s="6">
         <v>5350</v>
       </c>
-      <c r="PD13" s="5">
+      <c r="PF13" s="5">
         <v>5322.9</v>
       </c>
-      <c r="PE13" s="5">
+      <c r="PG13" s="5">
         <v>5312.9</v>
       </c>
-      <c r="PF13" s="6">
+      <c r="PH13" s="6">
         <v>5304</v>
       </c>
-      <c r="PG13" s="5">
+      <c r="PI13" s="5">
         <v>5684.6</v>
       </c>
-      <c r="PH13" s="5">
+      <c r="PJ13" s="5">
         <v>5188.6</v>
       </c>
-      <c r="PI13" s="5">
+      <c r="PK13" s="5">
         <v>4978.1</v>
       </c>
-      <c r="PJ13" s="5">
+      <c r="PL13" s="5">
         <v>4943.9</v>
       </c>
-      <c r="PK13" s="5">
+      <c r="PM13" s="5">
         <v>4920.7</v>
       </c>
-      <c r="PL13" s="6">
+      <c r="PN13" s="6">
         <v>4841</v>
       </c>
-      <c r="PM13" s="5">
+      <c r="PO13" s="5">
         <v>4826.8</v>
       </c>
-      <c r="PN13" s="5">
+      <c r="PP13" s="5">
         <v>4864.8</v>
       </c>
-      <c r="PO13" s="5">
+      <c r="PQ13" s="5">
         <v>4915.6</v>
       </c>
-      <c r="PP13" s="5">
+      <c r="PR13" s="5">
         <v>4899.1</v>
       </c>
-      <c r="PQ13" s="5">
+      <c r="PS13" s="5">
         <v>4942.9</v>
       </c>
-      <c r="PR13" s="5">
+      <c r="PT13" s="5">
         <v>4998.2</v>
       </c>
-      <c r="PS13" s="6">
+      <c r="PU13" s="6">
         <v>5115</v>
       </c>
-      <c r="PT13" s="6">
+      <c r="PV13" s="6">
         <v>4871</v>
       </c>
-      <c r="PU13" s="5">
+      <c r="PW13" s="5">
         <v>4703.9</v>
       </c>
-      <c r="PV13" s="5">
+      <c r="PX13" s="5">
         <v>4715.8</v>
       </c>
-      <c r="PW13" s="5">
+      <c r="PY13" s="5">
         <v>4721.2</v>
       </c>
-      <c r="PX13" s="5">
+      <c r="PZ13" s="5">
         <v>4771.1</v>
       </c>
-      <c r="PY13" s="6">
+      <c r="QA13" s="6">
         <v>4809</v>
       </c>
-      <c r="PZ13" s="5">
+      <c r="QB13" s="5">
         <v>4843.4</v>
       </c>
-      <c r="QA13" s="5">
+      <c r="QC13" s="5">
         <v>4794.2</v>
       </c>
-      <c r="QB13" s="5">
+      <c r="QD13" s="5">
         <v>4789.4</v>
       </c>
-      <c r="QC13" s="5">
+      <c r="QE13" s="5">
         <v>4804.9</v>
       </c>
-      <c r="QD13" s="5">
+      <c r="QF13" s="5">
         <v>5088.6</v>
       </c>
-      <c r="QE13" s="5">
+      <c r="QG13" s="5">
         <v>4830.8</v>
       </c>
-      <c r="QF13" s="5">
+      <c r="QH13" s="5">
         <v>4767.5</v>
       </c>
-      <c r="QG13" s="5">
+      <c r="QI13" s="5">
         <v>4553.4</v>
       </c>
-      <c r="QH13" s="6">
+      <c r="QJ13" s="6">
         <v>4545</v>
       </c>
-      <c r="QI13" s="5">
+      <c r="QK13" s="5">
         <v>4519.6</v>
       </c>
-      <c r="QJ13" s="5">
+      <c r="QL13" s="5">
         <v>4547.5</v>
       </c>
-      <c r="QK13" s="5">
+      <c r="QM13" s="5">
         <v>4538.7</v>
       </c>
-      <c r="QL13" s="5">
+      <c r="QN13" s="5">
         <v>4560.1</v>
       </c>
-      <c r="QM13" s="5">
+      <c r="QO13" s="5">
         <v>4581.4</v>
       </c>
-      <c r="QN13" s="5">
+      <c r="QP13" s="5">
         <v>4563.4</v>
       </c>
-      <c r="QO13" s="5">
+      <c r="QQ13" s="5">
         <v>4544.2</v>
       </c>
-      <c r="QP13" s="5">
+      <c r="QR13" s="5">
         <v>4633.3</v>
       </c>
-      <c r="QQ13" s="5">
+      <c r="QS13" s="5">
         <v>5030.7</v>
       </c>
-      <c r="QR13" s="5">
+      <c r="QT13" s="5">
         <v>4492.7</v>
       </c>
-      <c r="QS13" s="5">
+      <c r="QU13" s="5">
         <v>4311.1</v>
       </c>
-      <c r="QT13" s="6">
+      <c r="QV13" s="6">
         <v>4282</v>
       </c>
-      <c r="QU13" s="5">
+      <c r="QW13" s="5">
         <v>4281.3</v>
       </c>
-      <c r="QV13" s="5">
+      <c r="QX13" s="5">
         <v>4256.3</v>
       </c>
-      <c r="QW13" s="6">
+      <c r="QY13" s="6">
         <v>4194</v>
       </c>
-      <c r="QX13" s="5">
+      <c r="QZ13" s="5">
         <v>4204.9</v>
       </c>
-      <c r="QY13" s="5">
+      <c r="RA13" s="5">
         <v>4231.1</v>
       </c>
-      <c r="QZ13" s="5">
+      <c r="RB13" s="5">
         <v>4164.4</v>
       </c>
-      <c r="RA13" s="5">
+      <c r="RC13" s="5">
         <v>4205.3</v>
       </c>
-      <c r="RB13" s="5">
+      <c r="RD13" s="5">
         <v>4319.5</v>
       </c>
-      <c r="RC13" s="5">
+      <c r="RE13" s="5">
         <v>4312.7</v>
       </c>
-      <c r="RD13" s="5">
+      <c r="RF13" s="5">
         <v>4114.6</v>
       </c>
-      <c r="RE13" s="5">
+      <c r="RG13" s="5">
         <v>3906.9</v>
       </c>
-      <c r="RF13" s="6">
+      <c r="RH13" s="6">
         <v>3821</v>
       </c>
-      <c r="RG13" s="5">
+      <c r="RI13" s="5">
         <v>3790.3</v>
       </c>
-      <c r="RH13" s="5">
+      <c r="RJ13" s="5">
         <v>3686.9</v>
       </c>
-      <c r="RI13" s="6">
+      <c r="RK13" s="6">
         <v>3661</v>
       </c>
-      <c r="RJ13" s="5">
+      <c r="RL13" s="5">
         <v>3631.7</v>
       </c>
-      <c r="RK13" s="5">
+      <c r="RM13" s="5">
         <v>3589.6</v>
       </c>
-      <c r="RL13" s="5">
+      <c r="RN13" s="5">
         <v>3584.2</v>
       </c>
-      <c r="RM13" s="6">
+      <c r="RO13" s="6">
         <v>3576</v>
       </c>
-      <c r="RN13" s="5">
+      <c r="RP13" s="5">
         <v>3566.7</v>
       </c>
-      <c r="RO13" s="5">
+      <c r="RQ13" s="5">
         <v>3868.8</v>
       </c>
-      <c r="RP13" s="5">
+      <c r="RR13" s="5">
         <v>3487.4</v>
       </c>
-      <c r="RQ13" s="5">
+      <c r="RS13" s="5">
         <v>3254.6</v>
       </c>
-      <c r="RR13" s="5">
+      <c r="RT13" s="5">
         <v>3261.8</v>
       </c>
-      <c r="RS13" s="5">
+      <c r="RU13" s="5">
         <v>3236.5</v>
       </c>
-      <c r="RT13" s="5">
+      <c r="RV13" s="5">
         <v>3197.1</v>
       </c>
-      <c r="RU13" s="5">
+      <c r="RW13" s="5">
         <v>3210.4</v>
       </c>
-      <c r="RV13" s="5">
+      <c r="RX13" s="5">
         <v>3236.4</v>
       </c>
-      <c r="RW13" s="5">
+      <c r="RY13" s="5">
         <v>3241.7</v>
       </c>
-      <c r="RX13" s="5">
+      <c r="RZ13" s="5">
         <v>3218.9</v>
       </c>
-      <c r="RY13" s="5">
+      <c r="SA13" s="5">
         <v>3238.1</v>
       </c>
-      <c r="RZ13" s="5">
+      <c r="SB13" s="5">
         <v>3328.5</v>
       </c>
-      <c r="SA13" s="6">
+      <c r="SC13" s="6">
         <v>3408</v>
       </c>
-      <c r="SB13" s="5">
+      <c r="SD13" s="5">
         <v>3321.9</v>
       </c>
-      <c r="SC13" s="5">
+      <c r="SE13" s="5">
         <v>3148.7</v>
       </c>
-      <c r="SD13" s="6">
+      <c r="SF13" s="6">
         <v>3155</v>
       </c>
-      <c r="SE13" s="5">
+      <c r="SG13" s="5">
         <v>3161.1</v>
       </c>
-      <c r="SF13" s="6">
+      <c r="SH13" s="6">
         <v>3125</v>
       </c>
-      <c r="SG13" s="5">
+      <c r="SI13" s="5">
         <v>3092.8</v>
       </c>
-      <c r="SH13" s="5">
+      <c r="SJ13" s="5">
         <v>3067.9</v>
       </c>
-      <c r="SI13" s="5">
+      <c r="SK13" s="5">
         <v>3056.2</v>
       </c>
-      <c r="SJ13" s="5">
+      <c r="SL13" s="5">
         <v>3087.3</v>
       </c>
-      <c r="SK13" s="5">
+      <c r="SM13" s="5">
         <v>3166.5</v>
       </c>
-      <c r="SL13" s="5">
+      <c r="SN13" s="5">
         <v>3223.5</v>
       </c>
-      <c r="SM13" s="5">
+      <c r="SO13" s="5">
         <v>3161.8</v>
       </c>
-      <c r="SN13" s="5">
+      <c r="SP13" s="5">
         <v>3021.9</v>
       </c>
-      <c r="SO13" s="5">
+      <c r="SQ13" s="5">
         <v>2883.5</v>
       </c>
-      <c r="SP13" s="5">
+      <c r="SR13" s="5">
         <v>2830.9</v>
       </c>
-      <c r="SQ13" s="5">
+      <c r="SS13" s="5">
         <v>2788.7</v>
       </c>
-      <c r="SR13" s="5">
+      <c r="ST13" s="5">
         <v>2769.7</v>
       </c>
-      <c r="SS13" s="5">
+      <c r="SU13" s="5">
         <v>2757.4</v>
       </c>
-      <c r="ST13" s="5">
+      <c r="SV13" s="5">
         <v>2749.7</v>
       </c>
-      <c r="SU13" s="5">
+      <c r="SW13" s="5">
         <v>2743.5</v>
       </c>
-      <c r="SV13" s="6">
+      <c r="SX13" s="6">
         <v>2736</v>
       </c>
-      <c r="SW13" s="5">
+      <c r="SY13" s="5">
         <v>2728.6</v>
       </c>
-      <c r="SX13" s="5">
+      <c r="SZ13" s="5">
         <v>2722.4</v>
       </c>
-      <c r="SY13" s="6">
+      <c r="TA13" s="6">
         <v>2857</v>
       </c>
-      <c r="SZ13" s="5">
+      <c r="TB13" s="5">
         <v>2675.8</v>
       </c>
-      <c r="TA13" s="5">
+      <c r="TC13" s="5">
         <v>2518.6</v>
       </c>
-      <c r="TB13" s="5">
+      <c r="TD13" s="5">
         <v>2467.2</v>
       </c>
-      <c r="TC13" s="5">
+      <c r="TE13" s="5">
         <v>2457.2</v>
       </c>
-      <c r="TD13" s="5">
+      <c r="TF13" s="5">
         <v>2417.5</v>
       </c>
-      <c r="TE13" s="5">
+      <c r="TG13" s="5">
         <v>2391.1</v>
       </c>
-      <c r="TF13" s="6">
+      <c r="TH13" s="6">
         <v>2385</v>
       </c>
-      <c r="TG13" s="5">
+      <c r="TI13" s="5">
         <v>2373.8</v>
       </c>
-      <c r="TH13" s="5">
+      <c r="TJ13" s="5">
         <v>2339.7</v>
       </c>
-      <c r="TI13" s="5">
+      <c r="TK13" s="5">
         <v>2369.6</v>
       </c>
-      <c r="TJ13" s="5">
+      <c r="TL13" s="5">
         <v>2386.1</v>
       </c>
-      <c r="TK13" s="5">
+      <c r="TM13" s="5">
         <v>2438.5</v>
       </c>
-      <c r="TL13" s="5">
+      <c r="TN13" s="5">
         <v>2297.7</v>
       </c>
-      <c r="TM13" s="5">
+      <c r="TO13" s="5">
         <v>2204.7</v>
       </c>
-      <c r="TN13" s="5">
+      <c r="TP13" s="5">
         <v>2158.1</v>
       </c>
-      <c r="TO13" s="5">
+      <c r="TQ13" s="5">
         <v>2144.8</v>
       </c>
-      <c r="TP13" s="5">
+      <c r="TR13" s="5">
         <v>2136.7</v>
       </c>
-      <c r="TQ13" s="5">
+      <c r="TS13" s="5">
         <v>2116.7</v>
       </c>
-      <c r="TR13" s="6">
+      <c r="TT13" s="6">
         <v>2105</v>
       </c>
-      <c r="TS13" s="5">
+      <c r="TU13" s="5">
         <v>2087.8</v>
       </c>
-      <c r="TT13" s="5">
+      <c r="TV13" s="5">
         <v>2057.3</v>
       </c>
-      <c r="TU13" s="5">
+      <c r="TW13" s="5">
         <v>2060.9</v>
       </c>
-      <c r="TV13" s="5">
+      <c r="TX13" s="5">
         <v>2138.8</v>
       </c>
-      <c r="TW13" s="5">
+      <c r="TY13" s="5">
         <v>2054.4</v>
       </c>
-      <c r="TX13" s="5">
+      <c r="TZ13" s="5">
         <v>1997.5</v>
       </c>
-      <c r="TY13" s="5">
+      <c r="UA13" s="5">
         <v>1914.1</v>
       </c>
-      <c r="TZ13" s="5">
+      <c r="UB13" s="5">
         <v>1870.5</v>
       </c>
-      <c r="UA13" s="5">
+      <c r="UC13" s="5">
         <v>1853.2</v>
       </c>
-      <c r="UB13" s="5">
+      <c r="UD13" s="5">
         <v>1844.6</v>
       </c>
-      <c r="UC13" s="5">
+      <c r="UE13" s="5">
         <v>1812.3</v>
       </c>
-      <c r="UD13" s="5">
+      <c r="UF13" s="5">
         <v>1799.3</v>
       </c>
-      <c r="UE13" s="5">
+      <c r="UG13" s="5">
         <v>1789.4</v>
       </c>
-      <c r="UF13" s="5">
+      <c r="UH13" s="5">
         <v>1762.6</v>
       </c>
-      <c r="UG13" s="5">
+      <c r="UI13" s="5">
         <v>1753.7</v>
       </c>
-      <c r="UH13" s="5">
+      <c r="UJ13" s="5">
         <v>1746.6</v>
       </c>
-      <c r="UI13" s="5">
+      <c r="UK13" s="5">
         <v>1846.3</v>
       </c>
-      <c r="UJ13" s="5">
+      <c r="UL13" s="5">
         <v>1690.3</v>
       </c>
-      <c r="UK13" s="6">
+      <c r="UM13" s="6">
         <v>1587</v>
       </c>
-      <c r="UL13" s="5">
+      <c r="UN13" s="5">
         <v>1542.5</v>
       </c>
-      <c r="UM13" s="5">
+      <c r="UO13" s="5">
         <v>1523.1</v>
       </c>
-      <c r="UN13" s="5">
+      <c r="UP13" s="5">
         <v>1476.2</v>
       </c>
-      <c r="UO13" s="5">
+      <c r="UQ13" s="5">
         <v>1455.1</v>
       </c>
-      <c r="UP13" s="5">
+      <c r="UR13" s="5">
         <v>1416.6</v>
       </c>
-      <c r="UQ13" s="5">
+      <c r="US13" s="5">
         <v>1406.1</v>
       </c>
-      <c r="UR13" s="5">
+      <c r="UT13" s="5">
         <v>1390.7</v>
       </c>
-      <c r="US13" s="5">
+      <c r="UU13" s="5">
         <v>1402.6</v>
       </c>
-      <c r="UT13" s="5">
+      <c r="UV13" s="5">
         <v>1436.6</v>
       </c>
-      <c r="UU13" s="5">
+      <c r="UW13" s="5">
         <v>1416.9</v>
       </c>
-      <c r="UV13" s="6">
+      <c r="UX13" s="6">
         <v>1367</v>
       </c>
-      <c r="UW13" s="5">
+      <c r="UY13" s="5">
         <v>1285.2</v>
       </c>
-      <c r="UX13" s="5">
+      <c r="UZ13" s="5">
         <v>1291.2</v>
       </c>
-      <c r="UY13" s="5">
+      <c r="VA13" s="5">
         <v>1248.6</v>
       </c>
-      <c r="UZ13" s="5">
+      <c r="VB13" s="5">
         <v>1232.6</v>
       </c>
-      <c r="VA13" s="5">
+      <c r="VC13" s="5">
         <v>1218.3</v>
       </c>
-      <c r="VB13" s="5">
+      <c r="VD13" s="5">
         <v>1211.6</v>
       </c>
-      <c r="VC13" s="5">
+      <c r="VE13" s="5">
         <v>1205.1</v>
       </c>
-      <c r="VD13" s="5">
+      <c r="VF13" s="5">
         <v>1181.4</v>
       </c>
-      <c r="VE13" s="5">
+      <c r="VG13" s="5">
         <v>1232.6</v>
       </c>
-      <c r="VF13" s="5">
+      <c r="VH13" s="5">
         <v>1178.7</v>
       </c>
-      <c r="VG13" s="5">
+      <c r="VI13" s="5">
         <v>1245.7</v>
       </c>
-      <c r="VH13" s="6">
+      <c r="VJ13" s="6">
         <v>1157</v>
       </c>
-      <c r="VI13" s="5">
+      <c r="VK13" s="5">
         <v>1085.8</v>
       </c>
-      <c r="VJ13" s="5">
+      <c r="VL13" s="5">
         <v>1059.6</v>
       </c>
-      <c r="VK13" s="6">
+      <c r="VM13" s="6">
         <v>1027</v>
       </c>
-      <c r="VL13" s="5">
+      <c r="VN13" s="5">
         <v>1009.9</v>
       </c>
-      <c r="VM13" s="5">
+      <c r="VO13" s="5">
         <v>976.6</v>
       </c>
-      <c r="VN13" s="5">
+      <c r="VP13" s="5">
         <v>972.7</v>
       </c>
-      <c r="VO13" s="5">
+      <c r="VQ13" s="5">
         <v>1051.9</v>
       </c>
-      <c r="VP13" s="5">
+      <c r="VR13" s="5">
         <v>1075.7</v>
       </c>
-      <c r="VQ13" s="5">
+      <c r="VS13" s="5">
         <v>1070.6</v>
       </c>
-      <c r="VR13" s="5">
+      <c r="VT13" s="5">
         <v>1109.2</v>
       </c>
-      <c r="VS13" s="5">
+      <c r="VU13" s="5">
         <v>1121.4</v>
       </c>
-      <c r="VT13" s="5">
+      <c r="VV13" s="5">
         <v>1029.2</v>
       </c>
-      <c r="VU13" s="6">
+      <c r="VW13" s="6">
         <v>967</v>
       </c>
-      <c r="VV13" s="5">
+      <c r="VX13" s="5">
         <v>949.6</v>
       </c>
-      <c r="VW13" s="5">
+      <c r="VY13" s="5">
         <v>933.7</v>
       </c>
-      <c r="VX13" s="5">
+      <c r="VZ13" s="5">
         <v>920.1</v>
       </c>
-      <c r="VY13" s="5">
+      <c r="WA13" s="5">
         <v>890.4</v>
       </c>
-      <c r="VZ13" s="5">
+      <c r="WB13" s="5">
         <v>879.7</v>
       </c>
-      <c r="WA13" s="5">
+      <c r="WC13" s="5">
         <v>880.4</v>
       </c>
-      <c r="WB13" s="5">
+      <c r="WD13" s="5">
         <v>876.2</v>
       </c>
-      <c r="WC13" s="5">
+      <c r="WE13" s="5">
         <v>873.4</v>
       </c>
-      <c r="WD13" s="5">
+      <c r="WF13" s="5">
         <v>909.1</v>
       </c>
-      <c r="WE13" s="5">
+      <c r="WG13" s="5">
         <v>849.7</v>
       </c>
-      <c r="WF13" s="5">
+      <c r="WH13" s="5">
         <v>818.5</v>
       </c>
-      <c r="WG13" s="6">
+      <c r="WI13" s="6">
         <v>798</v>
       </c>
-      <c r="WH13" s="5">
+      <c r="WJ13" s="5">
         <v>792.8</v>
       </c>
-      <c r="WI13" s="5">
+      <c r="WK13" s="5">
         <v>777.9</v>
       </c>
-      <c r="WJ13" s="5">
+      <c r="WL13" s="5">
         <v>767.6</v>
       </c>
-      <c r="WK13" s="6">
+      <c r="WM13" s="6">
         <v>756</v>
       </c>
-      <c r="WL13" s="6">
+      <c r="WN13" s="6">
         <v>749</v>
       </c>
-      <c r="WM13" s="5">
+      <c r="WO13" s="5">
         <v>746.3</v>
       </c>
-      <c r="WN13" s="5">
+      <c r="WP13" s="5">
         <v>746.6</v>
       </c>
-      <c r="WO13" s="5">
+      <c r="WQ13" s="5">
         <v>746.6</v>
       </c>
-      <c r="WP13" s="5">
+      <c r="WR13" s="5">
         <v>746.9</v>
       </c>
-      <c r="WQ13" s="5">
+      <c r="WS13" s="5">
         <v>774.9</v>
       </c>
     </row>
-    <row r="14" spans="1:615" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:617" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
-        <v>625</v>
+        <v>627</v>
       </c>
       <c r="B14" s="5">
+        <v>1624.3</v>
+      </c>
+      <c r="C14" s="5">
+        <v>1622.3</v>
+      </c>
+      <c r="D14" s="5">
         <v>1621.1</v>
       </c>
-      <c r="C14" s="6">
+      <c r="E14" s="6">
         <v>1620</v>
       </c>
-      <c r="D14" s="5">
+      <c r="F14" s="5">
         <v>1616.6</v>
       </c>
-      <c r="E14" s="5">
+      <c r="G14" s="5">
         <v>1614.1</v>
       </c>
-      <c r="F14" s="5">
+      <c r="H14" s="5">
         <v>1612.2</v>
       </c>
-      <c r="G14" s="5">
+      <c r="I14" s="5">
         <v>1610.5</v>
       </c>
-      <c r="H14" s="5">
+      <c r="J14" s="5">
         <v>1608.5</v>
       </c>
-      <c r="I14" s="5">
+      <c r="K14" s="5">
         <v>1606.4</v>
       </c>
-      <c r="J14" s="5">
+      <c r="L14" s="5">
         <v>1605.6</v>
       </c>
-      <c r="K14" s="5">
+      <c r="M14" s="5">
         <v>1604.2</v>
       </c>
-      <c r="L14" s="6">
+      <c r="N14" s="6">
         <v>1602</v>
       </c>
-      <c r="M14" s="5">
+      <c r="O14" s="5">
         <v>1599.6</v>
       </c>
-      <c r="N14" s="5">
+      <c r="P14" s="5">
         <v>1597.6</v>
       </c>
-      <c r="O14" s="5">
+      <c r="Q14" s="5">
         <v>1596.1</v>
       </c>
-      <c r="P14" s="5">
+      <c r="R14" s="5">
         <v>1592.8</v>
       </c>
-      <c r="Q14" s="5">
+      <c r="S14" s="5">
         <v>1589.9</v>
       </c>
-      <c r="R14" s="5">
+      <c r="T14" s="5">
         <v>1587.5</v>
       </c>
-      <c r="S14" s="5">
+      <c r="U14" s="5">
         <v>1584.5</v>
       </c>
-      <c r="T14" s="5">
+      <c r="V14" s="5">
         <v>1583.1</v>
       </c>
-      <c r="U14" s="5">
+      <c r="W14" s="5">
         <v>1580.8</v>
       </c>
-      <c r="V14" s="5">
+      <c r="X14" s="5">
         <v>1578.6</v>
       </c>
-      <c r="W14" s="5">
+      <c r="Y14" s="5">
         <v>1577.2</v>
       </c>
-      <c r="X14" s="5">
+      <c r="Z14" s="5">
         <v>1576.4</v>
       </c>
-      <c r="Y14" s="5">
+      <c r="AA14" s="5">
         <v>1575.2</v>
       </c>
-      <c r="Z14" s="5">
+      <c r="AB14" s="5">
         <v>1574.5</v>
       </c>
-      <c r="AA14" s="5">
+      <c r="AC14" s="5">
         <v>1573.5</v>
       </c>
-      <c r="AB14" s="5">
+      <c r="AD14" s="5">
         <v>1570.5</v>
       </c>
-      <c r="AC14" s="5">
+      <c r="AE14" s="5">
         <v>1567.5</v>
       </c>
-      <c r="AD14" s="5">
+      <c r="AF14" s="5">
         <v>1564.9</v>
       </c>
-      <c r="AE14" s="5">
+      <c r="AG14" s="5">
         <v>1562.9</v>
       </c>
-      <c r="AF14" s="6">
+      <c r="AH14" s="6">
         <v>1561</v>
       </c>
-      <c r="AG14" s="5">
+      <c r="AI14" s="5">
         <v>1558.9</v>
       </c>
-      <c r="AH14" s="5">
+      <c r="AJ14" s="5">
         <v>1557.7</v>
       </c>
-      <c r="AI14" s="5">
+      <c r="AK14" s="5">
         <v>1556.5</v>
       </c>
-      <c r="AJ14" s="5">
+      <c r="AL14" s="5">
         <v>1556.9</v>
       </c>
-      <c r="AK14" s="5">
+      <c r="AM14" s="5">
         <v>1554.9</v>
       </c>
-      <c r="AL14" s="5">
+      <c r="AN14" s="5">
         <v>1553.2</v>
       </c>
-      <c r="AM14" s="5">
+      <c r="AO14" s="5">
         <v>1551.9</v>
       </c>
-      <c r="AN14" s="5">
+      <c r="AP14" s="5">
         <v>1548.9</v>
       </c>
-      <c r="AO14" s="5">
+      <c r="AQ14" s="5">
         <v>1546.3</v>
       </c>
-      <c r="AP14" s="5">
+      <c r="AR14" s="5">
         <v>1544.5</v>
       </c>
-      <c r="AQ14" s="5">
+      <c r="AS14" s="5">
         <v>1542.6</v>
       </c>
-      <c r="AR14" s="5">
+      <c r="AT14" s="5">
         <v>1543.2</v>
       </c>
-      <c r="AS14" s="5">
+      <c r="AU14" s="5">
         <v>1544.5</v>
       </c>
-      <c r="AT14" s="5">
+      <c r="AV14" s="5">
         <v>1546.3</v>
       </c>
-      <c r="AU14" s="5">
+      <c r="AW14" s="5">
         <v>1545.7</v>
       </c>
-      <c r="AV14" s="5">
+      <c r="AX14" s="5">
         <v>1544.2</v>
       </c>
-      <c r="AW14" s="5">
+      <c r="AY14" s="5">
         <v>1540.1</v>
       </c>
-      <c r="AX14" s="5">
+      <c r="AZ14" s="5">
         <v>1535.8</v>
       </c>
-      <c r="AY14" s="5">
+      <c r="BA14" s="5">
         <v>1531.8</v>
       </c>
-      <c r="AZ14" s="5">
+      <c r="BB14" s="5">
         <v>1528.2</v>
       </c>
-      <c r="BA14" s="5">
+      <c r="BC14" s="5">
         <v>1523.3</v>
       </c>
-      <c r="BB14" s="5">
+      <c r="BD14" s="5">
         <v>1518.7</v>
       </c>
-      <c r="BC14" s="5">
+      <c r="BE14" s="5">
         <v>1514.3</v>
       </c>
-      <c r="BD14" s="5">
+      <c r="BF14" s="5">
         <v>1510.1</v>
       </c>
-      <c r="BE14" s="5">
+      <c r="BG14" s="5">
         <v>1505.3</v>
       </c>
-      <c r="BF14" s="5">
+      <c r="BH14" s="5">
         <v>1502.5</v>
       </c>
-      <c r="BG14" s="6">
+      <c r="BI14" s="6">
         <v>1499</v>
       </c>
-      <c r="BH14" s="5">
+      <c r="BJ14" s="5">
         <v>1497.2</v>
       </c>
-      <c r="BI14" s="5">
+      <c r="BK14" s="5">
         <v>1495.5</v>
       </c>
-      <c r="BJ14" s="5">
+      <c r="BL14" s="5">
         <v>1492.9</v>
       </c>
-      <c r="BK14" s="5">
+      <c r="BM14" s="5">
         <v>1491.4</v>
       </c>
-      <c r="BL14" s="5">
+      <c r="BN14" s="5">
         <v>1488.1</v>
       </c>
-      <c r="BM14" s="5">
+      <c r="BO14" s="5">
         <v>1483.8</v>
       </c>
-      <c r="BN14" s="5">
+      <c r="BP14" s="5">
         <v>1481.4</v>
       </c>
-      <c r="BO14" s="5">
+      <c r="BQ14" s="5">
         <v>1477.8</v>
       </c>
-      <c r="BP14" s="6">
+      <c r="BR14" s="6">
         <v>1473</v>
       </c>
-      <c r="BQ14" s="5">
+      <c r="BS14" s="5">
         <v>1467.8</v>
       </c>
-      <c r="BR14" s="5">
+      <c r="BT14" s="5">
         <v>1461.3</v>
       </c>
-      <c r="BS14" s="5">
+      <c r="BU14" s="5">
         <v>1455.9</v>
       </c>
-      <c r="BT14" s="5">
+      <c r="BV14" s="5">
         <v>1451.9</v>
       </c>
-      <c r="BU14" s="5">
+      <c r="BW14" s="5">
         <v>1447.9</v>
       </c>
-      <c r="BV14" s="5">
+      <c r="BX14" s="5">
         <v>1444.6</v>
       </c>
-      <c r="BW14" s="5">
+      <c r="BY14" s="5">
         <v>1443.4</v>
       </c>
-      <c r="BX14" s="5">
+      <c r="BZ14" s="5">
         <v>1434.7</v>
       </c>
-      <c r="BY14" s="5">
+      <c r="CA14" s="5">
         <v>1427.9</v>
       </c>
-      <c r="BZ14" s="5">
+      <c r="CB14" s="5">
         <v>1424.5</v>
       </c>
-      <c r="CA14" s="5">
+      <c r="CC14" s="5">
         <v>1419.2</v>
       </c>
-      <c r="CB14" s="5">
+      <c r="CD14" s="5">
         <v>1414.9</v>
       </c>
-      <c r="CC14" s="5">
+      <c r="CE14" s="5">
         <v>1410.8</v>
       </c>
-      <c r="CD14" s="6">
+      <c r="CF14" s="6">
         <v>1405</v>
       </c>
-      <c r="CE14" s="5">
+      <c r="CG14" s="5">
         <v>1401.4</v>
       </c>
-      <c r="CF14" s="5">
+      <c r="CH14" s="5">
         <v>1397.7</v>
       </c>
-      <c r="CG14" s="6">
+      <c r="CI14" s="6">
         <v>1393</v>
       </c>
-      <c r="CH14" s="5">
+      <c r="CJ14" s="5">
         <v>1390.2</v>
       </c>
-      <c r="CI14" s="5">
+      <c r="CK14" s="5">
         <v>1384.7</v>
       </c>
-      <c r="CJ14" s="5">
+      <c r="CL14" s="5">
         <v>1379.4</v>
       </c>
-      <c r="CK14" s="5">
+      <c r="CM14" s="5">
         <v>1374.6</v>
       </c>
-      <c r="CL14" s="5">
+      <c r="CN14" s="5">
         <v>1371.1</v>
       </c>
-      <c r="CM14" s="5">
+      <c r="CO14" s="5">
         <v>1364.9</v>
       </c>
-      <c r="CN14" s="5">
+      <c r="CP14" s="5">
         <v>1361.1</v>
       </c>
-      <c r="CO14" s="5">
+      <c r="CQ14" s="5">
         <v>1356.5</v>
       </c>
-      <c r="CP14" s="5">
+      <c r="CR14" s="5">
         <v>1349.9</v>
       </c>
-      <c r="CQ14" s="5">
+      <c r="CS14" s="5">
         <v>1346.8</v>
       </c>
-      <c r="CR14" s="5">
+      <c r="CT14" s="5">
         <v>1343.8</v>
       </c>
-      <c r="CS14" s="6">
+      <c r="CU14" s="6">
         <v>1338</v>
       </c>
-      <c r="CT14" s="5">
+      <c r="CV14" s="5">
         <v>1334.4</v>
       </c>
-      <c r="CU14" s="5">
+      <c r="CW14" s="5">
         <v>1332.3</v>
       </c>
-      <c r="CV14" s="5">
+      <c r="CX14" s="5">
         <v>1326.6</v>
       </c>
-      <c r="CW14" s="5">
+      <c r="CY14" s="5">
         <v>1321.2</v>
       </c>
-      <c r="CX14" s="5">
+      <c r="CZ14" s="5">
         <v>1317.6</v>
       </c>
-      <c r="CY14" s="5">
+      <c r="DA14" s="5">
         <v>1312.2</v>
       </c>
-      <c r="CZ14" s="5">
+      <c r="DB14" s="5">
         <v>1309.2</v>
       </c>
-      <c r="DA14" s="5">
+      <c r="DC14" s="5">
         <v>1304.7</v>
       </c>
-      <c r="DB14" s="5">
+      <c r="DD14" s="5">
         <v>1301.4</v>
       </c>
-      <c r="DC14" s="5">
+      <c r="DE14" s="5">
         <v>1295.3</v>
       </c>
-      <c r="DD14" s="5">
+      <c r="DF14" s="5">
         <v>1292.9</v>
       </c>
-      <c r="DE14" s="5">
+      <c r="DG14" s="5">
         <v>1293.2</v>
       </c>
-      <c r="DF14" s="5">
+      <c r="DH14" s="5">
         <v>1291.3</v>
       </c>
-      <c r="DG14" s="5">
+      <c r="DI14" s="5">
         <v>1286.8</v>
       </c>
-      <c r="DH14" s="5">
+      <c r="DJ14" s="5">
         <v>1281.9</v>
       </c>
-      <c r="DI14" s="5">
+      <c r="DK14" s="5">
         <v>1278.6</v>
       </c>
-      <c r="DJ14" s="5">
+      <c r="DL14" s="5">
         <v>1274.9</v>
       </c>
-      <c r="DK14" s="5">
+      <c r="DM14" s="5">
         <v>1271.6</v>
       </c>
-      <c r="DL14" s="5">
+      <c r="DN14" s="5">
         <v>1268.5</v>
       </c>
-      <c r="DM14" s="5">
+      <c r="DO14" s="5">
         <v>1263.2</v>
       </c>
-      <c r="DN14" s="5">
+      <c r="DP14" s="5">
         <v>1259.3</v>
       </c>
-      <c r="DO14" s="5">
+      <c r="DQ14" s="5">
         <v>1255.8</v>
       </c>
-      <c r="DP14" s="5">
+      <c r="DR14" s="5">
         <v>1252.5</v>
       </c>
-      <c r="DQ14" s="5">
+      <c r="DS14" s="5">
         <v>1249.4</v>
       </c>
-      <c r="DR14" s="5">
+      <c r="DT14" s="5">
         <v>1244.9</v>
       </c>
-      <c r="DS14" s="5">
+      <c r="DU14" s="5">
         <v>1243.3</v>
       </c>
-      <c r="DT14" s="5">
+      <c r="DV14" s="5">
         <v>1238.4</v>
       </c>
-      <c r="DU14" s="5">
+      <c r="DW14" s="5">
         <v>1232.7</v>
       </c>
-      <c r="DV14" s="5">
+      <c r="DX14" s="5">
         <v>1229.7</v>
       </c>
-      <c r="DW14" s="5">
+      <c r="DY14" s="5">
         <v>1226.8</v>
       </c>
-      <c r="DX14" s="5">
+      <c r="DZ14" s="5">
         <v>1221.8</v>
       </c>
-      <c r="DY14" s="5">
+      <c r="EA14" s="5">
         <v>1218.1</v>
       </c>
-      <c r="DZ14" s="5">
+      <c r="EB14" s="5">
         <v>1212.2</v>
       </c>
-      <c r="EA14" s="5">
+      <c r="EC14" s="5">
         <v>1207.5</v>
       </c>
-      <c r="EB14" s="5">
+      <c r="ED14" s="5">
         <v>1203.2</v>
       </c>
-      <c r="EC14" s="5">
+      <c r="EE14" s="5">
         <v>1197.6</v>
       </c>
-      <c r="ED14" s="5">
+      <c r="EF14" s="5">
         <v>1195.2</v>
       </c>
-      <c r="EE14" s="5">
+      <c r="EG14" s="5">
         <v>1192.9</v>
       </c>
-      <c r="EF14" s="5">
+      <c r="EH14" s="5">
         <v>1187.4</v>
       </c>
-      <c r="EG14" s="5">
+      <c r="EI14" s="5">
         <v>1181.3</v>
       </c>
-      <c r="EH14" s="6">
+      <c r="EJ14" s="6">
         <v>1178</v>
       </c>
-      <c r="EI14" s="5">
+      <c r="EK14" s="5">
         <v>1173.6</v>
       </c>
-      <c r="EJ14" s="5">
+      <c r="EL14" s="5">
         <v>1170.3</v>
       </c>
-      <c r="EK14" s="5">
+      <c r="EM14" s="5">
         <v>1167.2</v>
       </c>
-      <c r="EL14" s="5">
+      <c r="EN14" s="5">
         <v>1162.3</v>
       </c>
-      <c r="EM14" s="5">
+      <c r="EO14" s="5">
         <v>1159.3</v>
       </c>
-      <c r="EN14" s="5">
+      <c r="EP14" s="5">
         <v>1156.5</v>
       </c>
-      <c r="EO14" s="5">
+      <c r="EQ14" s="5">
         <v>1153.4</v>
       </c>
-      <c r="EP14" s="5">
+      <c r="ER14" s="5">
         <v>1151.4</v>
       </c>
-      <c r="EQ14" s="5">
+      <c r="ES14" s="5">
         <v>1147.7</v>
       </c>
-      <c r="ER14" s="5">
+      <c r="ET14" s="5">
         <v>1144.1</v>
       </c>
-      <c r="ES14" s="6">
+      <c r="EU14" s="6">
         <v>1139</v>
       </c>
-      <c r="ET14" s="5">
+      <c r="EV14" s="5">
         <v>1137.3</v>
       </c>
-      <c r="EU14" s="5">
+      <c r="EW14" s="5">
         <v>1133.7</v>
       </c>
-      <c r="EV14" s="5">
+      <c r="EX14" s="5">
         <v>1131.8</v>
       </c>
-      <c r="EW14" s="5">
+      <c r="EY14" s="5">
         <v>1129.7</v>
       </c>
-      <c r="EX14" s="5">
+      <c r="EZ14" s="5">
         <v>1125.1</v>
       </c>
-      <c r="EY14" s="5">
+      <c r="FA14" s="5">
         <v>1123.7</v>
       </c>
-      <c r="EZ14" s="5">
+      <c r="FB14" s="5">
         <v>1121.8</v>
       </c>
-      <c r="FA14" s="5">
+      <c r="FC14" s="5">
         <v>1118.7</v>
       </c>
-      <c r="FB14" s="5">
+      <c r="FD14" s="5">
         <v>1117.3</v>
       </c>
-      <c r="FC14" s="5">
+      <c r="FE14" s="5">
         <v>1117.5</v>
       </c>
-      <c r="FD14" s="5">
+      <c r="FF14" s="5">
         <v>1112.1</v>
       </c>
-      <c r="FE14" s="5">
+      <c r="FG14" s="5">
         <v>1109.5</v>
       </c>
-      <c r="FF14" s="5">
+      <c r="FH14" s="5">
         <v>1106.9</v>
       </c>
-      <c r="FG14" s="5">
+      <c r="FI14" s="5">
         <v>1103.1</v>
       </c>
-      <c r="FH14" s="5">
+      <c r="FJ14" s="5">
         <v>1100.6</v>
       </c>
-      <c r="FI14" s="5">
+      <c r="FK14" s="5">
         <v>1096.6</v>
       </c>
-      <c r="FJ14" s="5">
+      <c r="FL14" s="5">
         <v>1093.5</v>
       </c>
-      <c r="FK14" s="5">
+      <c r="FM14" s="5">
         <v>1091.2</v>
       </c>
-      <c r="FL14" s="5">
+      <c r="FN14" s="5">
         <v>1086.6</v>
       </c>
-      <c r="FM14" s="5">
+      <c r="FO14" s="5">
         <v>1084.2</v>
       </c>
-      <c r="FN14" s="5">
+      <c r="FP14" s="5">
         <v>1082.5</v>
       </c>
-      <c r="FO14" s="5">
+      <c r="FQ14" s="5">
         <v>1079.2</v>
       </c>
-      <c r="FP14" s="5">
+      <c r="FR14" s="5">
         <v>1074.7</v>
       </c>
-      <c r="FQ14" s="5">
+      <c r="FS14" s="5">
         <v>1069.5</v>
       </c>
-      <c r="FR14" s="6">
+      <c r="FT14" s="6">
         <v>1065</v>
       </c>
-      <c r="FS14" s="5">
+      <c r="FU14" s="5">
         <v>1061.4</v>
       </c>
-      <c r="FT14" s="5">
+      <c r="FV14" s="5">
         <v>1057.2</v>
       </c>
-      <c r="FU14" s="5">
+      <c r="FW14" s="5">
         <v>1051.6</v>
       </c>
-      <c r="FV14" s="5">
+      <c r="FX14" s="5">
         <v>1048.4</v>
       </c>
-      <c r="FW14" s="5">
+      <c r="FY14" s="5">
         <v>1044.4</v>
       </c>
-      <c r="FX14" s="5">
+      <c r="FZ14" s="5">
         <v>1040.3</v>
       </c>
-      <c r="FY14" s="5">
+      <c r="GA14" s="5">
         <v>1037.6</v>
       </c>
-      <c r="FZ14" s="5">
+      <c r="GB14" s="5">
         <v>1034.5</v>
       </c>
-      <c r="GA14" s="5">
+      <c r="GC14" s="5">
         <v>1030.6</v>
       </c>
-      <c r="GB14" s="5">
+      <c r="GD14" s="5">
         <v>1026.1</v>
       </c>
-      <c r="GC14" s="5">
+      <c r="GE14" s="5">
         <v>1021.6</v>
       </c>
-      <c r="GD14" s="5">
+      <c r="GF14" s="5">
         <v>1020.3</v>
       </c>
-      <c r="GE14" s="6">
+      <c r="GG14" s="6">
         <v>1018</v>
       </c>
-      <c r="GF14" s="5">
+      <c r="GH14" s="5">
         <v>1015.4</v>
       </c>
-      <c r="GG14" s="5">
+      <c r="GI14" s="5">
         <v>1013.1</v>
       </c>
-      <c r="GH14" s="5">
+      <c r="GJ14" s="5">
         <v>1010.2</v>
       </c>
-      <c r="GI14" s="5">
+      <c r="GK14" s="5">
         <v>1008.2</v>
       </c>
-      <c r="GJ14" s="5">
+      <c r="GL14" s="5">
         <v>1004.2</v>
       </c>
-      <c r="GK14" s="5">
+      <c r="GM14" s="5">
         <v>1002.8</v>
       </c>
-      <c r="GL14" s="5">
+      <c r="GN14" s="5">
         <v>1002.8</v>
       </c>
-      <c r="GM14" s="5">
+      <c r="GO14" s="5">
         <v>1001.9</v>
       </c>
-      <c r="GN14" s="5">
+      <c r="GP14" s="5">
         <v>997.3</v>
       </c>
-      <c r="GO14" s="5">
+      <c r="GQ14" s="5">
         <v>993.7</v>
       </c>
-      <c r="GP14" s="5">
+      <c r="GR14" s="5">
         <v>991.1</v>
       </c>
-      <c r="GQ14" s="5">
+      <c r="GS14" s="5">
         <v>989.3</v>
       </c>
-      <c r="GR14" s="5">
+      <c r="GT14" s="5">
         <v>986.8</v>
       </c>
-      <c r="GS14" s="5">
+      <c r="GU14" s="5">
         <v>985.4</v>
       </c>
-      <c r="GT14" s="6">
+      <c r="GV14" s="6">
         <v>983</v>
       </c>
-      <c r="GU14" s="5">
+      <c r="GW14" s="5">
         <v>981.6</v>
       </c>
-      <c r="GV14" s="5">
+      <c r="GX14" s="5">
         <v>980.1</v>
       </c>
-      <c r="GW14" s="5">
+      <c r="GY14" s="5">
         <v>979.3</v>
       </c>
-      <c r="GX14" s="5">
+      <c r="GZ14" s="5">
         <v>979.8</v>
       </c>
-      <c r="GY14" s="5">
+      <c r="HA14" s="5">
         <v>978.3</v>
       </c>
-      <c r="GZ14" s="5">
+      <c r="HB14" s="5">
         <v>974.5</v>
       </c>
-      <c r="HA14" s="5">
+      <c r="HC14" s="5">
         <v>970.9</v>
       </c>
-      <c r="HB14" s="5">
+      <c r="HD14" s="5">
         <v>968.8</v>
       </c>
-      <c r="HC14" s="5">
+      <c r="HE14" s="5">
         <v>968.2</v>
       </c>
-      <c r="HD14" s="6">
+      <c r="HF14" s="6">
         <v>969</v>
       </c>
-      <c r="HE14" s="5">
+      <c r="HG14" s="5">
         <v>967.9</v>
       </c>
-      <c r="HF14" s="5">
+      <c r="HH14" s="5">
         <v>965.5</v>
       </c>
-      <c r="HG14" s="5">
+      <c r="HI14" s="5">
         <v>964.2</v>
       </c>
-      <c r="HH14" s="5">
+      <c r="HJ14" s="5">
         <v>961.2</v>
       </c>
-      <c r="HI14" s="5">
+      <c r="HK14" s="5">
         <v>960.6</v>
       </c>
-      <c r="HJ14" s="5">
+      <c r="HL14" s="5">
         <v>960.1</v>
       </c>
-      <c r="HK14" s="5">
+      <c r="HM14" s="5">
         <v>958.8</v>
       </c>
-      <c r="HL14" s="5">
+      <c r="HN14" s="5">
         <v>955.1</v>
       </c>
-      <c r="HM14" s="5">
+      <c r="HO14" s="5">
         <v>949.8</v>
       </c>
-      <c r="HN14" s="5">
+      <c r="HP14" s="5">
         <v>948.6</v>
       </c>
-      <c r="HO14" s="6">
+      <c r="HQ14" s="6">
         <v>948</v>
       </c>
-      <c r="HP14" s="5">
+      <c r="HR14" s="5">
         <v>946.7</v>
       </c>
-      <c r="HQ14" s="5">
+      <c r="HS14" s="5">
         <v>946.3</v>
       </c>
-      <c r="HR14" s="5">
+      <c r="HT14" s="5">
         <v>945.6</v>
       </c>
-      <c r="HS14" s="5">
+      <c r="HU14" s="5">
         <v>945.1</v>
       </c>
-      <c r="HT14" s="5">
+      <c r="HV14" s="5">
         <v>944.4</v>
       </c>
-      <c r="HU14" s="5">
+      <c r="HW14" s="5">
         <v>942.6</v>
       </c>
-      <c r="HV14" s="5">
+      <c r="HX14" s="5">
         <v>941.3</v>
       </c>
-      <c r="HW14" s="5">
+      <c r="HY14" s="5">
         <v>939.2</v>
       </c>
-      <c r="HX14" s="5">
+      <c r="HZ14" s="5">
         <v>932.2</v>
       </c>
-      <c r="HY14" s="5">
+      <c r="IA14" s="5">
         <v>927.5</v>
       </c>
-      <c r="HZ14" s="5">
+      <c r="IB14" s="5">
         <v>924.5</v>
       </c>
-      <c r="IA14" s="5">
+      <c r="IC14" s="5">
         <v>923.6</v>
       </c>
-      <c r="IB14" s="6">
+      <c r="ID14" s="6">
         <v>923</v>
       </c>
-      <c r="IC14" s="6">
+      <c r="IE14" s="6">
         <v>922</v>
       </c>
-      <c r="ID14" s="5">
+      <c r="IF14" s="5">
         <v>920.8</v>
       </c>
-      <c r="IE14" s="6">
+      <c r="IG14" s="6">
         <v>920</v>
-      </c>
-      <c r="IF14" s="6">
-        <v>919</v>
-      </c>
-      <c r="IG14" s="6">
-        <v>919</v>
       </c>
       <c r="IH14" s="6">
         <v>919</v>
       </c>
-      <c r="II14" s="5">
+      <c r="II14" s="6">
+        <v>919</v>
+      </c>
+      <c r="IJ14" s="6">
+        <v>919</v>
+      </c>
+      <c r="IK14" s="5">
         <v>916.9</v>
       </c>
-      <c r="IJ14" s="5">
+      <c r="IL14" s="5">
         <v>911.1</v>
       </c>
-      <c r="IK14" s="5">
+      <c r="IM14" s="5">
         <v>907.5</v>
       </c>
-      <c r="IL14" s="5">
+      <c r="IN14" s="5">
         <v>904.8</v>
       </c>
-      <c r="IM14" s="6">
+      <c r="IO14" s="6">
         <v>904</v>
       </c>
-      <c r="IN14" s="5">
+      <c r="IP14" s="5">
         <v>902.8</v>
       </c>
-      <c r="IO14" s="5">
+      <c r="IQ14" s="5">
         <v>901.1</v>
       </c>
-      <c r="IP14" s="5">
+      <c r="IR14" s="5">
         <v>900.6</v>
       </c>
-      <c r="IQ14" s="5">
+      <c r="IS14" s="5">
         <v>899.2</v>
       </c>
-      <c r="IR14" s="5">
+      <c r="IT14" s="5">
         <v>897.4</v>
       </c>
-      <c r="IS14" s="5">
+      <c r="IU14" s="5">
         <v>895.1</v>
       </c>
-      <c r="IT14" s="5">
+      <c r="IV14" s="5">
         <v>894.4</v>
       </c>
-      <c r="IU14" s="5">
+      <c r="IW14" s="5">
         <v>894.9</v>
       </c>
-      <c r="IV14" s="5">
+      <c r="IX14" s="5">
         <v>886.3</v>
       </c>
-      <c r="IW14" s="5">
+      <c r="IY14" s="5">
         <v>881.8</v>
       </c>
-      <c r="IX14" s="5">
+      <c r="IZ14" s="5">
         <v>879.7</v>
       </c>
-      <c r="IY14" s="5">
+      <c r="JA14" s="5">
         <v>877.9</v>
       </c>
-      <c r="IZ14" s="5">
+      <c r="JB14" s="5">
         <v>876.4</v>
       </c>
-      <c r="JA14" s="5">
+      <c r="JC14" s="5">
         <v>874.7</v>
       </c>
-      <c r="JB14" s="5">
+      <c r="JD14" s="5">
         <v>873.3</v>
       </c>
-      <c r="JC14" s="5">
+      <c r="JE14" s="5">
         <v>873.2</v>
       </c>
-      <c r="JD14" s="5">
+      <c r="JF14" s="5">
         <v>871.3</v>
       </c>
-      <c r="JE14" s="5">
+      <c r="JG14" s="5">
         <v>871.4</v>
       </c>
-      <c r="JF14" s="5">
+      <c r="JH14" s="5">
         <v>870.7</v>
       </c>
-      <c r="JG14" s="5">
+      <c r="JI14" s="5">
         <v>868.6</v>
       </c>
-      <c r="JH14" s="5">
+      <c r="JJ14" s="5">
         <v>858.3</v>
       </c>
-      <c r="JI14" s="5">
+      <c r="JK14" s="5">
         <v>853.6</v>
       </c>
-      <c r="JJ14" s="5">
+      <c r="JL14" s="5">
         <v>851.3</v>
       </c>
-      <c r="JK14" s="5">
+      <c r="JM14" s="5">
         <v>853.9</v>
       </c>
-      <c r="JL14" s="5">
+      <c r="JN14" s="5">
         <v>850.1</v>
       </c>
-      <c r="JM14" s="5">
+      <c r="JO14" s="5">
         <v>844.8</v>
       </c>
-      <c r="JN14" s="6">
+      <c r="JP14" s="6">
         <v>842</v>
       </c>
-      <c r="JO14" s="5">
+      <c r="JQ14" s="5">
         <v>838.2</v>
       </c>
-      <c r="JP14" s="5">
+      <c r="JR14" s="5">
         <v>835.2</v>
       </c>
-      <c r="JQ14" s="5">
+      <c r="JS14" s="5">
         <v>833.1</v>
       </c>
-      <c r="JR14" s="5">
+      <c r="JT14" s="5">
         <v>833.6</v>
       </c>
-      <c r="JS14" s="5">
+      <c r="JU14" s="5">
         <v>830.6</v>
       </c>
-      <c r="JT14" s="5">
+      <c r="JV14" s="5">
         <v>822.8</v>
       </c>
-      <c r="JU14" s="5">
+      <c r="JW14" s="5">
         <v>820.3</v>
       </c>
-      <c r="JV14" s="5">
+      <c r="JX14" s="5">
         <v>818.4</v>
       </c>
-      <c r="JW14" s="5">
+      <c r="JY14" s="5">
         <v>817.5</v>
       </c>
-      <c r="JX14" s="5">
+      <c r="JZ14" s="5">
         <v>817.3</v>
       </c>
-      <c r="JY14" s="5">
+      <c r="KA14" s="5">
         <v>816.4</v>
       </c>
-      <c r="JZ14" s="5">
+      <c r="KB14" s="5">
         <v>817.2</v>
       </c>
-      <c r="KA14" s="6">
+      <c r="KC14" s="6">
         <v>816</v>
       </c>
-      <c r="KB14" s="5">
+      <c r="KD14" s="5">
         <v>813.6</v>
       </c>
-      <c r="KC14" s="5">
+      <c r="KE14" s="5">
         <v>812.5</v>
       </c>
-      <c r="KD14" s="5">
+      <c r="KF14" s="5">
         <v>813.5</v>
       </c>
-      <c r="KE14" s="6">
+      <c r="KG14" s="6">
         <v>815</v>
       </c>
-      <c r="KF14" s="5">
+      <c r="KH14" s="5">
         <v>804.6</v>
       </c>
-      <c r="KG14" s="5">
+      <c r="KI14" s="5">
         <v>801.5</v>
       </c>
-      <c r="KH14" s="5">
+      <c r="KJ14" s="5">
         <v>798.6</v>
       </c>
-      <c r="KI14" s="5">
+      <c r="KK14" s="5">
         <v>795.3</v>
       </c>
-      <c r="KJ14" s="5">
+      <c r="KL14" s="5">
         <v>791.8</v>
       </c>
-      <c r="KK14" s="5">
+      <c r="KM14" s="5">
         <v>788.4</v>
       </c>
-      <c r="KL14" s="5">
+      <c r="KN14" s="5">
         <v>784.1</v>
       </c>
-      <c r="KM14" s="5">
+      <c r="KO14" s="5">
         <v>779.5</v>
       </c>
-      <c r="KN14" s="5">
+      <c r="KP14" s="5">
         <v>774.6</v>
       </c>
-      <c r="KO14" s="5">
+      <c r="KQ14" s="5">
         <v>771.4</v>
       </c>
-      <c r="KP14" s="5">
+      <c r="KR14" s="5">
         <v>768.5</v>
       </c>
-      <c r="KQ14" s="5">
+      <c r="KS14" s="5">
         <v>767.8</v>
       </c>
-      <c r="KR14" s="5">
+      <c r="KT14" s="5">
         <v>755.4</v>
       </c>
-      <c r="KS14" s="5">
+      <c r="KU14" s="5">
         <v>748.3</v>
       </c>
-      <c r="KT14" s="5">
+      <c r="KV14" s="5">
         <v>743.7</v>
       </c>
-      <c r="KU14" s="5">
+      <c r="KW14" s="5">
         <v>739.8</v>
       </c>
-      <c r="KV14" s="5">
+      <c r="KX14" s="5">
         <v>736.6</v>
       </c>
-      <c r="KW14" s="5">
+      <c r="KY14" s="5">
         <v>732.2</v>
       </c>
-      <c r="KX14" s="5">
+      <c r="KZ14" s="5">
         <v>727.6</v>
       </c>
-      <c r="KY14" s="5">
+      <c r="LA14" s="5">
         <v>725.3</v>
       </c>
-      <c r="KZ14" s="6">
+      <c r="LB14" s="6">
         <v>721</v>
       </c>
-      <c r="LA14" s="5">
+      <c r="LC14" s="5">
         <v>717.5</v>
       </c>
-      <c r="LB14" s="5">
+      <c r="LD14" s="5">
         <v>716.7</v>
       </c>
-      <c r="LC14" s="5">
+      <c r="LE14" s="5">
         <v>714.5</v>
       </c>
-      <c r="LD14" s="5">
+      <c r="LF14" s="5">
         <v>702.6</v>
       </c>
-      <c r="LE14" s="5">
+      <c r="LG14" s="5">
         <v>698.4</v>
       </c>
-      <c r="LF14" s="5">
+      <c r="LH14" s="5">
         <v>695.3</v>
       </c>
-      <c r="LG14" s="5">
+      <c r="LI14" s="5">
         <v>687.1</v>
       </c>
-      <c r="LH14" s="5">
+      <c r="LJ14" s="5">
         <v>683.2</v>
       </c>
-      <c r="LI14" s="5">
+      <c r="LK14" s="5">
         <v>679.6</v>
       </c>
-      <c r="LJ14" s="5">
+      <c r="LL14" s="5">
         <v>674.9</v>
       </c>
-      <c r="LK14" s="5">
+      <c r="LM14" s="5">
         <v>671.6</v>
       </c>
-      <c r="LL14" s="6">
+      <c r="LN14" s="6">
         <v>666</v>
       </c>
-      <c r="LM14" s="6">
+      <c r="LO14" s="6">
         <v>662</v>
       </c>
-      <c r="LN14" s="5">
+      <c r="LP14" s="5">
         <v>660.3</v>
       </c>
-      <c r="LO14" s="5">
+      <c r="LQ14" s="5">
         <v>660.4</v>
       </c>
-      <c r="LP14" s="5">
+      <c r="LR14" s="5">
         <v>649.4</v>
       </c>
-      <c r="LQ14" s="5">
+      <c r="LS14" s="5">
         <v>645.2</v>
       </c>
-      <c r="LR14" s="6">
+      <c r="LT14" s="6">
         <v>640</v>
       </c>
-      <c r="LS14" s="5">
+      <c r="LU14" s="5">
         <v>635.8</v>
       </c>
-      <c r="LT14" s="5">
+      <c r="LV14" s="5">
         <v>633.6</v>
       </c>
-      <c r="LU14" s="5">
+      <c r="LW14" s="5">
         <v>627.7</v>
       </c>
-      <c r="LV14" s="5">
+      <c r="LX14" s="5">
         <v>624.6</v>
       </c>
-      <c r="LW14" s="5">
+      <c r="LY14" s="5">
         <v>621.7</v>
       </c>
-      <c r="LX14" s="5">
+      <c r="LZ14" s="5">
         <v>617.6</v>
       </c>
-      <c r="LY14" s="5">
+      <c r="MA14" s="5">
         <v>614.4</v>
       </c>
-      <c r="LZ14" s="5">
+      <c r="MB14" s="5">
         <v>614.5</v>
       </c>
-      <c r="MA14" s="5">
+      <c r="MC14" s="5">
         <v>611.8</v>
       </c>
-      <c r="MB14" s="5">
+      <c r="MD14" s="5">
         <v>601.4</v>
       </c>
-      <c r="MC14" s="5">
+      <c r="ME14" s="5">
         <v>597.6</v>
       </c>
-      <c r="MD14" s="5">
+      <c r="MF14" s="5">
         <v>594.2</v>
       </c>
-      <c r="ME14" s="5">
+      <c r="MG14" s="5">
         <v>590.9</v>
       </c>
-      <c r="MF14" s="5">
+      <c r="MH14" s="5">
         <v>587.9</v>
       </c>
-      <c r="MG14" s="5">
+      <c r="MI14" s="5">
         <v>582.4</v>
       </c>
-      <c r="MH14" s="5">
+      <c r="MJ14" s="5">
         <v>580.5</v>
       </c>
-      <c r="MI14" s="5">
+      <c r="MK14" s="5">
         <v>577.2</v>
       </c>
-      <c r="MJ14" s="5">
+      <c r="ML14" s="5">
         <v>573.8</v>
       </c>
-      <c r="MK14" s="5">
+      <c r="MM14" s="5">
         <v>570.3</v>
       </c>
-      <c r="ML14" s="5">
+      <c r="MN14" s="5">
         <v>567.4</v>
       </c>
-      <c r="MM14" s="5">
+      <c r="MO14" s="5">
         <v>568.3</v>
       </c>
-      <c r="MN14" s="5">
+      <c r="MP14" s="5">
         <v>559.8</v>
       </c>
-      <c r="MO14" s="6">
+      <c r="MQ14" s="6">
         <v>556</v>
       </c>
-      <c r="MP14" s="5">
+      <c r="MR14" s="5">
         <v>552.7</v>
       </c>
-      <c r="MQ14" s="5">
+      <c r="MS14" s="5">
         <v>550.4</v>
       </c>
-      <c r="MR14" s="5">
+      <c r="MT14" s="5">
         <v>545.9</v>
       </c>
-      <c r="MS14" s="5">
+      <c r="MU14" s="5">
         <v>541.2</v>
       </c>
-      <c r="MT14" s="5">
+      <c r="MV14" s="5">
         <v>538.5</v>
       </c>
-      <c r="MU14" s="5">
+      <c r="MW14" s="5">
         <v>536.1</v>
       </c>
-      <c r="MV14" s="5">
+      <c r="MX14" s="5">
         <v>533.8</v>
       </c>
-      <c r="MW14" s="5">
+      <c r="MY14" s="5">
         <v>531.6</v>
       </c>
-      <c r="MX14" s="5">
+      <c r="MZ14" s="5">
         <v>531.4</v>
       </c>
-      <c r="MY14" s="5">
+      <c r="NA14" s="5">
         <v>533.1</v>
       </c>
-      <c r="MZ14" s="6">
+      <c r="NB14" s="6">
         <v>523</v>
       </c>
-      <c r="NA14" s="5">
+      <c r="NC14" s="5">
         <v>518.4</v>
       </c>
-      <c r="NB14" s="5">
+      <c r="ND14" s="5">
         <v>514.7</v>
       </c>
-      <c r="NC14" s="5">
+      <c r="NE14" s="5">
         <v>510.1</v>
       </c>
-      <c r="ND14" s="5">
+      <c r="NF14" s="5">
         <v>506.3</v>
       </c>
-      <c r="NE14" s="5">
+      <c r="NG14" s="5">
         <v>502.4</v>
       </c>
-      <c r="NF14" s="5">
+      <c r="NH14" s="5">
         <v>497.6</v>
       </c>
-      <c r="NG14" s="5">
+      <c r="NI14" s="5">
         <v>495.7</v>
       </c>
-      <c r="NH14" s="6">
+      <c r="NJ14" s="6">
         <v>496</v>
       </c>
-      <c r="NI14" s="5">
+      <c r="NK14" s="5">
         <v>495.5</v>
       </c>
-      <c r="NJ14" s="5">
+      <c r="NL14" s="5">
         <v>505.4</v>
       </c>
-      <c r="NK14" s="5">
+      <c r="NM14" s="5">
         <v>506.3</v>
       </c>
-      <c r="NL14" s="5">
+      <c r="NN14" s="5">
         <v>489.5</v>
       </c>
-      <c r="NM14" s="5">
+      <c r="NO14" s="5">
         <v>479.9</v>
       </c>
-      <c r="NN14" s="5">
+      <c r="NP14" s="5">
         <v>471.2</v>
       </c>
-      <c r="NO14" s="5">
+      <c r="NQ14" s="5">
         <v>466.3</v>
       </c>
-      <c r="NP14" s="5">
+      <c r="NR14" s="5">
         <v>461.3</v>
       </c>
-      <c r="NQ14" s="5">
+      <c r="NS14" s="5">
         <v>457.2</v>
       </c>
-      <c r="NR14" s="5">
+      <c r="NT14" s="5">
         <v>445.8</v>
       </c>
-      <c r="NS14" s="5">
+      <c r="NU14" s="5">
         <v>443.4</v>
       </c>
-      <c r="NT14" s="6">
+      <c r="NV14" s="6">
         <v>437</v>
       </c>
-      <c r="NU14" s="5">
+      <c r="NW14" s="5">
         <v>430.4</v>
       </c>
-      <c r="NV14" s="5">
+      <c r="NX14" s="5">
         <v>428.3</v>
       </c>
-      <c r="NW14" s="5">
+      <c r="NY14" s="5">
         <v>430.6</v>
       </c>
-      <c r="NX14" s="5">
+      <c r="NZ14" s="5">
         <v>402.4</v>
       </c>
-      <c r="NY14" s="5">
+      <c r="OA14" s="5">
         <v>397.2</v>
       </c>
-      <c r="NZ14" s="5">
+      <c r="OB14" s="5">
         <v>394.3</v>
       </c>
-      <c r="OA14" s="5">
+      <c r="OC14" s="5">
         <v>391.3</v>
       </c>
-      <c r="OB14" s="5">
+      <c r="OD14" s="5">
         <v>390.1</v>
       </c>
-      <c r="OC14" s="5">
+      <c r="OE14" s="5">
         <v>388.3</v>
       </c>
-      <c r="OD14" s="5">
+      <c r="OF14" s="5">
         <v>386.4</v>
       </c>
-      <c r="OE14" s="5">
+      <c r="OG14" s="5">
         <v>385.7</v>
       </c>
-      <c r="OF14" s="5">
+      <c r="OH14" s="5">
         <v>384.7</v>
       </c>
-      <c r="OG14" s="5">
+      <c r="OI14" s="5">
         <v>383.6</v>
       </c>
-      <c r="OH14" s="5">
+      <c r="OJ14" s="5">
         <v>386.2</v>
       </c>
-      <c r="OI14" s="5">
+      <c r="OK14" s="5">
         <v>386.6</v>
       </c>
-      <c r="OJ14" s="5">
+      <c r="OL14" s="5">
         <v>379.1</v>
       </c>
-      <c r="OK14" s="5">
+      <c r="OM14" s="5">
         <v>374.8</v>
       </c>
-      <c r="OL14" s="5">
+      <c r="ON14" s="5">
         <v>368.7</v>
       </c>
-      <c r="OM14" s="5">
+      <c r="OO14" s="5">
         <v>363.1</v>
       </c>
-      <c r="ON14" s="5">
+      <c r="OP14" s="5">
         <v>357.6</v>
       </c>
-      <c r="OO14" s="5">
+      <c r="OQ14" s="5">
         <v>356.3</v>
       </c>
-      <c r="OP14" s="5">
+      <c r="OR14" s="5">
         <v>355.2</v>
       </c>
-      <c r="OQ14" s="5">
+      <c r="OS14" s="5">
         <v>354.9</v>
       </c>
-      <c r="OR14" s="5">
+      <c r="OT14" s="5">
         <v>353.8</v>
       </c>
-      <c r="OS14" s="5">
+      <c r="OU14" s="5">
         <v>353.2</v>
       </c>
-      <c r="OT14" s="5">
+      <c r="OV14" s="5">
         <v>352.8</v>
       </c>
-      <c r="OU14" s="5">
+      <c r="OW14" s="5">
         <v>350.8</v>
       </c>
-      <c r="OV14" s="5">
+      <c r="OX14" s="5">
         <v>324.2</v>
       </c>
-      <c r="OW14" s="5">
+      <c r="OY14" s="5">
         <v>318.2</v>
       </c>
-      <c r="OX14" s="5">
+      <c r="OZ14" s="5">
         <v>312.4</v>
       </c>
-      <c r="OY14" s="5">
+      <c r="PA14" s="5">
         <v>309.3</v>
       </c>
-      <c r="OZ14" s="5">
+      <c r="PB14" s="5">
         <v>306.2</v>
       </c>
-      <c r="PA14" s="5">
+      <c r="PC14" s="5">
         <v>304.9</v>
       </c>
-      <c r="PB14" s="5">
+      <c r="PD14" s="5">
         <v>304.4</v>
       </c>
-      <c r="PC14" s="5">
+      <c r="PE14" s="5">
         <v>301.8</v>
       </c>
-      <c r="PD14" s="5">
+      <c r="PF14" s="5">
         <v>300.2</v>
       </c>
-      <c r="PE14" s="5">
+      <c r="PG14" s="5">
         <v>297.9</v>
       </c>
-      <c r="PF14" s="6">
+      <c r="PH14" s="6">
         <v>297</v>
       </c>
-      <c r="PG14" s="5">
+      <c r="PI14" s="5">
         <v>297.1</v>
       </c>
-      <c r="PH14" s="5">
+      <c r="PJ14" s="5">
         <v>295.6</v>
       </c>
-      <c r="PI14" s="6">
+      <c r="PK14" s="6">
         <v>288</v>
       </c>
-      <c r="PJ14" s="5">
+      <c r="PL14" s="5">
         <v>286.5</v>
-      </c>
-      <c r="PK14" s="5">
-        <v>285.2</v>
-      </c>
-      <c r="PL14" s="5">
-        <v>285.8</v>
       </c>
       <c r="PM14" s="5">
         <v>285.2</v>
       </c>
-      <c r="PN14" s="6">
+      <c r="PN14" s="5">
+        <v>285.8</v>
+      </c>
+      <c r="PO14" s="5">
+        <v>285.2</v>
+      </c>
+      <c r="PP14" s="6">
         <v>285</v>
       </c>
-      <c r="PO14" s="5">
+      <c r="PQ14" s="5">
         <v>283.9</v>
       </c>
-      <c r="PP14" s="5">
+      <c r="PR14" s="5">
         <v>282.4</v>
       </c>
-      <c r="PQ14" s="6">
+      <c r="PS14" s="6">
         <v>282</v>
       </c>
-      <c r="PR14" s="6">
+      <c r="PT14" s="6">
         <v>281</v>
       </c>
-      <c r="PS14" s="5">
+      <c r="PU14" s="5">
         <v>282.2</v>
       </c>
-      <c r="PT14" s="5">
+      <c r="PV14" s="5">
         <v>278.1</v>
       </c>
-      <c r="PU14" s="5">
+      <c r="PW14" s="5">
         <v>276.8</v>
       </c>
-      <c r="PV14" s="5">
+      <c r="PX14" s="5">
         <v>276.1</v>
       </c>
-      <c r="PW14" s="5">
+      <c r="PY14" s="5">
         <v>275.3</v>
       </c>
-      <c r="PX14" s="5">
+      <c r="PZ14" s="5">
         <v>274.3</v>
       </c>
-      <c r="PY14" s="5">
+      <c r="QA14" s="5">
         <v>274.6</v>
       </c>
-      <c r="PZ14" s="6">
+      <c r="QB14" s="6">
         <v>275</v>
       </c>
-      <c r="QA14" s="5">
+      <c r="QC14" s="5">
         <v>274.8</v>
       </c>
-      <c r="QB14" s="5">
+      <c r="QD14" s="5">
         <v>273.7</v>
       </c>
-      <c r="QC14" s="5">
+      <c r="QE14" s="5">
         <v>274.1</v>
       </c>
-      <c r="QD14" s="5">
+      <c r="QF14" s="5">
         <v>274.5</v>
       </c>
-      <c r="QE14" s="5">
+      <c r="QG14" s="5">
         <v>268.7</v>
       </c>
-      <c r="QF14" s="5">
+      <c r="QH14" s="5">
         <v>265.9</v>
       </c>
-      <c r="QG14" s="5">
+      <c r="QI14" s="5">
         <v>264.4</v>
       </c>
-      <c r="QH14" s="5">
+      <c r="QJ14" s="5">
         <v>263.3</v>
       </c>
-      <c r="QI14" s="5">
+      <c r="QK14" s="5">
         <v>262.9</v>
       </c>
-      <c r="QJ14" s="5">
+      <c r="QL14" s="5">
         <v>262.5</v>
       </c>
-      <c r="QK14" s="5">
+      <c r="QM14" s="5">
         <v>260.2</v>
       </c>
-      <c r="QL14" s="5">
+      <c r="QN14" s="5">
         <v>258.9</v>
       </c>
-      <c r="QM14" s="5">
+      <c r="QO14" s="5">
         <v>257.3</v>
       </c>
-      <c r="QN14" s="5">
+      <c r="QP14" s="5">
         <v>255.6</v>
       </c>
-      <c r="QO14" s="5">
+      <c r="QQ14" s="5">
         <v>253.6</v>
       </c>
-      <c r="QP14" s="5">
+      <c r="QR14" s="5">
         <v>253.4</v>
       </c>
-      <c r="QQ14" s="5">
+      <c r="QS14" s="5">
         <v>254.2</v>
       </c>
-      <c r="QR14" s="6">
+      <c r="QT14" s="6">
         <v>247</v>
       </c>
-      <c r="QS14" s="5">
+      <c r="QU14" s="5">
         <v>244.5</v>
       </c>
-      <c r="QT14" s="5">
+      <c r="QV14" s="5">
         <v>243.1</v>
       </c>
-      <c r="QU14" s="5">
+      <c r="QW14" s="5">
         <v>241.6</v>
       </c>
-      <c r="QV14" s="5">
+      <c r="QX14" s="5">
         <v>240.6</v>
       </c>
-      <c r="QW14" s="5">
+      <c r="QY14" s="5">
         <v>239.6</v>
       </c>
-      <c r="QX14" s="5">
+      <c r="QZ14" s="5">
         <v>238.2</v>
       </c>
-      <c r="QY14" s="6">
+      <c r="RA14" s="6">
         <v>236</v>
       </c>
-      <c r="QZ14" s="6">
+      <c r="RB14" s="6">
         <v>234</v>
       </c>
-      <c r="RA14" s="5">
+      <c r="RC14" s="5">
         <v>233.3</v>
       </c>
-      <c r="RB14" s="5">
+      <c r="RD14" s="5">
         <v>232.6</v>
       </c>
-      <c r="RC14" s="5">
+      <c r="RE14" s="5">
         <v>229.6</v>
       </c>
-      <c r="RD14" s="5">
+      <c r="RF14" s="5">
         <v>224.5</v>
       </c>
-      <c r="RE14" s="6">
+      <c r="RG14" s="6">
         <v>220</v>
       </c>
-      <c r="RF14" s="5">
+      <c r="RH14" s="5">
         <v>217.6</v>
       </c>
-      <c r="RG14" s="5">
+      <c r="RI14" s="5">
         <v>215.5</v>
       </c>
-      <c r="RH14" s="5">
+      <c r="RJ14" s="5">
         <v>213.2</v>
       </c>
-      <c r="RI14" s="5">
+      <c r="RK14" s="5">
         <v>211.5</v>
       </c>
-      <c r="RJ14" s="5">
+      <c r="RL14" s="5">
         <v>209.9</v>
       </c>
-      <c r="RK14" s="5">
+      <c r="RM14" s="5">
         <v>209.2</v>
       </c>
-      <c r="RL14" s="5">
+      <c r="RN14" s="5">
         <v>208.8</v>
       </c>
-      <c r="RM14" s="5">
+      <c r="RO14" s="5">
         <v>207.4</v>
       </c>
-      <c r="RN14" s="5">
+      <c r="RP14" s="5">
         <v>207.2</v>
       </c>
-      <c r="RO14" s="5">
+      <c r="RQ14" s="5">
         <v>206.1</v>
       </c>
-      <c r="RP14" s="5">
+      <c r="RR14" s="5">
         <v>202.2</v>
       </c>
-      <c r="RQ14" s="5">
+      <c r="RS14" s="5">
         <v>197.8</v>
       </c>
-      <c r="RR14" s="5">
+      <c r="RT14" s="5">
         <v>196.7</v>
       </c>
-      <c r="RS14" s="5">
+      <c r="RU14" s="5">
         <v>196.2</v>
       </c>
-      <c r="RT14" s="5">
+      <c r="RV14" s="5">
         <v>194.6</v>
       </c>
-      <c r="RU14" s="5">
+      <c r="RW14" s="5">
         <v>191.4</v>
       </c>
-      <c r="RV14" s="5">
+      <c r="RX14" s="5">
         <v>190.3</v>
       </c>
-      <c r="RW14" s="5">
+      <c r="RY14" s="5">
         <v>187.9</v>
       </c>
-      <c r="RX14" s="5">
+      <c r="RZ14" s="5">
         <v>186.8</v>
       </c>
-      <c r="RY14" s="5">
+      <c r="SA14" s="5">
         <v>186.4</v>
       </c>
-      <c r="RZ14" s="5">
+      <c r="SB14" s="5">
         <v>185.7</v>
       </c>
-      <c r="SA14" s="5">
+      <c r="SC14" s="5">
         <v>184.5</v>
       </c>
-      <c r="SB14" s="5">
+      <c r="SD14" s="5">
         <v>176.9</v>
       </c>
-      <c r="SC14" s="5">
+      <c r="SE14" s="5">
         <v>175.4</v>
       </c>
-      <c r="SD14" s="5">
+      <c r="SF14" s="5">
         <v>173.9</v>
       </c>
-      <c r="SE14" s="5">
+      <c r="SG14" s="5">
         <v>172.5</v>
       </c>
-      <c r="SF14" s="5">
+      <c r="SH14" s="5">
         <v>171.5</v>
       </c>
-      <c r="SG14" s="5">
+      <c r="SI14" s="5">
         <v>170.5</v>
       </c>
-      <c r="SH14" s="5">
+      <c r="SJ14" s="5">
         <v>169.6</v>
       </c>
-      <c r="SI14" s="5">
+      <c r="SK14" s="5">
         <v>167.4</v>
       </c>
-      <c r="SJ14" s="5">
+      <c r="SL14" s="5">
         <v>166.4</v>
       </c>
-      <c r="SK14" s="5">
+      <c r="SM14" s="5">
         <v>165.9</v>
       </c>
-      <c r="SL14" s="5">
+      <c r="SN14" s="5">
         <v>165.2</v>
       </c>
-      <c r="SM14" s="5">
+      <c r="SO14" s="5">
         <v>162.1</v>
       </c>
-      <c r="SN14" s="5">
+      <c r="SP14" s="5">
         <v>159.3</v>
       </c>
-      <c r="SO14" s="5">
+      <c r="SQ14" s="5">
         <v>157.4</v>
       </c>
-      <c r="SP14" s="5">
+      <c r="SR14" s="5">
         <v>156.1</v>
       </c>
-      <c r="SQ14" s="6">
+      <c r="SS14" s="6">
         <v>155</v>
       </c>
-      <c r="SR14" s="5">
+      <c r="ST14" s="5">
         <v>154.1</v>
       </c>
-      <c r="SS14" s="6">
+      <c r="SU14" s="6">
         <v>153</v>
       </c>
-      <c r="ST14" s="5">
+      <c r="SV14" s="5">
         <v>151.9</v>
       </c>
-      <c r="SU14" s="5">
+      <c r="SW14" s="5">
         <v>151.1</v>
       </c>
-      <c r="SV14" s="6">
+      <c r="SX14" s="6">
         <v>150</v>
       </c>
-      <c r="SW14" s="5">
+      <c r="SY14" s="5">
         <v>149.7</v>
       </c>
-      <c r="SX14" s="5">
+      <c r="SZ14" s="5">
         <v>149.5</v>
       </c>
-      <c r="SY14" s="5">
+      <c r="TA14" s="5">
         <v>149.1</v>
       </c>
-      <c r="SZ14" s="5">
+      <c r="TB14" s="5">
         <v>146.2</v>
       </c>
-      <c r="TA14" s="5">
+      <c r="TC14" s="5">
         <v>143.5</v>
       </c>
-      <c r="TB14" s="5">
+      <c r="TD14" s="5">
         <v>142.2</v>
       </c>
-      <c r="TC14" s="5">
+      <c r="TE14" s="5">
         <v>141.3</v>
       </c>
-      <c r="TD14" s="5">
+      <c r="TF14" s="5">
         <v>140.7</v>
       </c>
-      <c r="TE14" s="5">
+      <c r="TG14" s="5">
         <v>139.4</v>
       </c>
-      <c r="TF14" s="5">
+      <c r="TH14" s="5">
         <v>138.7</v>
       </c>
-      <c r="TG14" s="5">
+      <c r="TI14" s="5">
         <v>137.8</v>
       </c>
-      <c r="TH14" s="5">
+      <c r="TJ14" s="5">
         <v>137.2</v>
       </c>
-      <c r="TI14" s="5">
+      <c r="TK14" s="5">
         <v>136.7</v>
       </c>
-      <c r="TJ14" s="5">
+      <c r="TL14" s="5">
         <v>136.7</v>
       </c>
-      <c r="TK14" s="5">
+      <c r="TM14" s="5">
         <v>134.8</v>
       </c>
-      <c r="TL14" s="5">
+      <c r="TN14" s="5">
         <v>133.5</v>
       </c>
-      <c r="TM14" s="5">
+      <c r="TO14" s="5">
         <v>130.7</v>
       </c>
-      <c r="TN14" s="5">
+      <c r="TP14" s="5">
         <v>129.8</v>
       </c>
-      <c r="TO14" s="5">
+      <c r="TQ14" s="5">
         <v>128.8</v>
       </c>
-      <c r="TP14" s="5">
+      <c r="TR14" s="5">
         <v>128.3</v>
       </c>
-      <c r="TQ14" s="5">
+      <c r="TS14" s="5">
         <v>127.7</v>
       </c>
-      <c r="TR14" s="5">
+      <c r="TT14" s="5">
         <v>125.3</v>
       </c>
-      <c r="TS14" s="5">
+      <c r="TU14" s="5">
         <v>125.2</v>
       </c>
-      <c r="TT14" s="5">
+      <c r="TV14" s="5">
         <v>124.4</v>
       </c>
-      <c r="TU14" s="5">
+      <c r="TW14" s="5">
         <v>124.6</v>
       </c>
-      <c r="TV14" s="5">
+      <c r="TX14" s="5">
         <v>124.8</v>
       </c>
-      <c r="TW14" s="5">
+      <c r="TY14" s="5">
         <v>122.9</v>
       </c>
-      <c r="TX14" s="5">
+      <c r="TZ14" s="5">
         <v>121.7</v>
       </c>
-      <c r="TY14" s="5">
+      <c r="UA14" s="5">
         <v>119.7</v>
       </c>
-      <c r="TZ14" s="5">
+      <c r="UB14" s="5">
         <v>119.3</v>
       </c>
-      <c r="UA14" s="5">
+      <c r="UC14" s="5">
         <v>118.9</v>
       </c>
-      <c r="UB14" s="5">
+      <c r="UD14" s="5">
         <v>118.3</v>
       </c>
-      <c r="UC14" s="5">
+      <c r="UE14" s="5">
         <v>117.6</v>
       </c>
-      <c r="UD14" s="5">
+      <c r="UF14" s="5">
         <v>117.1</v>
       </c>
-      <c r="UE14" s="5">
+      <c r="UG14" s="5">
         <v>116.7</v>
       </c>
-      <c r="UF14" s="6">
+      <c r="UH14" s="6">
         <v>116</v>
       </c>
-      <c r="UG14" s="5">
+      <c r="UI14" s="5">
         <v>115.7</v>
       </c>
-      <c r="UH14" s="5">
+      <c r="UJ14" s="5">
         <v>115.7</v>
       </c>
-      <c r="UI14" s="5">
+      <c r="UK14" s="5">
         <v>116.3</v>
       </c>
-      <c r="UJ14" s="5">
+      <c r="UL14" s="5">
         <v>112.2</v>
       </c>
-      <c r="UK14" s="5">
+      <c r="UM14" s="5">
         <v>109.9</v>
       </c>
-      <c r="UL14" s="5">
+      <c r="UN14" s="5">
         <v>109.2</v>
       </c>
-      <c r="UM14" s="5">
+      <c r="UO14" s="5">
         <v>108.4</v>
       </c>
-      <c r="UN14" s="5">
+      <c r="UP14" s="5">
         <v>106.1</v>
       </c>
-      <c r="UO14" s="5">
+      <c r="UQ14" s="5">
         <v>86.1</v>
       </c>
-      <c r="UP14" s="5">
+      <c r="UR14" s="5">
         <v>85.4</v>
       </c>
-      <c r="UQ14" s="6">
+      <c r="US14" s="6">
         <v>85</v>
       </c>
-      <c r="UR14" s="5">
+      <c r="UT14" s="5">
         <v>84.7</v>
       </c>
-      <c r="US14" s="5">
+      <c r="UU14" s="5">
         <v>84.6</v>
       </c>
-      <c r="UT14" s="5">
+      <c r="UV14" s="5">
         <v>84.5</v>
       </c>
-      <c r="UU14" s="5">
+      <c r="UW14" s="5">
         <v>83.7</v>
       </c>
-      <c r="UV14" s="5">
+      <c r="UX14" s="5">
         <v>80.2</v>
       </c>
-      <c r="UW14" s="5">
+      <c r="UY14" s="5">
         <v>78.6</v>
       </c>
-      <c r="UX14" s="5">
+      <c r="UZ14" s="5">
         <v>77.7</v>
       </c>
-      <c r="UY14" s="5">
+      <c r="VA14" s="5">
         <v>76.8</v>
       </c>
-      <c r="UZ14" s="5">
+      <c r="VB14" s="5">
         <v>76.6</v>
       </c>
-      <c r="VA14" s="6">
+      <c r="VC14" s="6">
         <v>76</v>
       </c>
-      <c r="VB14" s="5">
+      <c r="VD14" s="5">
         <v>75.3</v>
       </c>
-      <c r="VC14" s="5">
+      <c r="VE14" s="5">
         <v>74.8</v>
       </c>
-      <c r="VD14" s="5">
+      <c r="VF14" s="5">
         <v>74.6</v>
       </c>
-      <c r="VE14" s="5">
+      <c r="VG14" s="5">
         <v>74.3</v>
       </c>
-      <c r="VF14" s="5">
+      <c r="VH14" s="5">
         <v>74.1</v>
       </c>
-      <c r="VG14" s="5">
+      <c r="VI14" s="5">
         <v>74.2</v>
       </c>
-      <c r="VH14" s="5">
+      <c r="VJ14" s="5">
         <v>70.6</v>
       </c>
-      <c r="VI14" s="5">
+      <c r="VK14" s="5">
         <v>69.4</v>
       </c>
-      <c r="VJ14" s="5">
+      <c r="VL14" s="5">
         <v>68.8</v>
       </c>
-      <c r="VK14" s="6">
+      <c r="VM14" s="6">
         <v>68</v>
       </c>
-      <c r="VL14" s="6">
+      <c r="VN14" s="6">
         <v>67</v>
       </c>
-      <c r="VM14" s="5">
+      <c r="VO14" s="5">
         <v>66.7</v>
       </c>
-      <c r="VN14" s="5">
+      <c r="VP14" s="5">
         <v>66.9</v>
       </c>
-      <c r="VO14" s="5">
+      <c r="VQ14" s="5">
         <v>71.5</v>
       </c>
-      <c r="VP14" s="5">
+      <c r="VR14" s="5">
         <v>72.6</v>
-      </c>
-      <c r="VQ14" s="5">
-        <v>72.4</v>
-      </c>
-      <c r="VR14" s="5">
-        <v>72.4</v>
       </c>
       <c r="VS14" s="5">
         <v>72.4</v>
       </c>
       <c r="VT14" s="5">
+        <v>72.4</v>
+      </c>
+      <c r="VU14" s="5">
+        <v>72.4</v>
+      </c>
+      <c r="VV14" s="5">
         <v>68.7</v>
       </c>
-      <c r="VU14" s="5">
+      <c r="VW14" s="5">
         <v>67.4</v>
       </c>
-      <c r="VV14" s="5">
+      <c r="VX14" s="5">
         <v>66.7</v>
       </c>
-      <c r="VW14" s="5">
+      <c r="VY14" s="5">
         <v>66.1</v>
       </c>
-      <c r="VX14" s="5">
+      <c r="VZ14" s="5">
         <v>65.3</v>
       </c>
-      <c r="VY14" s="5">
+      <c r="WA14" s="5">
         <v>64.5</v>
       </c>
-      <c r="VZ14" s="6">
+      <c r="WB14" s="6">
         <v>64</v>
       </c>
-      <c r="WA14" s="5">
+      <c r="WC14" s="5">
         <v>63.8</v>
       </c>
-      <c r="WB14" s="5">
+      <c r="WD14" s="5">
         <v>63.7</v>
       </c>
-      <c r="WC14" s="5">
+      <c r="WE14" s="5">
         <v>63.7</v>
       </c>
-      <c r="WD14" s="6">
+      <c r="WF14" s="6">
         <v>64</v>
       </c>
-      <c r="WE14" s="5">
+      <c r="WG14" s="5">
         <v>62.2</v>
       </c>
-      <c r="WF14" s="5">
+      <c r="WH14" s="5">
         <v>60.4</v>
       </c>
-      <c r="WG14" s="5">
+      <c r="WI14" s="5">
         <v>59.5</v>
       </c>
-      <c r="WH14" s="6">
+      <c r="WJ14" s="6">
         <v>59</v>
       </c>
-      <c r="WI14" s="5">
+      <c r="WK14" s="5">
         <v>58.4</v>
       </c>
-      <c r="WJ14" s="5">
+      <c r="WL14" s="5">
         <v>57.7</v>
       </c>
-      <c r="WK14" s="5">
+      <c r="WM14" s="5">
         <v>57.1</v>
       </c>
-      <c r="WL14" s="5">
+      <c r="WN14" s="5">
         <v>56.3</v>
       </c>
-      <c r="WM14" s="5">
+      <c r="WO14" s="5">
         <v>56.1</v>
-      </c>
-      <c r="WN14" s="5">
-        <v>55.7</v>
-      </c>
-      <c r="WO14" s="5">
-        <v>55.5</v>
       </c>
       <c r="WP14" s="5">
         <v>55.7</v>
       </c>
-      <c r="WQ14" s="6">
+      <c r="WQ14" s="5">
+        <v>55.5</v>
+      </c>
+      <c r="WR14" s="5">
+        <v>55.7</v>
+      </c>
+      <c r="WS14" s="6">
         <v>56</v>
       </c>
     </row>
     <row r="16" spans="1:1" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>626</v>
+        <v>628</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>627</v>
+        <v>629</v>
       </c>
     </row>
     <row r="19" spans="1:1" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>628</v>
+        <v>630</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>629</v>
+        <v>631</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>630</v>
+        <v>632</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>631</v>
+        <v>633</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>632</v>
+        <v>634</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>633</v>
+        <v>635</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>634</v>
+        <v>636</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>635</v>
+        <v>637</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>636</v>
+        <v>638</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>637</v>
+        <v>639</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>638</v>
+        <v>640</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>639</v>
+        <v>641</v>
       </c>
     </row>
   </sheetData>

--- a/INTLINE/data/576/DOS/M700001 - Currency In Circulation End Of Period Monthly.xlsx
+++ b/INTLINE/data/576/DOS/M700001 - Currency In Circulation End Of Period Monthly.xlsx
@@ -1933,7 +1933,7 @@
     <t>Generated by: SingStat Table Builder</t>
   </si>
   <si>
-    <t>Date generated: 14/06/2022</t>
+    <t>Date generated: 27/06/2022</t>
   </si>
   <si>
     <t>Contact: info@singstat.gov.sg</t>
